--- a/DOC/Тест расчета себестоимости.xlsx
+++ b/DOC/Тест расчета себестоимости.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="19980" windowHeight="8070"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="19980" windowHeight="8070" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="25">
   <si>
     <t>Остатки</t>
   </si>
@@ -166,21 +166,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -477,8 +477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="D123" sqref="D123"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -496,35 +496,35 @@
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="4"/>
+      <c r="E1" s="9"/>
       <c r="F1" s="2"/>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="7"/>
-      <c r="L1" s="5" t="s">
+      <c r="K1" s="11"/>
+      <c r="L1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="M1" s="2"/>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2"/>
@@ -587,7 +587,7 @@
       <c r="L3" s="2">
         <v>5</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="3">
         <v>3</v>
       </c>
       <c r="N3" s="2"/>
@@ -621,7 +621,7 @@
       <c r="L4" s="2">
         <v>7</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="3">
         <v>3</v>
       </c>
       <c r="N4" s="2"/>
@@ -677,13 +677,13 @@
       <c r="L8" s="2">
         <v>2</v>
       </c>
-      <c r="M8" s="5">
+      <c r="M8" s="3">
         <v>5</v>
       </c>
       <c r="N8" s="2">
         <v>10</v>
       </c>
-      <c r="O8" s="5">
+      <c r="O8" s="3">
         <v>4</v>
       </c>
       <c r="P8" s="2"/>
@@ -711,7 +711,7 @@
       <c r="L9" s="2">
         <v>1</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="3">
         <v>5</v>
       </c>
       <c r="N9" s="2"/>
@@ -721,10 +721,10 @@
       </c>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="8">
-        <v>5</v>
-      </c>
-      <c r="B10" s="8" t="s">
+      <c r="A10" s="4">
+        <v>5</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D10">
@@ -736,10 +736,10 @@
       <c r="J10">
         <v>15</v>
       </c>
-      <c r="L10" s="9">
-        <v>2</v>
-      </c>
-      <c r="M10" s="11">
+      <c r="L10" s="5">
+        <v>2</v>
+      </c>
+      <c r="M10" s="7">
         <v>3</v>
       </c>
     </row>
@@ -756,27 +756,27 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="27.75" customHeight="1">
-      <c r="B14" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="10" t="s">
+      <c r="B14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10" t="s">
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="H14" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="10" t="s">
+      <c r="I14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J14" s="10" t="s">
+      <c r="J14" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -967,27 +967,27 @@
       </c>
     </row>
     <row r="25" spans="2:13" ht="30">
-      <c r="B25" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="10" t="s">
+      <c r="B25" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10" t="s">
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H25" s="10" t="s">
+      <c r="H25" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I25" s="10" t="s">
+      <c r="I25" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J25" s="10" t="s">
+      <c r="J25" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1176,27 +1176,27 @@
       </c>
     </row>
     <row r="36" spans="2:10" ht="30">
-      <c r="B36" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C36" s="10" t="s">
+      <c r="B36" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D36" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10" t="s">
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H36" s="10" t="s">
+      <c r="H36" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I36" s="10" t="s">
+      <c r="I36" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J36" s="10" t="s">
+      <c r="J36" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1389,27 +1389,27 @@
       </c>
     </row>
     <row r="47" spans="2:10" ht="30">
-      <c r="B47" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C47" s="10" t="s">
+      <c r="B47" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="D47" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10" t="s">
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H47" s="10" t="s">
+      <c r="H47" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I47" s="10" t="s">
+      <c r="I47" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J47" s="10" t="s">
+      <c r="J47" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1602,27 +1602,27 @@
       </c>
     </row>
     <row r="58" spans="2:10" ht="30">
-      <c r="B58" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C58" s="10" t="s">
+      <c r="B58" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C58" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D58" s="10" t="s">
+      <c r="D58" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10" t="s">
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H58" s="10" t="s">
+      <c r="H58" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I58" s="10" t="s">
+      <c r="I58" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J58" s="10" t="s">
+      <c r="J58" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1815,27 +1815,27 @@
       </c>
     </row>
     <row r="69" spans="2:10" ht="30">
-      <c r="B69" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C69" s="10" t="s">
+      <c r="B69" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C69" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D69" s="10" t="s">
+      <c r="D69" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E69" s="10"/>
-      <c r="F69" s="10"/>
-      <c r="G69" s="10" t="s">
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H69" s="10" t="s">
+      <c r="H69" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I69" s="10" t="s">
+      <c r="I69" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J69" s="10" t="s">
+      <c r="J69" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2028,27 +2028,27 @@
       </c>
     </row>
     <row r="80" spans="2:10" ht="30">
-      <c r="B80" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C80" s="10" t="s">
+      <c r="B80" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C80" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D80" s="10" t="s">
+      <c r="D80" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E80" s="10"/>
-      <c r="F80" s="10"/>
-      <c r="G80" s="10" t="s">
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H80" s="10" t="s">
+      <c r="H80" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I80" s="10" t="s">
+      <c r="I80" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J80" s="10" t="s">
+      <c r="J80" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2241,27 +2241,27 @@
       </c>
     </row>
     <row r="91" spans="2:10" ht="30">
-      <c r="B91" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C91" s="10" t="s">
+      <c r="B91" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C91" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D91" s="10" t="s">
+      <c r="D91" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E91" s="10"/>
-      <c r="F91" s="10"/>
-      <c r="G91" s="10" t="s">
+      <c r="E91" s="6"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H91" s="10" t="s">
+      <c r="H91" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I91" s="10" t="s">
+      <c r="I91" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J91" s="10" t="s">
+      <c r="J91" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2454,27 +2454,27 @@
       </c>
     </row>
     <row r="102" spans="2:10" ht="30">
-      <c r="B102" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C102" s="10" t="s">
+      <c r="B102" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C102" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D102" s="10" t="s">
+      <c r="D102" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E102" s="10"/>
-      <c r="F102" s="10"/>
-      <c r="G102" s="10" t="s">
+      <c r="E102" s="6"/>
+      <c r="F102" s="6"/>
+      <c r="G102" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H102" s="10" t="s">
+      <c r="H102" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I102" s="10" t="s">
+      <c r="I102" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J102" s="10" t="s">
+      <c r="J102" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2667,27 +2667,27 @@
       </c>
     </row>
     <row r="113" spans="2:10" ht="30">
-      <c r="B113" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C113" s="10" t="s">
+      <c r="B113" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C113" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D113" s="10" t="s">
+      <c r="D113" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E113" s="10"/>
-      <c r="F113" s="10"/>
-      <c r="G113" s="10" t="s">
+      <c r="E113" s="6"/>
+      <c r="F113" s="6"/>
+      <c r="G113" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H113" s="10" t="s">
+      <c r="H113" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I113" s="10" t="s">
+      <c r="I113" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J113" s="10" t="s">
+      <c r="J113" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2880,12 +2880,5470 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:P319"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B301" workbookViewId="0">
+      <selection activeCell="B323" sqref="B323"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="4" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" customWidth="1"/>
+    <col min="15" max="15" width="13.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="9"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="11"/>
+      <c r="L1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="2"/>
+      <c r="N1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2">
+        <v>100</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2">
+        <v>20</v>
+      </c>
+      <c r="H3" s="2">
+        <v>180</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2">
+        <v>30</v>
+      </c>
+      <c r="O3" s="2">
+        <v>2</v>
+      </c>
+      <c r="P3" s="2"/>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2">
+        <v>30</v>
+      </c>
+      <c r="M4" s="3">
+        <v>2</v>
+      </c>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <v>30</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>30</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="2">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2">
+        <v>4</v>
+      </c>
+      <c r="E8" s="2">
+        <v>14</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2">
+        <v>1</v>
+      </c>
+      <c r="M8" s="3">
+        <v>2</v>
+      </c>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="4">
+        <v>5</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>20</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="L9" s="5">
+        <v>1</v>
+      </c>
+      <c r="M9" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="D11">
+        <f>280/30</f>
+        <v>9.3333333333333339</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="B12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="27.75" customHeight="1">
+      <c r="B13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>60</v>
+      </c>
+      <c r="D14">
+        <v>280</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>28</v>
+      </c>
+      <c r="J14">
+        <f>I14*D15/C15</f>
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <f>M16*8</f>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>60</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>30</v>
+      </c>
+      <c r="J15">
+        <f>I15*D14/C14</f>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>4</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <f>I16*D17/C17</f>
+        <v>3.5</v>
+      </c>
+      <c r="M16">
+        <f>5*150</f>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>14</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <v>5</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <f>I17*D18/C18</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12">
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>20</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <v>30</v>
+      </c>
+      <c r="J18">
+        <f>I18*D15/C15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12">
+      <c r="D19" s="1">
+        <f>SUM(D14:D18)</f>
+        <v>314</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12">
+      <c r="B22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" ht="30">
+      <c r="B23" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12">
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>60</v>
+      </c>
+      <c r="D24">
+        <f>280+J14</f>
+        <v>280</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="I24">
+        <v>30</v>
+      </c>
+      <c r="J24">
+        <f>I24*D25/C25</f>
+        <v>73.75</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12">
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>60</v>
+      </c>
+      <c r="D25">
+        <f>SUM(J15:J18)</f>
+        <v>147.5</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>30</v>
+      </c>
+      <c r="J25">
+        <f>I25*D24/C24</f>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12">
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+      <c r="H26">
+        <v>4</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <f>I26*D27/C27</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12">
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="D27">
+        <v>14</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="H27">
+        <v>5</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <f>I27*D28/C28</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12">
+      <c r="B28">
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="D28">
+        <v>20</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+      <c r="H28">
+        <v>2</v>
+      </c>
+      <c r="I28">
+        <v>30</v>
+      </c>
+      <c r="J28">
+        <f>I28*D25/C25</f>
+        <v>73.75</v>
+      </c>
+      <c r="L28">
+        <f>D19-D29</f>
+        <v>-147.5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12">
+      <c r="D29" s="1">
+        <f>SUM(D24:D28)</f>
+        <v>461.5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12">
+      <c r="D30" s="1"/>
+    </row>
+    <row r="32" spans="2:12">
+      <c r="B32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" ht="30">
+      <c r="B33" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12">
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>60</v>
+      </c>
+      <c r="D34">
+        <f>280+J24</f>
+        <v>353.75</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>2</v>
+      </c>
+      <c r="I34">
+        <v>30</v>
+      </c>
+      <c r="J34">
+        <f>I34*D35/C35</f>
+        <v>110.625</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12">
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>60</v>
+      </c>
+      <c r="D35">
+        <f>SUM(J25:J28)</f>
+        <v>221.25</v>
+      </c>
+      <c r="G35">
+        <v>2</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>30</v>
+      </c>
+      <c r="J35">
+        <f>I35*D34/C34</f>
+        <v>176.875</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12">
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+      <c r="H36">
+        <v>4</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <f>I36*D37/C37</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12">
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37">
+        <v>4</v>
+      </c>
+      <c r="D37">
+        <v>14</v>
+      </c>
+      <c r="G37">
+        <v>2</v>
+      </c>
+      <c r="H37">
+        <v>5</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <f>I37*D38/C38</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12">
+      <c r="B38">
+        <v>5</v>
+      </c>
+      <c r="C38">
+        <v>5</v>
+      </c>
+      <c r="D38">
+        <v>20</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+      <c r="H38">
+        <v>2</v>
+      </c>
+      <c r="I38">
+        <v>30</v>
+      </c>
+      <c r="J38">
+        <f>I38*D35/C35</f>
+        <v>110.625</v>
+      </c>
+      <c r="L38">
+        <f>D29-D39</f>
+        <v>-147.5</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12">
+      <c r="D39" s="1">
+        <f>SUM(D34:D38)</f>
+        <v>609</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12">
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="2:12">
+      <c r="B42" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" ht="30">
+      <c r="B43" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J43" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12">
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>60</v>
+      </c>
+      <c r="D44">
+        <f>280+J34</f>
+        <v>390.625</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>2</v>
+      </c>
+      <c r="I44">
+        <v>30</v>
+      </c>
+      <c r="J44">
+        <f>I44*D45/C45</f>
+        <v>147.5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12">
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <v>60</v>
+      </c>
+      <c r="D45">
+        <f>SUM(J35:J38)</f>
+        <v>295</v>
+      </c>
+      <c r="G45">
+        <v>2</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>30</v>
+      </c>
+      <c r="J45">
+        <f>I45*D44/C44</f>
+        <v>195.3125</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12">
+      <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>2</v>
+      </c>
+      <c r="H46">
+        <v>4</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <f>I46*D47/C47</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12">
+      <c r="B47">
+        <v>4</v>
+      </c>
+      <c r="C47">
+        <v>4</v>
+      </c>
+      <c r="D47">
+        <v>14</v>
+      </c>
+      <c r="G47">
+        <v>2</v>
+      </c>
+      <c r="H47">
+        <v>5</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <f>I47*D48/C48</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12">
+      <c r="B48">
+        <v>5</v>
+      </c>
+      <c r="C48">
+        <v>5</v>
+      </c>
+      <c r="D48">
+        <v>20</v>
+      </c>
+      <c r="G48">
+        <v>2</v>
+      </c>
+      <c r="H48">
+        <v>2</v>
+      </c>
+      <c r="I48">
+        <v>30</v>
+      </c>
+      <c r="J48">
+        <f>I48*D45/C45</f>
+        <v>147.5</v>
+      </c>
+      <c r="L48">
+        <f>D39-D49</f>
+        <v>-110.625</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12">
+      <c r="D49" s="1">
+        <f>SUM(D44:D48)</f>
+        <v>719.625</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12">
+      <c r="B52" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12" ht="30">
+      <c r="B53" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J53" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12">
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>60</v>
+      </c>
+      <c r="D54">
+        <f>280+J44</f>
+        <v>427.5</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>2</v>
+      </c>
+      <c r="I54">
+        <v>30</v>
+      </c>
+      <c r="J54">
+        <f>I54*D55/C55</f>
+        <v>175.15625</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12">
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55">
+        <v>60</v>
+      </c>
+      <c r="D55">
+        <f>SUM(J45:J48)</f>
+        <v>350.3125</v>
+      </c>
+      <c r="G55">
+        <v>2</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <v>30</v>
+      </c>
+      <c r="J55">
+        <f>I55*D54/C54</f>
+        <v>213.75</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12">
+      <c r="B56">
+        <v>3</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>2</v>
+      </c>
+      <c r="H56">
+        <v>4</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <f>I56*D57/C57</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12">
+      <c r="B57">
+        <v>4</v>
+      </c>
+      <c r="C57">
+        <v>4</v>
+      </c>
+      <c r="D57">
+        <v>14</v>
+      </c>
+      <c r="G57">
+        <v>2</v>
+      </c>
+      <c r="H57">
+        <v>5</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <f>I57*D58/C58</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="2:12">
+      <c r="B58">
+        <v>5</v>
+      </c>
+      <c r="C58">
+        <v>5</v>
+      </c>
+      <c r="D58">
+        <v>20</v>
+      </c>
+      <c r="G58">
+        <v>2</v>
+      </c>
+      <c r="H58">
+        <v>2</v>
+      </c>
+      <c r="I58">
+        <v>30</v>
+      </c>
+      <c r="J58">
+        <f>I58*D55/C55</f>
+        <v>175.15625</v>
+      </c>
+      <c r="L58">
+        <f>D49-D59</f>
+        <v>-92.1875</v>
+      </c>
+    </row>
+    <row r="59" spans="2:12">
+      <c r="D59" s="1">
+        <f>SUM(D54:D58)</f>
+        <v>811.8125</v>
+      </c>
+    </row>
+    <row r="62" spans="2:12">
+      <c r="B62" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="2:12" ht="30">
+      <c r="B63" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I63" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J63" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="2:12">
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <v>60</v>
+      </c>
+      <c r="D64">
+        <f>280+J54</f>
+        <v>455.15625</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <v>2</v>
+      </c>
+      <c r="I64">
+        <v>30</v>
+      </c>
+      <c r="J64">
+        <f>I64*D65/C65</f>
+        <v>198.203125</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12">
+      <c r="B65">
+        <v>2</v>
+      </c>
+      <c r="C65">
+        <v>60</v>
+      </c>
+      <c r="D65">
+        <f>SUM(J55:J58)</f>
+        <v>396.40625</v>
+      </c>
+      <c r="G65">
+        <v>2</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="I65">
+        <v>30</v>
+      </c>
+      <c r="J65">
+        <f>I65*D64/C64</f>
+        <v>227.578125</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12">
+      <c r="B66">
+        <v>3</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>2</v>
+      </c>
+      <c r="H66">
+        <v>4</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <f>I66*D67/C67</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12">
+      <c r="B67">
+        <v>4</v>
+      </c>
+      <c r="C67">
+        <v>4</v>
+      </c>
+      <c r="D67">
+        <v>14</v>
+      </c>
+      <c r="G67">
+        <v>2</v>
+      </c>
+      <c r="H67">
+        <v>5</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <f>I67*D68/C68</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="2:12">
+      <c r="B68">
+        <v>5</v>
+      </c>
+      <c r="C68">
+        <v>5</v>
+      </c>
+      <c r="D68">
+        <v>20</v>
+      </c>
+      <c r="G68">
+        <v>2</v>
+      </c>
+      <c r="H68">
+        <v>2</v>
+      </c>
+      <c r="I68">
+        <v>30</v>
+      </c>
+      <c r="J68">
+        <f>I68*D65/C65</f>
+        <v>198.203125</v>
+      </c>
+      <c r="L68">
+        <f>D59-D69</f>
+        <v>-73.75</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12">
+      <c r="D69" s="1">
+        <f>SUM(D64:D68)</f>
+        <v>885.5625</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12">
+      <c r="B72" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" ht="30">
+      <c r="B73" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H73" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I73" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J73" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12">
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>60</v>
+      </c>
+      <c r="D74">
+        <f>280+J64</f>
+        <v>478.203125</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="H74">
+        <v>2</v>
+      </c>
+      <c r="I74">
+        <v>30</v>
+      </c>
+      <c r="J74">
+        <f>I74*D75/C75</f>
+        <v>216.640625</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12">
+      <c r="B75">
+        <v>2</v>
+      </c>
+      <c r="C75">
+        <v>60</v>
+      </c>
+      <c r="D75">
+        <f>SUM(J65:J68)</f>
+        <v>433.28125</v>
+      </c>
+      <c r="G75">
+        <v>2</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
+      </c>
+      <c r="I75">
+        <v>30</v>
+      </c>
+      <c r="J75">
+        <f>I75*D74/C74</f>
+        <v>239.1015625</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12">
+      <c r="B76">
+        <v>3</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>2</v>
+      </c>
+      <c r="H76">
+        <v>4</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="J76">
+        <f>I76*D77/C77</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12">
+      <c r="B77">
+        <v>4</v>
+      </c>
+      <c r="C77">
+        <v>4</v>
+      </c>
+      <c r="D77">
+        <v>14</v>
+      </c>
+      <c r="G77">
+        <v>2</v>
+      </c>
+      <c r="H77">
+        <v>5</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <f>I77*D78/C78</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="2:12">
+      <c r="B78">
+        <v>5</v>
+      </c>
+      <c r="C78">
+        <v>5</v>
+      </c>
+      <c r="D78">
+        <v>20</v>
+      </c>
+      <c r="G78">
+        <v>2</v>
+      </c>
+      <c r="H78">
+        <v>2</v>
+      </c>
+      <c r="I78">
+        <v>30</v>
+      </c>
+      <c r="J78">
+        <f>I78*D75/C75</f>
+        <v>216.640625</v>
+      </c>
+      <c r="L78">
+        <f>D69-D79</f>
+        <v>-59.921875</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12">
+      <c r="D79" s="1">
+        <f>SUM(D74:D78)</f>
+        <v>945.484375</v>
+      </c>
+    </row>
+    <row r="82" spans="2:12">
+      <c r="B82" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="83" spans="2:12" ht="30">
+      <c r="B83" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H83" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I83" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J83" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="2:12">
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84">
+        <v>60</v>
+      </c>
+      <c r="D84">
+        <f>280+J74</f>
+        <v>496.640625</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+      <c r="H84">
+        <v>2</v>
+      </c>
+      <c r="I84">
+        <v>30</v>
+      </c>
+      <c r="J84">
+        <f>I84*D85/C85</f>
+        <v>231.62109375</v>
+      </c>
+    </row>
+    <row r="85" spans="2:12">
+      <c r="B85">
+        <v>2</v>
+      </c>
+      <c r="C85">
+        <v>60</v>
+      </c>
+      <c r="D85">
+        <f>SUM(J75:J78)</f>
+        <v>463.2421875</v>
+      </c>
+      <c r="G85">
+        <v>2</v>
+      </c>
+      <c r="H85">
+        <v>1</v>
+      </c>
+      <c r="I85">
+        <v>30</v>
+      </c>
+      <c r="J85">
+        <f>I85*D84/C84</f>
+        <v>248.3203125</v>
+      </c>
+    </row>
+    <row r="86" spans="2:12">
+      <c r="B86">
+        <v>3</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>2</v>
+      </c>
+      <c r="H86">
+        <v>4</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="J86">
+        <f>I86*D87/C87</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="87" spans="2:12">
+      <c r="B87">
+        <v>4</v>
+      </c>
+      <c r="C87">
+        <v>4</v>
+      </c>
+      <c r="D87">
+        <v>14</v>
+      </c>
+      <c r="G87">
+        <v>2</v>
+      </c>
+      <c r="H87">
+        <v>5</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87">
+        <f>I87*D88/C88</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="2:12">
+      <c r="B88">
+        <v>5</v>
+      </c>
+      <c r="C88">
+        <v>5</v>
+      </c>
+      <c r="D88">
+        <v>20</v>
+      </c>
+      <c r="G88">
+        <v>2</v>
+      </c>
+      <c r="H88">
+        <v>2</v>
+      </c>
+      <c r="I88">
+        <v>30</v>
+      </c>
+      <c r="J88">
+        <f>I88*D85/C85</f>
+        <v>231.62109375</v>
+      </c>
+      <c r="L88">
+        <f>D79-D89</f>
+        <v>-48.3984375</v>
+      </c>
+    </row>
+    <row r="89" spans="2:12">
+      <c r="D89" s="1">
+        <f>SUM(D84:D88)</f>
+        <v>993.8828125</v>
+      </c>
+    </row>
+    <row r="90" spans="2:12">
+      <c r="B90" s="6"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="6"/>
+      <c r="H90" s="6"/>
+      <c r="I90" s="6"/>
+      <c r="J90" s="6"/>
+    </row>
+    <row r="92" spans="2:12">
+      <c r="B92" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="93" spans="2:12" ht="30">
+      <c r="B93" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H93" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I93" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J93" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="2:12">
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94">
+        <v>60</v>
+      </c>
+      <c r="D94">
+        <f>280+J84</f>
+        <v>511.62109375</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+      <c r="H94">
+        <v>2</v>
+      </c>
+      <c r="I94">
+        <v>30</v>
+      </c>
+      <c r="J94">
+        <f>I94*D95/C95</f>
+        <v>243.720703125</v>
+      </c>
+    </row>
+    <row r="95" spans="2:12">
+      <c r="B95">
+        <v>2</v>
+      </c>
+      <c r="C95">
+        <v>60</v>
+      </c>
+      <c r="D95">
+        <f>SUM(J85:J88)</f>
+        <v>487.44140625</v>
+      </c>
+      <c r="G95">
+        <v>2</v>
+      </c>
+      <c r="H95">
+        <v>1</v>
+      </c>
+      <c r="I95">
+        <v>30</v>
+      </c>
+      <c r="J95">
+        <f>I95*D94/C94</f>
+        <v>255.810546875</v>
+      </c>
+    </row>
+    <row r="96" spans="2:12">
+      <c r="B96">
+        <v>3</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>2</v>
+      </c>
+      <c r="H96">
+        <v>4</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+      <c r="J96">
+        <f>I96*D97/C97</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="97" spans="2:12">
+      <c r="B97">
+        <v>4</v>
+      </c>
+      <c r="C97">
+        <v>4</v>
+      </c>
+      <c r="D97">
+        <v>14</v>
+      </c>
+      <c r="G97">
+        <v>2</v>
+      </c>
+      <c r="H97">
+        <v>5</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+      <c r="J97">
+        <f>I97*D98/C98</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="2:12">
+      <c r="B98">
+        <v>5</v>
+      </c>
+      <c r="C98">
+        <v>5</v>
+      </c>
+      <c r="D98">
+        <v>20</v>
+      </c>
+      <c r="G98">
+        <v>2</v>
+      </c>
+      <c r="H98">
+        <v>2</v>
+      </c>
+      <c r="I98">
+        <v>30</v>
+      </c>
+      <c r="J98">
+        <f>I98*D95/C95</f>
+        <v>243.720703125</v>
+      </c>
+      <c r="L98">
+        <f>D89-D99</f>
+        <v>-39.1796875</v>
+      </c>
+    </row>
+    <row r="99" spans="2:12">
+      <c r="D99" s="1">
+        <f>SUM(D94:D98)</f>
+        <v>1033.0625</v>
+      </c>
+    </row>
+    <row r="100" spans="2:12">
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+    </row>
+    <row r="101" spans="2:12">
+      <c r="B101" s="6"/>
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="6"/>
+      <c r="G101" s="6"/>
+      <c r="H101" s="6"/>
+      <c r="I101" s="6"/>
+      <c r="J101" s="6"/>
+    </row>
+    <row r="102" spans="2:12">
+      <c r="B102" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="103" spans="2:12" ht="30">
+      <c r="B103" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E103" s="6"/>
+      <c r="F103" s="6"/>
+      <c r="G103" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H103" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I103" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J103" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="2:12">
+      <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="C104">
+        <v>60</v>
+      </c>
+      <c r="D104">
+        <f>280+J94</f>
+        <v>523.720703125</v>
+      </c>
+      <c r="G104">
+        <v>1</v>
+      </c>
+      <c r="H104">
+        <v>2</v>
+      </c>
+      <c r="I104">
+        <v>30</v>
+      </c>
+      <c r="J104">
+        <f>I104*D105/C105</f>
+        <v>253.515625</v>
+      </c>
+    </row>
+    <row r="105" spans="2:12">
+      <c r="B105">
+        <v>2</v>
+      </c>
+      <c r="C105">
+        <v>60</v>
+      </c>
+      <c r="D105">
+        <f>SUM(J95:J98)</f>
+        <v>507.03125</v>
+      </c>
+      <c r="G105">
+        <v>2</v>
+      </c>
+      <c r="H105">
+        <v>1</v>
+      </c>
+      <c r="I105">
+        <v>30</v>
+      </c>
+      <c r="J105">
+        <f>I105*D104/C104</f>
+        <v>261.8603515625</v>
+      </c>
+    </row>
+    <row r="106" spans="2:12">
+      <c r="B106">
+        <v>3</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>2</v>
+      </c>
+      <c r="H106">
+        <v>4</v>
+      </c>
+      <c r="I106">
+        <v>1</v>
+      </c>
+      <c r="J106">
+        <f>I106*D107/C107</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="107" spans="2:12">
+      <c r="B107">
+        <v>4</v>
+      </c>
+      <c r="C107">
+        <v>4</v>
+      </c>
+      <c r="D107">
+        <v>14</v>
+      </c>
+      <c r="G107">
+        <v>2</v>
+      </c>
+      <c r="H107">
+        <v>5</v>
+      </c>
+      <c r="I107">
+        <v>1</v>
+      </c>
+      <c r="J107">
+        <f>I107*D108/C108</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="2:12">
+      <c r="B108">
+        <v>5</v>
+      </c>
+      <c r="C108">
+        <v>5</v>
+      </c>
+      <c r="D108">
+        <v>20</v>
+      </c>
+      <c r="G108">
+        <v>2</v>
+      </c>
+      <c r="H108">
+        <v>2</v>
+      </c>
+      <c r="I108">
+        <v>30</v>
+      </c>
+      <c r="J108">
+        <f>I108*D105/C105</f>
+        <v>253.515625</v>
+      </c>
+      <c r="L108">
+        <f>D99-D109</f>
+        <v>-31.689453125</v>
+      </c>
+    </row>
+    <row r="109" spans="2:12">
+      <c r="D109" s="1">
+        <f>SUM(D104:D108)</f>
+        <v>1064.751953125</v>
+      </c>
+    </row>
+    <row r="111" spans="2:12">
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
+    </row>
+    <row r="112" spans="2:12">
+      <c r="B112" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+      <c r="G112" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="113" spans="2:12" ht="30">
+      <c r="B113" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E113" s="6"/>
+      <c r="F113" s="6"/>
+      <c r="G113" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H113" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I113" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J113" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="2:12">
+      <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="C114">
+        <v>60</v>
+      </c>
+      <c r="D114">
+        <f>280+J104</f>
+        <v>533.515625</v>
+      </c>
+      <c r="G114">
+        <v>1</v>
+      </c>
+      <c r="H114">
+        <v>2</v>
+      </c>
+      <c r="I114">
+        <v>30</v>
+      </c>
+      <c r="J114">
+        <f>I114*D115/C115</f>
+        <v>261.43798828125</v>
+      </c>
+    </row>
+    <row r="115" spans="2:12">
+      <c r="B115">
+        <v>2</v>
+      </c>
+      <c r="C115">
+        <v>60</v>
+      </c>
+      <c r="D115">
+        <f>SUM(J105:J108)</f>
+        <v>522.8759765625</v>
+      </c>
+      <c r="G115">
+        <v>2</v>
+      </c>
+      <c r="H115">
+        <v>1</v>
+      </c>
+      <c r="I115">
+        <v>30</v>
+      </c>
+      <c r="J115">
+        <f>I115*D114/C114</f>
+        <v>266.7578125</v>
+      </c>
+    </row>
+    <row r="116" spans="2:12">
+      <c r="B116">
+        <v>3</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <v>2</v>
+      </c>
+      <c r="H116">
+        <v>4</v>
+      </c>
+      <c r="I116">
+        <v>1</v>
+      </c>
+      <c r="J116">
+        <f>I116*D117/C117</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="117" spans="2:12">
+      <c r="B117">
+        <v>4</v>
+      </c>
+      <c r="C117">
+        <v>4</v>
+      </c>
+      <c r="D117">
+        <v>14</v>
+      </c>
+      <c r="G117">
+        <v>2</v>
+      </c>
+      <c r="H117">
+        <v>5</v>
+      </c>
+      <c r="I117">
+        <v>1</v>
+      </c>
+      <c r="J117">
+        <f>I117*D118/C118</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="2:12">
+      <c r="B118">
+        <v>5</v>
+      </c>
+      <c r="C118">
+        <v>5</v>
+      </c>
+      <c r="D118">
+        <v>20</v>
+      </c>
+      <c r="G118">
+        <v>2</v>
+      </c>
+      <c r="H118">
+        <v>2</v>
+      </c>
+      <c r="I118">
+        <v>30</v>
+      </c>
+      <c r="J118">
+        <f>I118*D115/C115</f>
+        <v>261.43798828125</v>
+      </c>
+      <c r="L118">
+        <f>D109-D119</f>
+        <v>-25.6396484375</v>
+      </c>
+    </row>
+    <row r="119" spans="2:12">
+      <c r="D119" s="1">
+        <f>SUM(D114:D118)</f>
+        <v>1090.3916015625</v>
+      </c>
+    </row>
+    <row r="122" spans="2:12">
+      <c r="B122" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1"/>
+      <c r="F122" s="1"/>
+      <c r="G122" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="123" spans="2:12" ht="30">
+      <c r="B123" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E123" s="6"/>
+      <c r="F123" s="6"/>
+      <c r="G123" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H123" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I123" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J123" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="2:12">
+      <c r="B124">
+        <v>1</v>
+      </c>
+      <c r="C124">
+        <v>60</v>
+      </c>
+      <c r="D124">
+        <f>280+J114</f>
+        <v>541.43798828125</v>
+      </c>
+      <c r="G124">
+        <v>1</v>
+      </c>
+      <c r="H124">
+        <v>2</v>
+      </c>
+      <c r="I124">
+        <v>30</v>
+      </c>
+      <c r="J124">
+        <f>I124*D125/C125</f>
+        <v>267.847900390625</v>
+      </c>
+    </row>
+    <row r="125" spans="2:12">
+      <c r="B125">
+        <v>2</v>
+      </c>
+      <c r="C125">
+        <v>60</v>
+      </c>
+      <c r="D125">
+        <f>SUM(J115:J118)</f>
+        <v>535.69580078125</v>
+      </c>
+      <c r="G125">
+        <v>2</v>
+      </c>
+      <c r="H125">
+        <v>1</v>
+      </c>
+      <c r="I125">
+        <v>30</v>
+      </c>
+      <c r="J125">
+        <f>I125*D124/C124</f>
+        <v>270.718994140625</v>
+      </c>
+    </row>
+    <row r="126" spans="2:12">
+      <c r="B126">
+        <v>3</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+      <c r="G126">
+        <v>2</v>
+      </c>
+      <c r="H126">
+        <v>4</v>
+      </c>
+      <c r="I126">
+        <v>1</v>
+      </c>
+      <c r="J126">
+        <f>I126*D127/C127</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="127" spans="2:12">
+      <c r="B127">
+        <v>4</v>
+      </c>
+      <c r="C127">
+        <v>4</v>
+      </c>
+      <c r="D127">
+        <v>14</v>
+      </c>
+      <c r="G127">
+        <v>2</v>
+      </c>
+      <c r="H127">
+        <v>5</v>
+      </c>
+      <c r="I127">
+        <v>1</v>
+      </c>
+      <c r="J127">
+        <f>I127*D128/C128</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="2:12">
+      <c r="B128">
+        <v>5</v>
+      </c>
+      <c r="C128">
+        <v>5</v>
+      </c>
+      <c r="D128">
+        <v>20</v>
+      </c>
+      <c r="G128">
+        <v>2</v>
+      </c>
+      <c r="H128">
+        <v>2</v>
+      </c>
+      <c r="I128">
+        <v>30</v>
+      </c>
+      <c r="J128">
+        <f>I128*D125/C125</f>
+        <v>267.847900390625</v>
+      </c>
+      <c r="L128">
+        <f>D119-D129</f>
+        <v>-20.7421875</v>
+      </c>
+    </row>
+    <row r="129" spans="2:12">
+      <c r="D129" s="1">
+        <f>SUM(D124:D128)</f>
+        <v>1111.1337890625</v>
+      </c>
+    </row>
+    <row r="132" spans="2:12">
+      <c r="B132" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C132" s="1"/>
+      <c r="D132" s="1"/>
+      <c r="E132" s="1"/>
+      <c r="F132" s="1"/>
+      <c r="G132" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="133" spans="2:12" ht="30">
+      <c r="B133" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D133" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E133" s="6"/>
+      <c r="F133" s="6"/>
+      <c r="G133" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H133" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I133" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J133" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" spans="2:12">
+      <c r="B134">
+        <v>1</v>
+      </c>
+      <c r="C134">
+        <v>60</v>
+      </c>
+      <c r="D134">
+        <f>280+J124</f>
+        <v>547.847900390625</v>
+      </c>
+      <c r="G134">
+        <v>1</v>
+      </c>
+      <c r="H134">
+        <v>2</v>
+      </c>
+      <c r="I134">
+        <v>30</v>
+      </c>
+      <c r="J134">
+        <f>I134*D135/C135</f>
+        <v>273.033447265625</v>
+      </c>
+    </row>
+    <row r="135" spans="2:12">
+      <c r="B135">
+        <v>2</v>
+      </c>
+      <c r="C135">
+        <v>60</v>
+      </c>
+      <c r="D135">
+        <f>SUM(J125:J128)</f>
+        <v>546.06689453125</v>
+      </c>
+      <c r="G135">
+        <v>2</v>
+      </c>
+      <c r="H135">
+        <v>1</v>
+      </c>
+      <c r="I135">
+        <v>30</v>
+      </c>
+      <c r="J135">
+        <f>I135*D134/C134</f>
+        <v>273.9239501953125</v>
+      </c>
+    </row>
+    <row r="136" spans="2:12">
+      <c r="B136">
+        <v>3</v>
+      </c>
+      <c r="C136">
+        <v>0</v>
+      </c>
+      <c r="G136">
+        <v>2</v>
+      </c>
+      <c r="H136">
+        <v>4</v>
+      </c>
+      <c r="I136">
+        <v>1</v>
+      </c>
+      <c r="J136">
+        <f>I136*D137/C137</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="137" spans="2:12">
+      <c r="B137">
+        <v>4</v>
+      </c>
+      <c r="C137">
+        <v>4</v>
+      </c>
+      <c r="D137">
+        <v>14</v>
+      </c>
+      <c r="G137">
+        <v>2</v>
+      </c>
+      <c r="H137">
+        <v>5</v>
+      </c>
+      <c r="I137">
+        <v>1</v>
+      </c>
+      <c r="J137">
+        <f>I137*D138/C138</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="2:12">
+      <c r="B138">
+        <v>5</v>
+      </c>
+      <c r="C138">
+        <v>5</v>
+      </c>
+      <c r="D138">
+        <v>20</v>
+      </c>
+      <c r="G138">
+        <v>2</v>
+      </c>
+      <c r="H138">
+        <v>2</v>
+      </c>
+      <c r="I138">
+        <v>30</v>
+      </c>
+      <c r="J138">
+        <f>I138*D135/C135</f>
+        <v>273.033447265625</v>
+      </c>
+      <c r="L138">
+        <f>D129-D139</f>
+        <v>-16.781005859375</v>
+      </c>
+    </row>
+    <row r="139" spans="2:12">
+      <c r="D139" s="1">
+        <f>SUM(D134:D138)</f>
+        <v>1127.914794921875</v>
+      </c>
+    </row>
+    <row r="142" spans="2:12">
+      <c r="B142" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C142" s="1"/>
+      <c r="D142" s="1"/>
+      <c r="E142" s="1"/>
+      <c r="F142" s="1"/>
+      <c r="G142" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="143" spans="2:12" ht="30">
+      <c r="B143" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D143" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E143" s="6"/>
+      <c r="F143" s="6"/>
+      <c r="G143" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H143" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I143" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J143" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144" spans="2:12">
+      <c r="B144">
+        <v>1</v>
+      </c>
+      <c r="C144">
+        <v>60</v>
+      </c>
+      <c r="D144">
+        <f>280+J134</f>
+        <v>553.033447265625</v>
+      </c>
+      <c r="G144">
+        <v>1</v>
+      </c>
+      <c r="H144">
+        <v>2</v>
+      </c>
+      <c r="I144">
+        <v>30</v>
+      </c>
+      <c r="J144">
+        <f>I144*D145/C145</f>
+        <v>277.22869873046875</v>
+      </c>
+    </row>
+    <row r="145" spans="2:12">
+      <c r="B145">
+        <v>2</v>
+      </c>
+      <c r="C145">
+        <v>60</v>
+      </c>
+      <c r="D145">
+        <f>SUM(J135:J138)</f>
+        <v>554.4573974609375</v>
+      </c>
+      <c r="G145">
+        <v>2</v>
+      </c>
+      <c r="H145">
+        <v>1</v>
+      </c>
+      <c r="I145">
+        <v>30</v>
+      </c>
+      <c r="J145">
+        <f>I145*D144/C144</f>
+        <v>276.5167236328125</v>
+      </c>
+    </row>
+    <row r="146" spans="2:12">
+      <c r="B146">
+        <v>3</v>
+      </c>
+      <c r="C146">
+        <v>0</v>
+      </c>
+      <c r="G146">
+        <v>2</v>
+      </c>
+      <c r="H146">
+        <v>4</v>
+      </c>
+      <c r="I146">
+        <v>1</v>
+      </c>
+      <c r="J146">
+        <f>I146*D147/C147</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="147" spans="2:12">
+      <c r="B147">
+        <v>4</v>
+      </c>
+      <c r="C147">
+        <v>4</v>
+      </c>
+      <c r="D147">
+        <v>14</v>
+      </c>
+      <c r="G147">
+        <v>2</v>
+      </c>
+      <c r="H147">
+        <v>5</v>
+      </c>
+      <c r="I147">
+        <v>1</v>
+      </c>
+      <c r="J147">
+        <f>I147*D148/C148</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148" spans="2:12">
+      <c r="B148">
+        <v>5</v>
+      </c>
+      <c r="C148">
+        <v>5</v>
+      </c>
+      <c r="D148">
+        <v>20</v>
+      </c>
+      <c r="G148">
+        <v>2</v>
+      </c>
+      <c r="H148">
+        <v>2</v>
+      </c>
+      <c r="I148">
+        <v>30</v>
+      </c>
+      <c r="J148">
+        <f>I148*D145/C145</f>
+        <v>277.22869873046875</v>
+      </c>
+      <c r="L148">
+        <f>D139-D149</f>
+        <v>-13.5760498046875</v>
+      </c>
+    </row>
+    <row r="149" spans="2:12">
+      <c r="D149" s="1">
+        <f>SUM(D144:D148)</f>
+        <v>1141.4908447265625</v>
+      </c>
+    </row>
+    <row r="152" spans="2:12">
+      <c r="B152" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C152" s="1"/>
+      <c r="D152" s="1"/>
+      <c r="E152" s="1"/>
+      <c r="F152" s="1"/>
+      <c r="G152" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="153" spans="2:12" ht="30">
+      <c r="B153" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D153" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E153" s="6"/>
+      <c r="F153" s="6"/>
+      <c r="G153" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H153" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I153" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J153" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154" spans="2:12">
+      <c r="B154">
+        <v>1</v>
+      </c>
+      <c r="C154">
+        <v>60</v>
+      </c>
+      <c r="D154">
+        <f>280+J144</f>
+        <v>557.22869873046875</v>
+      </c>
+      <c r="G154">
+        <v>1</v>
+      </c>
+      <c r="H154">
+        <v>2</v>
+      </c>
+      <c r="I154">
+        <v>30</v>
+      </c>
+      <c r="J154">
+        <f>I154*D155/C155</f>
+        <v>280.62271118164062</v>
+      </c>
+    </row>
+    <row r="155" spans="2:12">
+      <c r="B155">
+        <v>2</v>
+      </c>
+      <c r="C155">
+        <v>60</v>
+      </c>
+      <c r="D155">
+        <f>SUM(J145:J148)</f>
+        <v>561.24542236328125</v>
+      </c>
+      <c r="G155">
+        <v>2</v>
+      </c>
+      <c r="H155">
+        <v>1</v>
+      </c>
+      <c r="I155">
+        <v>30</v>
+      </c>
+      <c r="J155">
+        <f>I155*D154/C154</f>
+        <v>278.61434936523437</v>
+      </c>
+    </row>
+    <row r="156" spans="2:12">
+      <c r="B156">
+        <v>3</v>
+      </c>
+      <c r="C156">
+        <v>0</v>
+      </c>
+      <c r="G156">
+        <v>2</v>
+      </c>
+      <c r="H156">
+        <v>4</v>
+      </c>
+      <c r="I156">
+        <v>1</v>
+      </c>
+      <c r="J156">
+        <f>I156*D157/C157</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="157" spans="2:12">
+      <c r="B157">
+        <v>4</v>
+      </c>
+      <c r="C157">
+        <v>4</v>
+      </c>
+      <c r="D157">
+        <v>14</v>
+      </c>
+      <c r="G157">
+        <v>2</v>
+      </c>
+      <c r="H157">
+        <v>5</v>
+      </c>
+      <c r="I157">
+        <v>1</v>
+      </c>
+      <c r="J157">
+        <f>I157*D158/C158</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" spans="2:12">
+      <c r="B158">
+        <v>5</v>
+      </c>
+      <c r="C158">
+        <v>5</v>
+      </c>
+      <c r="D158">
+        <v>20</v>
+      </c>
+      <c r="G158">
+        <v>2</v>
+      </c>
+      <c r="H158">
+        <v>2</v>
+      </c>
+      <c r="I158">
+        <v>30</v>
+      </c>
+      <c r="J158">
+        <f>I158*D155/C155</f>
+        <v>280.62271118164062</v>
+      </c>
+      <c r="L158">
+        <f>D149-D159</f>
+        <v>-10.9832763671875</v>
+      </c>
+    </row>
+    <row r="159" spans="2:12">
+      <c r="D159" s="1">
+        <f>SUM(D154:D158)</f>
+        <v>1152.47412109375</v>
+      </c>
+    </row>
+    <row r="162" spans="2:12">
+      <c r="B162" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C162" s="1"/>
+      <c r="D162" s="1"/>
+      <c r="E162" s="1"/>
+      <c r="F162" s="1"/>
+      <c r="G162" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="163" spans="2:12" ht="30">
+      <c r="B163" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C163" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D163" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E163" s="6"/>
+      <c r="F163" s="6"/>
+      <c r="G163" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H163" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I163" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J163" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164" spans="2:12">
+      <c r="B164">
+        <v>1</v>
+      </c>
+      <c r="C164">
+        <v>60</v>
+      </c>
+      <c r="D164">
+        <f>280+J154</f>
+        <v>560.62271118164062</v>
+      </c>
+      <c r="G164">
+        <v>1</v>
+      </c>
+      <c r="H164">
+        <v>2</v>
+      </c>
+      <c r="I164">
+        <v>30</v>
+      </c>
+      <c r="J164">
+        <f>I164*D165/C165</f>
+        <v>283.3685302734375</v>
+      </c>
+    </row>
+    <row r="165" spans="2:12">
+      <c r="B165">
+        <v>2</v>
+      </c>
+      <c r="C165">
+        <v>60</v>
+      </c>
+      <c r="D165">
+        <f>SUM(J155:J158)</f>
+        <v>566.737060546875</v>
+      </c>
+      <c r="G165">
+        <v>2</v>
+      </c>
+      <c r="H165">
+        <v>1</v>
+      </c>
+      <c r="I165">
+        <v>30</v>
+      </c>
+      <c r="J165">
+        <f>I165*D164/C164</f>
+        <v>280.31135559082031</v>
+      </c>
+    </row>
+    <row r="166" spans="2:12">
+      <c r="B166">
+        <v>3</v>
+      </c>
+      <c r="C166">
+        <v>0</v>
+      </c>
+      <c r="G166">
+        <v>2</v>
+      </c>
+      <c r="H166">
+        <v>4</v>
+      </c>
+      <c r="I166">
+        <v>1</v>
+      </c>
+      <c r="J166">
+        <f>I166*D167/C167</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="167" spans="2:12">
+      <c r="B167">
+        <v>4</v>
+      </c>
+      <c r="C167">
+        <v>4</v>
+      </c>
+      <c r="D167">
+        <v>14</v>
+      </c>
+      <c r="G167">
+        <v>2</v>
+      </c>
+      <c r="H167">
+        <v>5</v>
+      </c>
+      <c r="I167">
+        <v>1</v>
+      </c>
+      <c r="J167">
+        <f>I167*D168/C168</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168" spans="2:12">
+      <c r="B168">
+        <v>5</v>
+      </c>
+      <c r="C168">
+        <v>5</v>
+      </c>
+      <c r="D168">
+        <v>20</v>
+      </c>
+      <c r="G168">
+        <v>2</v>
+      </c>
+      <c r="H168">
+        <v>2</v>
+      </c>
+      <c r="I168">
+        <v>30</v>
+      </c>
+      <c r="J168">
+        <f>I168*D165/C165</f>
+        <v>283.3685302734375</v>
+      </c>
+      <c r="L168">
+        <f>D159-D169</f>
+        <v>-8.885650634765625</v>
+      </c>
+    </row>
+    <row r="169" spans="2:12">
+      <c r="D169" s="1">
+        <f>SUM(D164:D168)</f>
+        <v>1161.3597717285156</v>
+      </c>
+    </row>
+    <row r="172" spans="2:12">
+      <c r="B172" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C172" s="1"/>
+      <c r="D172" s="1"/>
+      <c r="E172" s="1"/>
+      <c r="F172" s="1"/>
+      <c r="G172" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="173" spans="2:12" ht="30">
+      <c r="B173" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C173" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D173" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E173" s="6"/>
+      <c r="F173" s="6"/>
+      <c r="G173" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H173" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I173" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J173" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174" spans="2:12">
+      <c r="B174">
+        <v>1</v>
+      </c>
+      <c r="C174">
+        <v>60</v>
+      </c>
+      <c r="D174">
+        <f>280+J164</f>
+        <v>563.3685302734375</v>
+      </c>
+      <c r="G174">
+        <v>1</v>
+      </c>
+      <c r="H174">
+        <v>2</v>
+      </c>
+      <c r="I174">
+        <v>30</v>
+      </c>
+      <c r="J174">
+        <f>I174*D175/C175</f>
+        <v>285.58994293212891</v>
+      </c>
+    </row>
+    <row r="175" spans="2:12">
+      <c r="B175">
+        <v>2</v>
+      </c>
+      <c r="C175">
+        <v>60</v>
+      </c>
+      <c r="D175">
+        <f>SUM(J165:J168)</f>
+        <v>571.17988586425781</v>
+      </c>
+      <c r="G175">
+        <v>2</v>
+      </c>
+      <c r="H175">
+        <v>1</v>
+      </c>
+      <c r="I175">
+        <v>30</v>
+      </c>
+      <c r="J175">
+        <f>I175*D174/C174</f>
+        <v>281.68426513671875</v>
+      </c>
+    </row>
+    <row r="176" spans="2:12">
+      <c r="B176">
+        <v>3</v>
+      </c>
+      <c r="C176">
+        <v>0</v>
+      </c>
+      <c r="G176">
+        <v>2</v>
+      </c>
+      <c r="H176">
+        <v>4</v>
+      </c>
+      <c r="I176">
+        <v>1</v>
+      </c>
+      <c r="J176">
+        <f>I176*D177/C177</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="177" spans="2:12">
+      <c r="B177">
+        <v>4</v>
+      </c>
+      <c r="C177">
+        <v>4</v>
+      </c>
+      <c r="D177">
+        <v>14</v>
+      </c>
+      <c r="G177">
+        <v>2</v>
+      </c>
+      <c r="H177">
+        <v>5</v>
+      </c>
+      <c r="I177">
+        <v>1</v>
+      </c>
+      <c r="J177">
+        <f>I177*D178/C178</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178" spans="2:12">
+      <c r="B178">
+        <v>5</v>
+      </c>
+      <c r="C178">
+        <v>5</v>
+      </c>
+      <c r="D178">
+        <v>20</v>
+      </c>
+      <c r="G178">
+        <v>2</v>
+      </c>
+      <c r="H178">
+        <v>2</v>
+      </c>
+      <c r="I178">
+        <v>30</v>
+      </c>
+      <c r="J178">
+        <f>I178*D175/C175</f>
+        <v>285.58994293212891</v>
+      </c>
+      <c r="L178">
+        <f>D169-D179</f>
+        <v>-7.1886444091796875</v>
+      </c>
+    </row>
+    <row r="179" spans="2:12">
+      <c r="D179" s="1">
+        <f>SUM(D174:D178)</f>
+        <v>1168.5484161376953</v>
+      </c>
+    </row>
+    <row r="182" spans="2:12">
+      <c r="B182" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C182" s="1"/>
+      <c r="D182" s="1"/>
+      <c r="E182" s="1"/>
+      <c r="F182" s="1"/>
+      <c r="G182" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="183" spans="2:12" ht="30">
+      <c r="B183" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C183" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D183" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E183" s="6"/>
+      <c r="F183" s="6"/>
+      <c r="G183" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H183" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I183" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J183" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="184" spans="2:12">
+      <c r="B184">
+        <v>1</v>
+      </c>
+      <c r="C184">
+        <v>60</v>
+      </c>
+      <c r="D184">
+        <f>280+J174</f>
+        <v>565.58994293212891</v>
+      </c>
+      <c r="G184">
+        <v>1</v>
+      </c>
+      <c r="H184">
+        <v>2</v>
+      </c>
+      <c r="I184">
+        <v>30</v>
+      </c>
+      <c r="J184">
+        <f>I184*D185/C185</f>
+        <v>287.38710403442383</v>
+      </c>
+    </row>
+    <row r="185" spans="2:12">
+      <c r="B185">
+        <v>2</v>
+      </c>
+      <c r="C185">
+        <v>60</v>
+      </c>
+      <c r="D185">
+        <f>SUM(J175:J178)</f>
+        <v>574.77420806884766</v>
+      </c>
+      <c r="G185">
+        <v>2</v>
+      </c>
+      <c r="H185">
+        <v>1</v>
+      </c>
+      <c r="I185">
+        <v>30</v>
+      </c>
+      <c r="J185">
+        <f>I185*D184/C184</f>
+        <v>282.79497146606445</v>
+      </c>
+    </row>
+    <row r="186" spans="2:12">
+      <c r="B186">
+        <v>3</v>
+      </c>
+      <c r="C186">
+        <v>0</v>
+      </c>
+      <c r="G186">
+        <v>2</v>
+      </c>
+      <c r="H186">
+        <v>4</v>
+      </c>
+      <c r="I186">
+        <v>1</v>
+      </c>
+      <c r="J186">
+        <f>I186*D187/C187</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="187" spans="2:12">
+      <c r="B187">
+        <v>4</v>
+      </c>
+      <c r="C187">
+        <v>4</v>
+      </c>
+      <c r="D187">
+        <v>14</v>
+      </c>
+      <c r="G187">
+        <v>2</v>
+      </c>
+      <c r="H187">
+        <v>5</v>
+      </c>
+      <c r="I187">
+        <v>1</v>
+      </c>
+      <c r="J187">
+        <f>I187*D188/C188</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="188" spans="2:12">
+      <c r="B188">
+        <v>5</v>
+      </c>
+      <c r="C188">
+        <v>5</v>
+      </c>
+      <c r="D188">
+        <v>20</v>
+      </c>
+      <c r="G188">
+        <v>2</v>
+      </c>
+      <c r="H188">
+        <v>2</v>
+      </c>
+      <c r="I188">
+        <v>30</v>
+      </c>
+      <c r="J188">
+        <f>I188*D185/C185</f>
+        <v>287.38710403442383</v>
+      </c>
+      <c r="L188">
+        <f>D179-D189</f>
+        <v>-5.81573486328125</v>
+      </c>
+    </row>
+    <row r="189" spans="2:12">
+      <c r="D189" s="1">
+        <f>SUM(D184:D188)</f>
+        <v>1174.3641510009766</v>
+      </c>
+    </row>
+    <row r="192" spans="2:12">
+      <c r="B192" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C192" s="1"/>
+      <c r="D192" s="1"/>
+      <c r="E192" s="1"/>
+      <c r="F192" s="1"/>
+      <c r="G192" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="193" spans="2:12" ht="30">
+      <c r="B193" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C193" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D193" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E193" s="6"/>
+      <c r="F193" s="6"/>
+      <c r="G193" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H193" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I193" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J193" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="194" spans="2:12">
+      <c r="B194">
+        <v>1</v>
+      </c>
+      <c r="C194">
+        <v>60</v>
+      </c>
+      <c r="D194">
+        <f>280+J184</f>
+        <v>567.38710403442383</v>
+      </c>
+      <c r="G194">
+        <v>1</v>
+      </c>
+      <c r="H194">
+        <v>2</v>
+      </c>
+      <c r="I194">
+        <v>30</v>
+      </c>
+      <c r="J194">
+        <f>I194*D195/C195</f>
+        <v>288.84103775024414</v>
+      </c>
+    </row>
+    <row r="195" spans="2:12">
+      <c r="B195">
+        <v>2</v>
+      </c>
+      <c r="C195">
+        <v>60</v>
+      </c>
+      <c r="D195">
+        <f>SUM(J185:J188)</f>
+        <v>577.68207550048828</v>
+      </c>
+      <c r="G195">
+        <v>2</v>
+      </c>
+      <c r="H195">
+        <v>1</v>
+      </c>
+      <c r="I195">
+        <v>30</v>
+      </c>
+      <c r="J195">
+        <f>I195*D194/C194</f>
+        <v>283.69355201721191</v>
+      </c>
+    </row>
+    <row r="196" spans="2:12">
+      <c r="B196">
+        <v>3</v>
+      </c>
+      <c r="C196">
+        <v>0</v>
+      </c>
+      <c r="G196">
+        <v>2</v>
+      </c>
+      <c r="H196">
+        <v>4</v>
+      </c>
+      <c r="I196">
+        <v>1</v>
+      </c>
+      <c r="J196">
+        <f>I196*D197/C197</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="197" spans="2:12">
+      <c r="B197">
+        <v>4</v>
+      </c>
+      <c r="C197">
+        <v>4</v>
+      </c>
+      <c r="D197">
+        <v>14</v>
+      </c>
+      <c r="G197">
+        <v>2</v>
+      </c>
+      <c r="H197">
+        <v>5</v>
+      </c>
+      <c r="I197">
+        <v>1</v>
+      </c>
+      <c r="J197">
+        <f>I197*D198/C198</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="198" spans="2:12">
+      <c r="B198">
+        <v>5</v>
+      </c>
+      <c r="C198">
+        <v>5</v>
+      </c>
+      <c r="D198">
+        <v>20</v>
+      </c>
+      <c r="G198">
+        <v>2</v>
+      </c>
+      <c r="H198">
+        <v>2</v>
+      </c>
+      <c r="I198">
+        <v>30</v>
+      </c>
+      <c r="J198">
+        <f>I198*D195/C195</f>
+        <v>288.84103775024414</v>
+      </c>
+      <c r="L198">
+        <f>D189-D199</f>
+        <v>-4.7050285339355469</v>
+      </c>
+    </row>
+    <row r="199" spans="2:12">
+      <c r="D199" s="1">
+        <f>SUM(D194:D198)</f>
+        <v>1179.0691795349121</v>
+      </c>
+    </row>
+    <row r="202" spans="2:12">
+      <c r="B202" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C202" s="1"/>
+      <c r="D202" s="1"/>
+      <c r="E202" s="1"/>
+      <c r="F202" s="1"/>
+      <c r="G202" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="203" spans="2:12" ht="30">
+      <c r="B203" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C203" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D203" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E203" s="6"/>
+      <c r="F203" s="6"/>
+      <c r="G203" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H203" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I203" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J203" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="204" spans="2:12">
+      <c r="B204">
+        <v>1</v>
+      </c>
+      <c r="C204">
+        <v>60</v>
+      </c>
+      <c r="D204">
+        <f>280+J194</f>
+        <v>568.84103775024414</v>
+      </c>
+      <c r="G204">
+        <v>1</v>
+      </c>
+      <c r="H204">
+        <v>2</v>
+      </c>
+      <c r="I204">
+        <v>30</v>
+      </c>
+      <c r="J204">
+        <f>I204*D205/C205</f>
+        <v>290.01729488372803</v>
+      </c>
+    </row>
+    <row r="205" spans="2:12">
+      <c r="B205">
+        <v>2</v>
+      </c>
+      <c r="C205">
+        <v>60</v>
+      </c>
+      <c r="D205">
+        <f>SUM(J195:J198)</f>
+        <v>580.03458976745605</v>
+      </c>
+      <c r="G205">
+        <v>2</v>
+      </c>
+      <c r="H205">
+        <v>1</v>
+      </c>
+      <c r="I205">
+        <v>30</v>
+      </c>
+      <c r="J205">
+        <f>I205*D204/C204</f>
+        <v>284.42051887512207</v>
+      </c>
+    </row>
+    <row r="206" spans="2:12">
+      <c r="B206">
+        <v>3</v>
+      </c>
+      <c r="C206">
+        <v>0</v>
+      </c>
+      <c r="G206">
+        <v>2</v>
+      </c>
+      <c r="H206">
+        <v>4</v>
+      </c>
+      <c r="I206">
+        <v>1</v>
+      </c>
+      <c r="J206">
+        <f>I206*D207/C207</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="207" spans="2:12">
+      <c r="B207">
+        <v>4</v>
+      </c>
+      <c r="C207">
+        <v>4</v>
+      </c>
+      <c r="D207">
+        <v>14</v>
+      </c>
+      <c r="G207">
+        <v>2</v>
+      </c>
+      <c r="H207">
+        <v>5</v>
+      </c>
+      <c r="I207">
+        <v>1</v>
+      </c>
+      <c r="J207">
+        <f>I207*D208/C208</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="208" spans="2:12">
+      <c r="B208">
+        <v>5</v>
+      </c>
+      <c r="C208">
+        <v>5</v>
+      </c>
+      <c r="D208">
+        <v>20</v>
+      </c>
+      <c r="G208">
+        <v>2</v>
+      </c>
+      <c r="H208">
+        <v>2</v>
+      </c>
+      <c r="I208">
+        <v>30</v>
+      </c>
+      <c r="J208">
+        <f>I208*D205/C205</f>
+        <v>290.01729488372803</v>
+      </c>
+      <c r="L208">
+        <f>D199-D209</f>
+        <v>-3.8064479827880859</v>
+      </c>
+    </row>
+    <row r="209" spans="2:12">
+      <c r="D209" s="1">
+        <f>SUM(D204:D208)</f>
+        <v>1182.8756275177002</v>
+      </c>
+    </row>
+    <row r="212" spans="2:12">
+      <c r="B212" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C212" s="1"/>
+      <c r="D212" s="1"/>
+      <c r="E212" s="1"/>
+      <c r="F212" s="1"/>
+      <c r="G212" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="213" spans="2:12" ht="30">
+      <c r="B213" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C213" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D213" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E213" s="6"/>
+      <c r="F213" s="6"/>
+      <c r="G213" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H213" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I213" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J213" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="214" spans="2:12">
+      <c r="B214">
+        <v>1</v>
+      </c>
+      <c r="C214">
+        <v>60</v>
+      </c>
+      <c r="D214">
+        <f>280+J204</f>
+        <v>570.01729488372803</v>
+      </c>
+      <c r="G214">
+        <v>1</v>
+      </c>
+      <c r="H214">
+        <v>2</v>
+      </c>
+      <c r="I214">
+        <v>30</v>
+      </c>
+      <c r="J214">
+        <f>I214*D215/C215</f>
+        <v>290.96890687942505</v>
+      </c>
+    </row>
+    <row r="215" spans="2:12">
+      <c r="B215">
+        <v>2</v>
+      </c>
+      <c r="C215">
+        <v>60</v>
+      </c>
+      <c r="D215">
+        <f>SUM(J205:J208)</f>
+        <v>581.9378137588501</v>
+      </c>
+      <c r="G215">
+        <v>2</v>
+      </c>
+      <c r="H215">
+        <v>1</v>
+      </c>
+      <c r="I215">
+        <v>30</v>
+      </c>
+      <c r="J215">
+        <f>I215*D214/C214</f>
+        <v>285.00864744186401</v>
+      </c>
+    </row>
+    <row r="216" spans="2:12">
+      <c r="B216">
+        <v>3</v>
+      </c>
+      <c r="C216">
+        <v>0</v>
+      </c>
+      <c r="G216">
+        <v>2</v>
+      </c>
+      <c r="H216">
+        <v>4</v>
+      </c>
+      <c r="I216">
+        <v>1</v>
+      </c>
+      <c r="J216">
+        <f>I216*D217/C217</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="217" spans="2:12">
+      <c r="B217">
+        <v>4</v>
+      </c>
+      <c r="C217">
+        <v>4</v>
+      </c>
+      <c r="D217">
+        <v>14</v>
+      </c>
+      <c r="G217">
+        <v>2</v>
+      </c>
+      <c r="H217">
+        <v>5</v>
+      </c>
+      <c r="I217">
+        <v>1</v>
+      </c>
+      <c r="J217">
+        <f>I217*D218/C218</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="218" spans="2:12">
+      <c r="B218">
+        <v>5</v>
+      </c>
+      <c r="C218">
+        <v>5</v>
+      </c>
+      <c r="D218">
+        <v>20</v>
+      </c>
+      <c r="G218">
+        <v>2</v>
+      </c>
+      <c r="H218">
+        <v>2</v>
+      </c>
+      <c r="I218">
+        <v>30</v>
+      </c>
+      <c r="J218">
+        <f>I218*D215/C215</f>
+        <v>290.96890687942505</v>
+      </c>
+      <c r="L218">
+        <f>D209-D219</f>
+        <v>-3.0794811248779297</v>
+      </c>
+    </row>
+    <row r="219" spans="2:12">
+      <c r="D219" s="1">
+        <f>SUM(D214:D218)</f>
+        <v>1185.9551086425781</v>
+      </c>
+    </row>
+    <row r="221" spans="2:12">
+      <c r="D221">
+        <f>D224/C224</f>
+        <v>9.5161484479904175</v>
+      </c>
+    </row>
+    <row r="222" spans="2:12">
+      <c r="B222" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C222" s="1"/>
+      <c r="D222" s="1"/>
+      <c r="E222" s="1"/>
+      <c r="F222" s="1"/>
+      <c r="G222" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="223" spans="2:12" ht="30">
+      <c r="B223" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C223" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D223" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E223" s="6"/>
+      <c r="F223" s="6"/>
+      <c r="G223" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H223" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I223" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J223" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="224" spans="2:12">
+      <c r="B224">
+        <v>1</v>
+      </c>
+      <c r="C224">
+        <v>60</v>
+      </c>
+      <c r="D224">
+        <f>280+J214</f>
+        <v>570.96890687942505</v>
+      </c>
+      <c r="G224">
+        <v>1</v>
+      </c>
+      <c r="H224">
+        <v>2</v>
+      </c>
+      <c r="I224">
+        <v>30</v>
+      </c>
+      <c r="J224">
+        <f>I224*D225/C225</f>
+        <v>291.73877716064453</v>
+      </c>
+    </row>
+    <row r="225" spans="2:12">
+      <c r="B225">
+        <v>2</v>
+      </c>
+      <c r="C225">
+        <v>60</v>
+      </c>
+      <c r="D225">
+        <f>SUM(J215:J218)</f>
+        <v>583.47755432128906</v>
+      </c>
+      <c r="G225">
+        <v>2</v>
+      </c>
+      <c r="H225">
+        <v>1</v>
+      </c>
+      <c r="I225">
+        <v>30</v>
+      </c>
+      <c r="J225">
+        <f>I225*D224/C224</f>
+        <v>285.48445343971252</v>
+      </c>
+    </row>
+    <row r="226" spans="2:12">
+      <c r="B226">
+        <v>3</v>
+      </c>
+      <c r="C226">
+        <v>0</v>
+      </c>
+      <c r="G226">
+        <v>2</v>
+      </c>
+      <c r="H226">
+        <v>4</v>
+      </c>
+      <c r="I226">
+        <v>1</v>
+      </c>
+      <c r="J226">
+        <f>I226*D227/C227</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="227" spans="2:12">
+      <c r="B227">
+        <v>4</v>
+      </c>
+      <c r="C227">
+        <v>4</v>
+      </c>
+      <c r="D227">
+        <v>14</v>
+      </c>
+      <c r="G227">
+        <v>2</v>
+      </c>
+      <c r="H227">
+        <v>5</v>
+      </c>
+      <c r="I227">
+        <v>1</v>
+      </c>
+      <c r="J227">
+        <f>I227*D228/C228</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="228" spans="2:12">
+      <c r="B228">
+        <v>5</v>
+      </c>
+      <c r="C228">
+        <v>5</v>
+      </c>
+      <c r="D228">
+        <v>20</v>
+      </c>
+      <c r="G228">
+        <v>2</v>
+      </c>
+      <c r="H228">
+        <v>2</v>
+      </c>
+      <c r="I228">
+        <v>30</v>
+      </c>
+      <c r="J228">
+        <f>I228*D225/C225</f>
+        <v>291.73877716064453</v>
+      </c>
+      <c r="L228">
+        <f>D219-D229</f>
+        <v>-2.4913525581359863</v>
+      </c>
+    </row>
+    <row r="229" spans="2:12">
+      <c r="D229" s="1">
+        <f>SUM(D224:D228)</f>
+        <v>1188.4464612007141</v>
+      </c>
+    </row>
+    <row r="232" spans="2:12">
+      <c r="B232" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C232" s="1"/>
+      <c r="D232" s="1"/>
+      <c r="E232" s="1"/>
+      <c r="F232" s="1"/>
+      <c r="G232" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="233" spans="2:12" ht="30">
+      <c r="B233" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C233" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D233" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E233" s="6"/>
+      <c r="F233" s="6"/>
+      <c r="G233" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H233" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I233" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J233" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="234" spans="2:12">
+      <c r="B234">
+        <v>1</v>
+      </c>
+      <c r="C234">
+        <v>60</v>
+      </c>
+      <c r="D234">
+        <f>280+J224</f>
+        <v>571.73877716064453</v>
+      </c>
+      <c r="G234">
+        <v>1</v>
+      </c>
+      <c r="H234">
+        <v>2</v>
+      </c>
+      <c r="I234">
+        <v>30</v>
+      </c>
+      <c r="J234">
+        <f>I234*D235/C235</f>
+        <v>292.36161530017853</v>
+      </c>
+    </row>
+    <row r="235" spans="2:12">
+      <c r="B235">
+        <v>2</v>
+      </c>
+      <c r="C235">
+        <v>60</v>
+      </c>
+      <c r="D235">
+        <f>SUM(J225:J228)</f>
+        <v>584.72323060035706</v>
+      </c>
+      <c r="G235">
+        <v>2</v>
+      </c>
+      <c r="H235">
+        <v>1</v>
+      </c>
+      <c r="I235">
+        <v>30</v>
+      </c>
+      <c r="J235">
+        <f>I235*D234/C234</f>
+        <v>285.86938858032227</v>
+      </c>
+    </row>
+    <row r="236" spans="2:12">
+      <c r="B236">
+        <v>3</v>
+      </c>
+      <c r="C236">
+        <v>0</v>
+      </c>
+      <c r="G236">
+        <v>2</v>
+      </c>
+      <c r="H236">
+        <v>4</v>
+      </c>
+      <c r="I236">
+        <v>1</v>
+      </c>
+      <c r="J236">
+        <f>I236*D237/C237</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="237" spans="2:12">
+      <c r="B237">
+        <v>4</v>
+      </c>
+      <c r="C237">
+        <v>4</v>
+      </c>
+      <c r="D237">
+        <v>14</v>
+      </c>
+      <c r="G237">
+        <v>2</v>
+      </c>
+      <c r="H237">
+        <v>5</v>
+      </c>
+      <c r="I237">
+        <v>1</v>
+      </c>
+      <c r="J237">
+        <f>I237*D238/C238</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="238" spans="2:12">
+      <c r="B238">
+        <v>5</v>
+      </c>
+      <c r="C238">
+        <v>5</v>
+      </c>
+      <c r="D238">
+        <v>20</v>
+      </c>
+      <c r="G238">
+        <v>2</v>
+      </c>
+      <c r="H238">
+        <v>2</v>
+      </c>
+      <c r="I238">
+        <v>30</v>
+      </c>
+      <c r="J238">
+        <f>I238*D235/C235</f>
+        <v>292.36161530017853</v>
+      </c>
+      <c r="L238">
+        <f>D229-D239</f>
+        <v>-2.0155465602874756</v>
+      </c>
+    </row>
+    <row r="239" spans="2:12">
+      <c r="D239" s="1">
+        <f>SUM(D234:D238)</f>
+        <v>1190.4620077610016</v>
+      </c>
+    </row>
+    <row r="242" spans="2:12">
+      <c r="B242" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C242" s="1"/>
+      <c r="D242" s="1"/>
+      <c r="E242" s="1"/>
+      <c r="F242" s="1"/>
+      <c r="G242" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="243" spans="2:12" ht="30">
+      <c r="B243" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C243" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D243" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E243" s="6"/>
+      <c r="F243" s="6"/>
+      <c r="G243" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H243" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I243" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J243" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="244" spans="2:12">
+      <c r="B244">
+        <v>1</v>
+      </c>
+      <c r="C244">
+        <v>60</v>
+      </c>
+      <c r="D244">
+        <f>280+J234</f>
+        <v>572.36161530017853</v>
+      </c>
+      <c r="G244">
+        <v>1</v>
+      </c>
+      <c r="H244">
+        <v>2</v>
+      </c>
+      <c r="I244">
+        <v>30</v>
+      </c>
+      <c r="J244">
+        <f>I244*D245/C245</f>
+        <v>292.8655019402504</v>
+      </c>
+    </row>
+    <row r="245" spans="2:12">
+      <c r="B245">
+        <v>2</v>
+      </c>
+      <c r="C245">
+        <v>60</v>
+      </c>
+      <c r="D245">
+        <f>SUM(J235:J238)</f>
+        <v>585.73100388050079</v>
+      </c>
+      <c r="G245">
+        <v>2</v>
+      </c>
+      <c r="H245">
+        <v>1</v>
+      </c>
+      <c r="I245">
+        <v>30</v>
+      </c>
+      <c r="J245">
+        <f>I245*D244/C244</f>
+        <v>286.18080765008926</v>
+      </c>
+    </row>
+    <row r="246" spans="2:12">
+      <c r="B246">
+        <v>3</v>
+      </c>
+      <c r="C246">
+        <v>0</v>
+      </c>
+      <c r="G246">
+        <v>2</v>
+      </c>
+      <c r="H246">
+        <v>4</v>
+      </c>
+      <c r="I246">
+        <v>1</v>
+      </c>
+      <c r="J246">
+        <f>I246*D247/C247</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="247" spans="2:12">
+      <c r="B247">
+        <v>4</v>
+      </c>
+      <c r="C247">
+        <v>4</v>
+      </c>
+      <c r="D247">
+        <v>14</v>
+      </c>
+      <c r="G247">
+        <v>2</v>
+      </c>
+      <c r="H247">
+        <v>5</v>
+      </c>
+      <c r="I247">
+        <v>1</v>
+      </c>
+      <c r="J247">
+        <f>I247*D248/C248</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="248" spans="2:12">
+      <c r="B248">
+        <v>5</v>
+      </c>
+      <c r="C248">
+        <v>5</v>
+      </c>
+      <c r="D248">
+        <v>20</v>
+      </c>
+      <c r="G248">
+        <v>2</v>
+      </c>
+      <c r="H248">
+        <v>2</v>
+      </c>
+      <c r="I248">
+        <v>30</v>
+      </c>
+      <c r="J248">
+        <f>I248*D245/C245</f>
+        <v>292.8655019402504</v>
+      </c>
+      <c r="L248">
+        <f>D239-D249</f>
+        <v>-1.6306114196777344</v>
+      </c>
+    </row>
+    <row r="249" spans="2:12">
+      <c r="D249" s="1">
+        <f>SUM(D244:D248)</f>
+        <v>1192.0926191806793</v>
+      </c>
+    </row>
+    <row r="252" spans="2:12">
+      <c r="B252" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C252" s="1"/>
+      <c r="D252" s="1"/>
+      <c r="E252" s="1"/>
+      <c r="F252" s="1"/>
+      <c r="G252" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="253" spans="2:12" ht="30">
+      <c r="B253" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C253" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D253" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E253" s="6"/>
+      <c r="F253" s="6"/>
+      <c r="G253" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H253" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I253" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J253" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="254" spans="2:12">
+      <c r="B254">
+        <v>1</v>
+      </c>
+      <c r="C254">
+        <v>60</v>
+      </c>
+      <c r="D254">
+        <f>280+J244</f>
+        <v>572.8655019402504</v>
+      </c>
+      <c r="G254">
+        <v>1</v>
+      </c>
+      <c r="H254">
+        <v>2</v>
+      </c>
+      <c r="I254">
+        <v>30</v>
+      </c>
+      <c r="J254">
+        <f>I254*D255/C255</f>
+        <v>293.27315479516983</v>
+      </c>
+    </row>
+    <row r="255" spans="2:12">
+      <c r="B255">
+        <v>2</v>
+      </c>
+      <c r="C255">
+        <v>60</v>
+      </c>
+      <c r="D255">
+        <f>SUM(J245:J248)</f>
+        <v>586.54630959033966</v>
+      </c>
+      <c r="G255">
+        <v>2</v>
+      </c>
+      <c r="H255">
+        <v>1</v>
+      </c>
+      <c r="I255">
+        <v>30</v>
+      </c>
+      <c r="J255">
+        <f>I255*D254/C254</f>
+        <v>286.4327509701252</v>
+      </c>
+    </row>
+    <row r="256" spans="2:12">
+      <c r="B256">
+        <v>3</v>
+      </c>
+      <c r="C256">
+        <v>0</v>
+      </c>
+      <c r="G256">
+        <v>2</v>
+      </c>
+      <c r="H256">
+        <v>4</v>
+      </c>
+      <c r="I256">
+        <v>1</v>
+      </c>
+      <c r="J256">
+        <f>I256*D257/C257</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="257" spans="2:12">
+      <c r="B257">
+        <v>4</v>
+      </c>
+      <c r="C257">
+        <v>4</v>
+      </c>
+      <c r="D257">
+        <v>14</v>
+      </c>
+      <c r="G257">
+        <v>2</v>
+      </c>
+      <c r="H257">
+        <v>5</v>
+      </c>
+      <c r="I257">
+        <v>1</v>
+      </c>
+      <c r="J257">
+        <f>I257*D258/C258</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="258" spans="2:12">
+      <c r="B258">
+        <v>5</v>
+      </c>
+      <c r="C258">
+        <v>5</v>
+      </c>
+      <c r="D258">
+        <v>20</v>
+      </c>
+      <c r="G258">
+        <v>2</v>
+      </c>
+      <c r="H258">
+        <v>2</v>
+      </c>
+      <c r="I258">
+        <v>30</v>
+      </c>
+      <c r="J258">
+        <f>I258*D255/C255</f>
+        <v>293.27315479516983</v>
+      </c>
+      <c r="L258">
+        <f>D249-D259</f>
+        <v>-1.3191923499107361</v>
+      </c>
+    </row>
+    <row r="259" spans="2:12">
+      <c r="D259" s="1">
+        <f>SUM(D254:D258)</f>
+        <v>1193.4118115305901</v>
+      </c>
+    </row>
+    <row r="262" spans="2:12">
+      <c r="B262" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C262" s="1"/>
+      <c r="D262" s="1"/>
+      <c r="E262" s="1"/>
+      <c r="F262" s="1"/>
+      <c r="G262" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="263" spans="2:12" ht="30">
+      <c r="B263" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C263" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D263" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E263" s="6"/>
+      <c r="F263" s="6"/>
+      <c r="G263" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H263" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I263" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J263" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="264" spans="2:12">
+      <c r="B264">
+        <v>1</v>
+      </c>
+      <c r="C264">
+        <v>60</v>
+      </c>
+      <c r="D264">
+        <f>280+J254</f>
+        <v>573.27315479516983</v>
+      </c>
+      <c r="G264">
+        <v>1</v>
+      </c>
+      <c r="H264">
+        <v>2</v>
+      </c>
+      <c r="I264">
+        <v>30</v>
+      </c>
+      <c r="J264">
+        <f>I264*D265/C265</f>
+        <v>293.60295288264751</v>
+      </c>
+    </row>
+    <row r="265" spans="2:12">
+      <c r="B265">
+        <v>2</v>
+      </c>
+      <c r="C265">
+        <v>60</v>
+      </c>
+      <c r="D265">
+        <f>SUM(J255:J258)</f>
+        <v>587.20590576529503</v>
+      </c>
+      <c r="G265">
+        <v>2</v>
+      </c>
+      <c r="H265">
+        <v>1</v>
+      </c>
+      <c r="I265">
+        <v>30</v>
+      </c>
+      <c r="J265">
+        <f>I265*D264/C264</f>
+        <v>286.63657739758492</v>
+      </c>
+    </row>
+    <row r="266" spans="2:12">
+      <c r="B266">
+        <v>3</v>
+      </c>
+      <c r="C266">
+        <v>0</v>
+      </c>
+      <c r="G266">
+        <v>2</v>
+      </c>
+      <c r="H266">
+        <v>4</v>
+      </c>
+      <c r="I266">
+        <v>1</v>
+      </c>
+      <c r="J266">
+        <f>I266*D267/C267</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="267" spans="2:12">
+      <c r="B267">
+        <v>4</v>
+      </c>
+      <c r="C267">
+        <v>4</v>
+      </c>
+      <c r="D267">
+        <v>14</v>
+      </c>
+      <c r="G267">
+        <v>2</v>
+      </c>
+      <c r="H267">
+        <v>5</v>
+      </c>
+      <c r="I267">
+        <v>1</v>
+      </c>
+      <c r="J267">
+        <f>I267*D268/C268</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="268" spans="2:12">
+      <c r="B268">
+        <v>5</v>
+      </c>
+      <c r="C268">
+        <v>5</v>
+      </c>
+      <c r="D268">
+        <v>20</v>
+      </c>
+      <c r="G268">
+        <v>2</v>
+      </c>
+      <c r="H268">
+        <v>2</v>
+      </c>
+      <c r="I268">
+        <v>30</v>
+      </c>
+      <c r="J268">
+        <f>I268*D265/C265</f>
+        <v>293.60295288264751</v>
+      </c>
+      <c r="L268">
+        <f>D259-D269</f>
+        <v>-1.0672490298748016</v>
+      </c>
+    </row>
+    <row r="269" spans="2:12">
+      <c r="D269" s="1">
+        <f>SUM(D264:D268)</f>
+        <v>1194.4790605604649</v>
+      </c>
+    </row>
+    <row r="272" spans="2:12">
+      <c r="B272" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C272" s="1"/>
+      <c r="D272" s="1"/>
+      <c r="E272" s="1"/>
+      <c r="F272" s="1"/>
+      <c r="G272" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="273" spans="2:12" ht="30">
+      <c r="B273" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C273" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D273" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E273" s="6"/>
+      <c r="F273" s="6"/>
+      <c r="G273" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H273" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I273" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J273" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="274" spans="2:12">
+      <c r="B274">
+        <v>1</v>
+      </c>
+      <c r="C274">
+        <v>60</v>
+      </c>
+      <c r="D274">
+        <f>280+J264</f>
+        <v>573.60295288264751</v>
+      </c>
+      <c r="G274">
+        <v>1</v>
+      </c>
+      <c r="H274">
+        <v>2</v>
+      </c>
+      <c r="I274">
+        <v>30</v>
+      </c>
+      <c r="J274">
+        <f>I274*D275/C275</f>
+        <v>293.86976514011621</v>
+      </c>
+    </row>
+    <row r="275" spans="2:12">
+      <c r="B275">
+        <v>2</v>
+      </c>
+      <c r="C275">
+        <v>60</v>
+      </c>
+      <c r="D275">
+        <f>SUM(J265:J268)</f>
+        <v>587.73953028023243</v>
+      </c>
+      <c r="G275">
+        <v>2</v>
+      </c>
+      <c r="H275">
+        <v>1</v>
+      </c>
+      <c r="I275">
+        <v>30</v>
+      </c>
+      <c r="J275">
+        <f>I275*D274/C274</f>
+        <v>286.80147644132376</v>
+      </c>
+    </row>
+    <row r="276" spans="2:12">
+      <c r="B276">
+        <v>3</v>
+      </c>
+      <c r="C276">
+        <v>0</v>
+      </c>
+      <c r="G276">
+        <v>2</v>
+      </c>
+      <c r="H276">
+        <v>4</v>
+      </c>
+      <c r="I276">
+        <v>1</v>
+      </c>
+      <c r="J276">
+        <f>I276*D277/C277</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="277" spans="2:12">
+      <c r="B277">
+        <v>4</v>
+      </c>
+      <c r="C277">
+        <v>4</v>
+      </c>
+      <c r="D277">
+        <v>14</v>
+      </c>
+      <c r="G277">
+        <v>2</v>
+      </c>
+      <c r="H277">
+        <v>5</v>
+      </c>
+      <c r="I277">
+        <v>1</v>
+      </c>
+      <c r="J277">
+        <f>I277*D278/C278</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="278" spans="2:12">
+      <c r="B278">
+        <v>5</v>
+      </c>
+      <c r="C278">
+        <v>5</v>
+      </c>
+      <c r="D278">
+        <v>20</v>
+      </c>
+      <c r="G278">
+        <v>2</v>
+      </c>
+      <c r="H278">
+        <v>2</v>
+      </c>
+      <c r="I278">
+        <v>30</v>
+      </c>
+      <c r="J278">
+        <f>I278*D275/C275</f>
+        <v>293.86976514011621</v>
+      </c>
+      <c r="L278">
+        <f>D269-D279</f>
+        <v>-0.86342260241508484</v>
+      </c>
+    </row>
+    <row r="279" spans="2:12">
+      <c r="D279" s="1">
+        <f>SUM(D274:D278)</f>
+        <v>1195.3424831628799</v>
+      </c>
+    </row>
+    <row r="282" spans="2:12">
+      <c r="B282" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C282" s="1"/>
+      <c r="D282" s="1"/>
+      <c r="E282" s="1"/>
+      <c r="F282" s="1"/>
+      <c r="G282" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="283" spans="2:12" ht="30">
+      <c r="B283" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C283" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D283" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E283" s="6"/>
+      <c r="F283" s="6"/>
+      <c r="G283" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H283" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I283" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J283" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="284" spans="2:12">
+      <c r="B284">
+        <v>1</v>
+      </c>
+      <c r="C284">
+        <v>60</v>
+      </c>
+      <c r="D284">
+        <f>280+J274</f>
+        <v>573.86976514011621</v>
+      </c>
+      <c r="G284">
+        <v>1</v>
+      </c>
+      <c r="H284">
+        <v>2</v>
+      </c>
+      <c r="I284">
+        <v>30</v>
+      </c>
+      <c r="J284">
+        <f>I284*D285/C285</f>
+        <v>294.08562079071999</v>
+      </c>
+    </row>
+    <row r="285" spans="2:12">
+      <c r="B285">
+        <v>2</v>
+      </c>
+      <c r="C285">
+        <v>60</v>
+      </c>
+      <c r="D285">
+        <f>SUM(J275:J278)</f>
+        <v>588.17124158143997</v>
+      </c>
+      <c r="G285">
+        <v>2</v>
+      </c>
+      <c r="H285">
+        <v>1</v>
+      </c>
+      <c r="I285">
+        <v>30</v>
+      </c>
+      <c r="J285">
+        <f>I285*D284/C284</f>
+        <v>286.93488257005811</v>
+      </c>
+    </row>
+    <row r="286" spans="2:12">
+      <c r="B286">
+        <v>3</v>
+      </c>
+      <c r="C286">
+        <v>0</v>
+      </c>
+      <c r="G286">
+        <v>2</v>
+      </c>
+      <c r="H286">
+        <v>4</v>
+      </c>
+      <c r="I286">
+        <v>1</v>
+      </c>
+      <c r="J286">
+        <f>I286*D287/C287</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="287" spans="2:12">
+      <c r="B287">
+        <v>4</v>
+      </c>
+      <c r="C287">
+        <v>4</v>
+      </c>
+      <c r="D287">
+        <v>14</v>
+      </c>
+      <c r="G287">
+        <v>2</v>
+      </c>
+      <c r="H287">
+        <v>5</v>
+      </c>
+      <c r="I287">
+        <v>1</v>
+      </c>
+      <c r="J287">
+        <f>I287*D288/C288</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="288" spans="2:12">
+      <c r="B288">
+        <v>5</v>
+      </c>
+      <c r="C288">
+        <v>5</v>
+      </c>
+      <c r="D288">
+        <v>20</v>
+      </c>
+      <c r="G288">
+        <v>2</v>
+      </c>
+      <c r="H288">
+        <v>2</v>
+      </c>
+      <c r="I288">
+        <v>30</v>
+      </c>
+      <c r="J288">
+        <f>I288*D285/C285</f>
+        <v>294.08562079071999</v>
+      </c>
+      <c r="L288">
+        <f>D279-D289</f>
+        <v>-0.69852355867624283</v>
+      </c>
+    </row>
+    <row r="289" spans="2:12">
+      <c r="D289" s="1">
+        <f>SUM(D284:D288)</f>
+        <v>1196.0410067215562</v>
+      </c>
+    </row>
+    <row r="292" spans="2:12">
+      <c r="B292" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C292" s="1"/>
+      <c r="D292" s="1"/>
+      <c r="E292" s="1"/>
+      <c r="F292" s="1"/>
+      <c r="G292" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="293" spans="2:12" ht="30">
+      <c r="B293" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C293" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D293" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E293" s="6"/>
+      <c r="F293" s="6"/>
+      <c r="G293" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H293" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I293" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J293" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="294" spans="2:12">
+      <c r="B294">
+        <v>1</v>
+      </c>
+      <c r="C294">
+        <v>60</v>
+      </c>
+      <c r="D294">
+        <f>280+J284</f>
+        <v>574.08562079071999</v>
+      </c>
+      <c r="G294">
+        <v>1</v>
+      </c>
+      <c r="H294">
+        <v>2</v>
+      </c>
+      <c r="I294">
+        <v>30</v>
+      </c>
+      <c r="J294">
+        <f>I294*D295/C295</f>
+        <v>294.26025168038905</v>
+      </c>
+    </row>
+    <row r="295" spans="2:12">
+      <c r="B295">
+        <v>2</v>
+      </c>
+      <c r="C295">
+        <v>60</v>
+      </c>
+      <c r="D295">
+        <f>SUM(J285:J288)</f>
+        <v>588.52050336077809</v>
+      </c>
+      <c r="G295">
+        <v>2</v>
+      </c>
+      <c r="H295">
+        <v>1</v>
+      </c>
+      <c r="I295">
+        <v>30</v>
+      </c>
+      <c r="J295">
+        <f>I295*D294/C294</f>
+        <v>287.04281039535999</v>
+      </c>
+    </row>
+    <row r="296" spans="2:12">
+      <c r="B296">
+        <v>3</v>
+      </c>
+      <c r="C296">
+        <v>0</v>
+      </c>
+      <c r="G296">
+        <v>2</v>
+      </c>
+      <c r="H296">
+        <v>4</v>
+      </c>
+      <c r="I296">
+        <v>1</v>
+      </c>
+      <c r="J296">
+        <f>I296*D297/C297</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="297" spans="2:12">
+      <c r="B297">
+        <v>4</v>
+      </c>
+      <c r="C297">
+        <v>4</v>
+      </c>
+      <c r="D297">
+        <v>14</v>
+      </c>
+      <c r="G297">
+        <v>2</v>
+      </c>
+      <c r="H297">
+        <v>5</v>
+      </c>
+      <c r="I297">
+        <v>1</v>
+      </c>
+      <c r="J297">
+        <f>I297*D298/C298</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="298" spans="2:12">
+      <c r="B298">
+        <v>5</v>
+      </c>
+      <c r="C298">
+        <v>5</v>
+      </c>
+      <c r="D298">
+        <v>20</v>
+      </c>
+      <c r="G298">
+        <v>2</v>
+      </c>
+      <c r="H298">
+        <v>2</v>
+      </c>
+      <c r="I298">
+        <v>30</v>
+      </c>
+      <c r="J298">
+        <f>I298*D295/C295</f>
+        <v>294.26025168038905</v>
+      </c>
+      <c r="L298">
+        <f>D289-D299</f>
+        <v>-0.56511742994189262</v>
+      </c>
+    </row>
+    <row r="299" spans="2:12">
+      <c r="D299" s="1">
+        <f>SUM(D294:D298)</f>
+        <v>1196.6061241514981</v>
+      </c>
+    </row>
+    <row r="302" spans="2:12">
+      <c r="B302" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C302" s="1"/>
+      <c r="D302" s="1"/>
+      <c r="E302" s="1"/>
+      <c r="F302" s="1"/>
+      <c r="G302" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="303" spans="2:12" ht="30">
+      <c r="B303" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C303" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D303" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E303" s="6"/>
+      <c r="F303" s="6"/>
+      <c r="G303" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H303" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I303" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J303" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="304" spans="2:12">
+      <c r="B304">
+        <v>1</v>
+      </c>
+      <c r="C304">
+        <v>60</v>
+      </c>
+      <c r="D304">
+        <f>280+J294</f>
+        <v>574.26025168038905</v>
+      </c>
+      <c r="G304">
+        <v>1</v>
+      </c>
+      <c r="H304">
+        <v>2</v>
+      </c>
+      <c r="I304">
+        <v>30</v>
+      </c>
+      <c r="J304">
+        <f>I304*D305/C305</f>
+        <v>294.40153103787452</v>
+      </c>
+    </row>
+    <row r="305" spans="2:12">
+      <c r="B305">
+        <v>2</v>
+      </c>
+      <c r="C305">
+        <v>60</v>
+      </c>
+      <c r="D305">
+        <f>SUM(J295:J298)</f>
+        <v>588.80306207574904</v>
+      </c>
+      <c r="G305">
+        <v>2</v>
+      </c>
+      <c r="H305">
+        <v>1</v>
+      </c>
+      <c r="I305">
+        <v>30</v>
+      </c>
+      <c r="J305">
+        <f>I305*D304/C304</f>
+        <v>287.13012584019452</v>
+      </c>
+    </row>
+    <row r="306" spans="2:12">
+      <c r="B306">
+        <v>3</v>
+      </c>
+      <c r="C306">
+        <v>0</v>
+      </c>
+      <c r="G306">
+        <v>2</v>
+      </c>
+      <c r="H306">
+        <v>4</v>
+      </c>
+      <c r="I306">
+        <v>1</v>
+      </c>
+      <c r="J306">
+        <f>I306*D307/C307</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="307" spans="2:12">
+      <c r="B307">
+        <v>4</v>
+      </c>
+      <c r="C307">
+        <v>4</v>
+      </c>
+      <c r="D307">
+        <v>14</v>
+      </c>
+      <c r="G307">
+        <v>2</v>
+      </c>
+      <c r="H307">
+        <v>5</v>
+      </c>
+      <c r="I307">
+        <v>1</v>
+      </c>
+      <c r="J307">
+        <f>I307*D308/C308</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="308" spans="2:12">
+      <c r="B308">
+        <v>5</v>
+      </c>
+      <c r="C308">
+        <v>5</v>
+      </c>
+      <c r="D308">
+        <v>20</v>
+      </c>
+      <c r="G308">
+        <v>2</v>
+      </c>
+      <c r="H308">
+        <v>2</v>
+      </c>
+      <c r="I308">
+        <v>30</v>
+      </c>
+      <c r="J308">
+        <f>I308*D305/C305</f>
+        <v>294.40153103787452</v>
+      </c>
+      <c r="L308">
+        <f>D299-D309</f>
+        <v>-0.45718960464000702</v>
+      </c>
+    </row>
+    <row r="309" spans="2:12">
+      <c r="D309" s="1">
+        <f>SUM(D304:D308)</f>
+        <v>1197.0633137561381</v>
+      </c>
+    </row>
+    <row r="312" spans="2:12">
+      <c r="B312" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C312" s="1"/>
+      <c r="D312" s="1"/>
+      <c r="E312" s="1"/>
+      <c r="F312" s="1"/>
+      <c r="G312" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="313" spans="2:12" ht="30">
+      <c r="B313" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C313" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D313" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E313" s="6"/>
+      <c r="F313" s="6"/>
+      <c r="G313" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H313" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I313" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J313" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="314" spans="2:12">
+      <c r="B314">
+        <v>1</v>
+      </c>
+      <c r="C314">
+        <v>60</v>
+      </c>
+      <c r="D314">
+        <f>280+J304</f>
+        <v>574.40153103787452</v>
+      </c>
+      <c r="G314">
+        <v>1</v>
+      </c>
+      <c r="H314">
+        <v>2</v>
+      </c>
+      <c r="I314">
+        <v>30</v>
+      </c>
+      <c r="J314">
+        <f>I314*D315/C315</f>
+        <v>294.51582843903452</v>
+      </c>
+    </row>
+    <row r="315" spans="2:12">
+      <c r="B315">
+        <v>2</v>
+      </c>
+      <c r="C315">
+        <v>60</v>
+      </c>
+      <c r="D315">
+        <f>SUM(J305:J308)</f>
+        <v>589.03165687806904</v>
+      </c>
+      <c r="G315">
+        <v>2</v>
+      </c>
+      <c r="H315">
+        <v>1</v>
+      </c>
+      <c r="I315">
+        <v>30</v>
+      </c>
+      <c r="J315">
+        <f>I315*D314/C314</f>
+        <v>287.20076551893726</v>
+      </c>
+    </row>
+    <row r="316" spans="2:12">
+      <c r="B316">
+        <v>3</v>
+      </c>
+      <c r="C316">
+        <v>0</v>
+      </c>
+      <c r="G316">
+        <v>2</v>
+      </c>
+      <c r="H316">
+        <v>4</v>
+      </c>
+      <c r="I316">
+        <v>1</v>
+      </c>
+      <c r="J316">
+        <f>I316*D317/C317</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="317" spans="2:12">
+      <c r="B317">
+        <v>4</v>
+      </c>
+      <c r="C317">
+        <v>4</v>
+      </c>
+      <c r="D317">
+        <v>14</v>
+      </c>
+      <c r="G317">
+        <v>2</v>
+      </c>
+      <c r="H317">
+        <v>5</v>
+      </c>
+      <c r="I317">
+        <v>1</v>
+      </c>
+      <c r="J317">
+        <f>I317*D318/C318</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="318" spans="2:12">
+      <c r="B318">
+        <v>5</v>
+      </c>
+      <c r="C318">
+        <v>5</v>
+      </c>
+      <c r="D318">
+        <v>20</v>
+      </c>
+      <c r="G318">
+        <v>2</v>
+      </c>
+      <c r="H318">
+        <v>2</v>
+      </c>
+      <c r="I318">
+        <v>30</v>
+      </c>
+      <c r="J318">
+        <f>I318*D315/C315</f>
+        <v>294.51582843903452</v>
+      </c>
+      <c r="L318">
+        <f>D309-D319</f>
+        <v>-0.36987415980547667</v>
+      </c>
+    </row>
+    <row r="319" spans="2:12">
+      <c r="D319" s="1">
+        <f>SUM(D314:D318)</f>
+        <v>1197.4331879159436</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="N1:P1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/DOC/Тест расчета себестоимости.xlsx
+++ b/DOC/Тест расчета себестоимости.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="90" windowWidth="19980" windowHeight="8070" activeTab="1"/>
@@ -116,12 +116,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -162,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -181,6 +193,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2882,8 +2898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P319"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B301" workbookViewId="0">
-      <selection activeCell="B323" sqref="B323"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2973,17 +2989,17 @@
         <v>1</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="2">
+      <c r="D3" s="12">
         <v>10</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="12">
         <v>100</v>
       </c>
       <c r="F3" s="2"/>
-      <c r="G3" s="2">
-        <v>20</v>
-      </c>
-      <c r="H3" s="2">
+      <c r="G3" s="12">
+        <v>20</v>
+      </c>
+      <c r="H3" s="12">
         <v>180</v>
       </c>
       <c r="I3" s="2"/>
@@ -3035,7 +3051,8 @@
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
-      <c r="P4" s="2">
+      <c r="P4" s="14">
+        <f>N3</f>
         <v>30</v>
       </c>
     </row>
@@ -3052,8 +3069,9 @@
       <c r="M5" s="1">
         <v>0</v>
       </c>
-      <c r="P5">
-        <v>30</v>
+      <c r="P5" s="13">
+        <f>N6</f>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -3063,8 +3081,8 @@
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J6">
-        <v>30</v>
+      <c r="J6" s="15">
+        <v>10</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -3073,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -3182,11 +3200,17 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>60</v>
+        <f>$D$3+$G$3+$P$5</f>
+        <v>80</v>
       </c>
       <c r="D14">
+        <f>$E$3+$H$3</f>
         <v>280</v>
       </c>
+      <c r="E14">
+        <f>D14/C14</f>
+        <v>3.5</v>
+      </c>
       <c r="G14">
         <v>1</v>
       </c>
@@ -3194,7 +3218,8 @@
         <v>2</v>
       </c>
       <c r="I14">
-        <v>28</v>
+        <f>$N$6</f>
+        <v>50</v>
       </c>
       <c r="J14">
         <f>I14*D15/C15</f>
@@ -3210,9 +3235,11 @@
         <v>2</v>
       </c>
       <c r="C15">
-        <v>60</v>
-      </c>
-      <c r="D15">
+        <f>$J$6+$P$4</f>
+        <v>40</v>
+      </c>
+      <c r="E15">
+        <f>D15/C15</f>
         <v>0</v>
       </c>
       <c r="G15">
@@ -3222,11 +3249,12 @@
         <v>1</v>
       </c>
       <c r="I15">
+        <f>$N$3</f>
         <v>30</v>
       </c>
       <c r="J15">
         <f>I15*D14/C14</f>
-        <v>140</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -3243,6 +3271,7 @@
         <v>4</v>
       </c>
       <c r="I16">
+        <f>$L$8</f>
         <v>1</v>
       </c>
       <c r="J16">
@@ -3259,11 +3288,17 @@
         <v>4</v>
       </c>
       <c r="C17">
+        <f>$D$8</f>
         <v>4</v>
       </c>
       <c r="D17">
+        <f>$E$8</f>
         <v>14</v>
       </c>
+      <c r="E17">
+        <f>D17/C17</f>
+        <v>3.5</v>
+      </c>
       <c r="G17">
         <v>2</v>
       </c>
@@ -3271,6 +3306,7 @@
         <v>5</v>
       </c>
       <c r="I17">
+        <f>$L$9</f>
         <v>1</v>
       </c>
       <c r="J17">
@@ -3283,10 +3319,16 @@
         <v>5</v>
       </c>
       <c r="C18">
+        <f>$D$9</f>
         <v>5</v>
       </c>
       <c r="D18">
-        <v>20</v>
+        <f>$E$9</f>
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <f>D18/C18</f>
+        <v>4</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -3295,6 +3337,7 @@
         <v>2</v>
       </c>
       <c r="I18">
+        <f>$L$4</f>
         <v>30</v>
       </c>
       <c r="J18">
@@ -3350,12 +3393,17 @@
         <v>1</v>
       </c>
       <c r="C24">
-        <v>60</v>
+        <f>$D$3+$G$3+$P$5</f>
+        <v>80</v>
       </c>
       <c r="D24">
-        <f>280+J14</f>
+        <f>$E$3+$H$3+J14</f>
         <v>280</v>
       </c>
+      <c r="E24">
+        <f>D24/C24</f>
+        <v>3.5</v>
+      </c>
       <c r="G24">
         <v>1</v>
       </c>
@@ -3363,11 +3411,12 @@
         <v>2</v>
       </c>
       <c r="I24">
-        <v>30</v>
+        <f>$N$6</f>
+        <v>50</v>
       </c>
       <c r="J24">
         <f>I24*D25/C25</f>
-        <v>73.75</v>
+        <v>140.625</v>
       </c>
     </row>
     <row r="25" spans="2:12">
@@ -3375,11 +3424,16 @@
         <v>2</v>
       </c>
       <c r="C25">
-        <v>60</v>
+        <f>$J$6+$P$4</f>
+        <v>40</v>
       </c>
       <c r="D25">
         <f>SUM(J15:J18)</f>
-        <v>147.5</v>
+        <v>112.5</v>
+      </c>
+      <c r="E25">
+        <f>D25/C25</f>
+        <v>2.8125</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -3388,11 +3442,12 @@
         <v>1</v>
       </c>
       <c r="I25">
+        <f>$N$3</f>
         <v>30</v>
       </c>
       <c r="J25">
         <f>I25*D24/C24</f>
-        <v>140</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="2:12">
@@ -3409,6 +3464,7 @@
         <v>4</v>
       </c>
       <c r="I26">
+        <f>$L$8</f>
         <v>1</v>
       </c>
       <c r="J26">
@@ -3421,11 +3477,17 @@
         <v>4</v>
       </c>
       <c r="C27">
+        <f>$D$8</f>
         <v>4</v>
       </c>
       <c r="D27">
+        <f>$E$8</f>
         <v>14</v>
       </c>
+      <c r="E27">
+        <f>D27/C27</f>
+        <v>3.5</v>
+      </c>
       <c r="G27">
         <v>2</v>
       </c>
@@ -3433,6 +3495,7 @@
         <v>5</v>
       </c>
       <c r="I27">
+        <f>$L$9</f>
         <v>1</v>
       </c>
       <c r="J27">
@@ -3445,10 +3508,16 @@
         <v>5</v>
       </c>
       <c r="C28">
+        <f>$D$9</f>
         <v>5</v>
       </c>
       <c r="D28">
-        <v>20</v>
+        <f>$E$9</f>
+        <v>20</v>
+      </c>
+      <c r="E28">
+        <f>D28/C28</f>
+        <v>4</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -3457,21 +3526,22 @@
         <v>2</v>
       </c>
       <c r="I28">
+        <f>$L$4</f>
         <v>30</v>
       </c>
       <c r="J28">
         <f>I28*D25/C25</f>
-        <v>73.75</v>
+        <v>84.375</v>
       </c>
       <c r="L28">
         <f>D19-D29</f>
-        <v>-147.5</v>
+        <v>-112.5</v>
       </c>
     </row>
     <row r="29" spans="2:12">
       <c r="D29" s="1">
         <f>SUM(D24:D28)</f>
-        <v>461.5</v>
+        <v>426.5</v>
       </c>
     </row>
     <row r="30" spans="2:12">
@@ -3519,11 +3589,16 @@
         <v>1</v>
       </c>
       <c r="C34">
-        <v>60</v>
+        <f>$D$3+$G$3+$P$5</f>
+        <v>80</v>
       </c>
       <c r="D34">
-        <f>280+J24</f>
-        <v>353.75</v>
+        <f>$E$3+$H$3+J24</f>
+        <v>420.625</v>
+      </c>
+      <c r="E34">
+        <f>D34/C34</f>
+        <v>5.2578125</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -3532,11 +3607,12 @@
         <v>2</v>
       </c>
       <c r="I34">
-        <v>30</v>
+        <f>$N$6</f>
+        <v>50</v>
       </c>
       <c r="J34">
         <f>I34*D35/C35</f>
-        <v>110.625</v>
+        <v>246.09375</v>
       </c>
     </row>
     <row r="35" spans="2:12">
@@ -3544,11 +3620,16 @@
         <v>2</v>
       </c>
       <c r="C35">
-        <v>60</v>
+        <f>$J$6+$P$4</f>
+        <v>40</v>
       </c>
       <c r="D35">
         <f>SUM(J25:J28)</f>
-        <v>221.25</v>
+        <v>196.875</v>
+      </c>
+      <c r="E35">
+        <f>D35/C35</f>
+        <v>4.921875</v>
       </c>
       <c r="G35">
         <v>2</v>
@@ -3557,11 +3638,12 @@
         <v>1</v>
       </c>
       <c r="I35">
+        <f>$N$3</f>
         <v>30</v>
       </c>
       <c r="J35">
         <f>I35*D34/C34</f>
-        <v>176.875</v>
+        <v>157.734375</v>
       </c>
     </row>
     <row r="36" spans="2:12">
@@ -3578,6 +3660,7 @@
         <v>4</v>
       </c>
       <c r="I36">
+        <f>$L$8</f>
         <v>1</v>
       </c>
       <c r="J36">
@@ -3590,11 +3673,17 @@
         <v>4</v>
       </c>
       <c r="C37">
+        <f>$D$8</f>
         <v>4</v>
       </c>
       <c r="D37">
+        <f>$E$8</f>
         <v>14</v>
       </c>
+      <c r="E37">
+        <f>D37/C37</f>
+        <v>3.5</v>
+      </c>
       <c r="G37">
         <v>2</v>
       </c>
@@ -3602,6 +3691,7 @@
         <v>5</v>
       </c>
       <c r="I37">
+        <f>$L$9</f>
         <v>1</v>
       </c>
       <c r="J37">
@@ -3614,10 +3704,16 @@
         <v>5</v>
       </c>
       <c r="C38">
+        <f>$D$9</f>
         <v>5</v>
       </c>
       <c r="D38">
-        <v>20</v>
+        <f>$E$9</f>
+        <v>20</v>
+      </c>
+      <c r="E38">
+        <f>D38/C38</f>
+        <v>4</v>
       </c>
       <c r="G38">
         <v>2</v>
@@ -3626,21 +3722,22 @@
         <v>2</v>
       </c>
       <c r="I38">
+        <f>$L$4</f>
         <v>30</v>
       </c>
       <c r="J38">
         <f>I38*D35/C35</f>
-        <v>110.625</v>
+        <v>147.65625</v>
       </c>
       <c r="L38">
         <f>D29-D39</f>
-        <v>-147.5</v>
+        <v>-225</v>
       </c>
     </row>
     <row r="39" spans="2:12">
       <c r="D39" s="1">
         <f>SUM(D34:D38)</f>
-        <v>609</v>
+        <v>651.5</v>
       </c>
     </row>
     <row r="41" spans="2:12">
@@ -3688,11 +3785,16 @@
         <v>1</v>
       </c>
       <c r="C44">
-        <v>60</v>
+        <f>$D$3+$G$3+$P$5</f>
+        <v>80</v>
       </c>
       <c r="D44">
-        <f>280+J34</f>
-        <v>390.625</v>
+        <f>$E$3+$H$3+J34</f>
+        <v>526.09375</v>
+      </c>
+      <c r="E44">
+        <f>D44/C44</f>
+        <v>6.576171875</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -3701,11 +3803,12 @@
         <v>2</v>
       </c>
       <c r="I44">
-        <v>30</v>
+        <f>$N$6</f>
+        <v>50</v>
       </c>
       <c r="J44">
         <f>I44*D45/C45</f>
-        <v>147.5</v>
+        <v>391.11328125</v>
       </c>
     </row>
     <row r="45" spans="2:12">
@@ -3713,11 +3816,16 @@
         <v>2</v>
       </c>
       <c r="C45">
-        <v>60</v>
+        <f>$J$6+$P$4</f>
+        <v>40</v>
       </c>
       <c r="D45">
         <f>SUM(J35:J38)</f>
-        <v>295</v>
+        <v>312.890625</v>
+      </c>
+      <c r="E45">
+        <f>D45/C45</f>
+        <v>7.822265625</v>
       </c>
       <c r="G45">
         <v>2</v>
@@ -3726,11 +3834,12 @@
         <v>1</v>
       </c>
       <c r="I45">
+        <f>$N$3</f>
         <v>30</v>
       </c>
       <c r="J45">
         <f>I45*D44/C44</f>
-        <v>195.3125</v>
+        <v>197.28515625</v>
       </c>
     </row>
     <row r="46" spans="2:12">
@@ -3747,6 +3856,7 @@
         <v>4</v>
       </c>
       <c r="I46">
+        <f>$L$8</f>
         <v>1</v>
       </c>
       <c r="J46">
@@ -3759,11 +3869,17 @@
         <v>4</v>
       </c>
       <c r="C47">
+        <f>$D$8</f>
         <v>4</v>
       </c>
       <c r="D47">
+        <f>$E$8</f>
         <v>14</v>
       </c>
+      <c r="E47">
+        <f>D47/C47</f>
+        <v>3.5</v>
+      </c>
       <c r="G47">
         <v>2</v>
       </c>
@@ -3771,6 +3887,7 @@
         <v>5</v>
       </c>
       <c r="I47">
+        <f>$L$9</f>
         <v>1</v>
       </c>
       <c r="J47">
@@ -3783,10 +3900,16 @@
         <v>5</v>
       </c>
       <c r="C48">
+        <f>$D$9</f>
         <v>5</v>
       </c>
       <c r="D48">
-        <v>20</v>
+        <f>$E$9</f>
+        <v>20</v>
+      </c>
+      <c r="E48">
+        <f>D48/C48</f>
+        <v>4</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -3795,21 +3918,22 @@
         <v>2</v>
       </c>
       <c r="I48">
+        <f>$L$4</f>
         <v>30</v>
       </c>
       <c r="J48">
         <f>I48*D45/C45</f>
-        <v>147.5</v>
+        <v>234.66796875</v>
       </c>
       <c r="L48">
         <f>D39-D49</f>
-        <v>-110.625</v>
+        <v>-221.484375</v>
       </c>
     </row>
     <row r="49" spans="2:12">
       <c r="D49" s="1">
         <f>SUM(D44:D48)</f>
-        <v>719.625</v>
+        <v>872.984375</v>
       </c>
     </row>
     <row r="52" spans="2:12">
@@ -3854,11 +3978,16 @@
         <v>1</v>
       </c>
       <c r="C54">
-        <v>60</v>
+        <f>$D$3+$G$3+$P$5</f>
+        <v>80</v>
       </c>
       <c r="D54">
-        <f>280+J44</f>
-        <v>427.5</v>
+        <f>$E$3+$H$3+J44</f>
+        <v>671.11328125</v>
+      </c>
+      <c r="E54">
+        <f>D54/C54</f>
+        <v>8.388916015625</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -3867,11 +3996,12 @@
         <v>2</v>
       </c>
       <c r="I54">
-        <v>30</v>
+        <f>$N$6</f>
+        <v>50</v>
       </c>
       <c r="J54">
         <f>I54*D55/C55</f>
-        <v>175.15625</v>
+        <v>549.31640625</v>
       </c>
     </row>
     <row r="55" spans="2:12">
@@ -3879,11 +4009,16 @@
         <v>2</v>
       </c>
       <c r="C55">
-        <v>60</v>
+        <f>$J$6+$P$4</f>
+        <v>40</v>
       </c>
       <c r="D55">
         <f>SUM(J45:J48)</f>
-        <v>350.3125</v>
+        <v>439.453125</v>
+      </c>
+      <c r="E55">
+        <f>D55/C55</f>
+        <v>10.986328125</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -3892,11 +4027,12 @@
         <v>1</v>
       </c>
       <c r="I55">
+        <f>$N$3</f>
         <v>30</v>
       </c>
       <c r="J55">
         <f>I55*D54/C54</f>
-        <v>213.75</v>
+        <v>251.66748046875</v>
       </c>
     </row>
     <row r="56" spans="2:12">
@@ -3913,6 +4049,7 @@
         <v>4</v>
       </c>
       <c r="I56">
+        <f>$L$8</f>
         <v>1</v>
       </c>
       <c r="J56">
@@ -3925,11 +4062,17 @@
         <v>4</v>
       </c>
       <c r="C57">
+        <f>$D$8</f>
         <v>4</v>
       </c>
       <c r="D57">
+        <f>$E$8</f>
         <v>14</v>
       </c>
+      <c r="E57">
+        <f>D57/C57</f>
+        <v>3.5</v>
+      </c>
       <c r="G57">
         <v>2</v>
       </c>
@@ -3937,6 +4080,7 @@
         <v>5</v>
       </c>
       <c r="I57">
+        <f>$L$9</f>
         <v>1</v>
       </c>
       <c r="J57">
@@ -3949,10 +4093,16 @@
         <v>5</v>
       </c>
       <c r="C58">
+        <f>$D$9</f>
         <v>5</v>
       </c>
       <c r="D58">
-        <v>20</v>
+        <f>$E$9</f>
+        <v>20</v>
+      </c>
+      <c r="E58">
+        <f>D58/C58</f>
+        <v>4</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -3961,21 +4111,22 @@
         <v>2</v>
       </c>
       <c r="I58">
+        <f>$L$4</f>
         <v>30</v>
       </c>
       <c r="J58">
         <f>I58*D55/C55</f>
-        <v>175.15625</v>
+        <v>329.58984375</v>
       </c>
       <c r="L58">
         <f>D49-D59</f>
-        <v>-92.1875</v>
+        <v>-271.58203125</v>
       </c>
     </row>
     <row r="59" spans="2:12">
       <c r="D59" s="1">
         <f>SUM(D54:D58)</f>
-        <v>811.8125</v>
+        <v>1144.56640625</v>
       </c>
     </row>
     <row r="62" spans="2:12">
@@ -4020,11 +4171,16 @@
         <v>1</v>
       </c>
       <c r="C64">
-        <v>60</v>
+        <f>$D$3+$G$3+$P$5</f>
+        <v>80</v>
       </c>
       <c r="D64">
-        <f>280+J54</f>
-        <v>455.15625</v>
+        <f>$E$3+$H$3+J54</f>
+        <v>829.31640625</v>
+      </c>
+      <c r="E64">
+        <f>D64/C64</f>
+        <v>10.366455078125</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -4033,11 +4189,12 @@
         <v>2</v>
       </c>
       <c r="I64">
-        <v>30</v>
+        <f>$N$6</f>
+        <v>50</v>
       </c>
       <c r="J64">
         <f>I64*D65/C65</f>
-        <v>198.203125</v>
+        <v>735.9466552734375</v>
       </c>
     </row>
     <row r="65" spans="2:12">
@@ -4045,11 +4202,16 @@
         <v>2</v>
       </c>
       <c r="C65">
-        <v>60</v>
+        <f>$J$6+$P$4</f>
+        <v>40</v>
       </c>
       <c r="D65">
         <f>SUM(J55:J58)</f>
-        <v>396.40625</v>
+        <v>588.75732421875</v>
+      </c>
+      <c r="E65">
+        <f>D65/C65</f>
+        <v>14.71893310546875</v>
       </c>
       <c r="G65">
         <v>2</v>
@@ -4058,11 +4220,12 @@
         <v>1</v>
       </c>
       <c r="I65">
+        <f>$N$3</f>
         <v>30</v>
       </c>
       <c r="J65">
         <f>I65*D64/C64</f>
-        <v>227.578125</v>
+        <v>310.99365234375</v>
       </c>
     </row>
     <row r="66" spans="2:12">
@@ -4079,6 +4242,7 @@
         <v>4</v>
       </c>
       <c r="I66">
+        <f>$L$8</f>
         <v>1</v>
       </c>
       <c r="J66">
@@ -4091,11 +4255,17 @@
         <v>4</v>
       </c>
       <c r="C67">
+        <f>$D$8</f>
         <v>4</v>
       </c>
       <c r="D67">
+        <f>$E$8</f>
         <v>14</v>
       </c>
+      <c r="E67">
+        <f>D67/C67</f>
+        <v>3.5</v>
+      </c>
       <c r="G67">
         <v>2</v>
       </c>
@@ -4103,6 +4273,7 @@
         <v>5</v>
       </c>
       <c r="I67">
+        <f>$L$9</f>
         <v>1</v>
       </c>
       <c r="J67">
@@ -4115,10 +4286,16 @@
         <v>5</v>
       </c>
       <c r="C68">
+        <f>$D$9</f>
         <v>5</v>
       </c>
       <c r="D68">
-        <v>20</v>
+        <f>$E$9</f>
+        <v>20</v>
+      </c>
+      <c r="E68">
+        <f>D68/C68</f>
+        <v>4</v>
       </c>
       <c r="G68">
         <v>2</v>
@@ -4127,21 +4304,22 @@
         <v>2</v>
       </c>
       <c r="I68">
+        <f>$L$4</f>
         <v>30</v>
       </c>
       <c r="J68">
         <f>I68*D65/C65</f>
-        <v>198.203125</v>
+        <v>441.5679931640625</v>
       </c>
       <c r="L68">
         <f>D59-D69</f>
-        <v>-73.75</v>
+        <v>-307.50732421875</v>
       </c>
     </row>
     <row r="69" spans="2:12">
       <c r="D69" s="1">
         <f>SUM(D64:D68)</f>
-        <v>885.5625</v>
+        <v>1452.07373046875</v>
       </c>
     </row>
     <row r="72" spans="2:12">
@@ -4186,11 +4364,16 @@
         <v>1</v>
       </c>
       <c r="C74">
-        <v>60</v>
+        <f>$D$3+$G$3+$P$5</f>
+        <v>80</v>
       </c>
       <c r="D74">
-        <f>280+J64</f>
-        <v>478.203125</v>
+        <f>$E$3+$H$3+J64</f>
+        <v>1015.9466552734375</v>
+      </c>
+      <c r="E74">
+        <f>D74/C74</f>
+        <v>12.699333190917969</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -4199,11 +4382,12 @@
         <v>2</v>
       </c>
       <c r="I74">
-        <v>30</v>
+        <f>$N$6</f>
+        <v>50</v>
       </c>
       <c r="J74">
         <f>I74*D75/C75</f>
-        <v>216.640625</v>
+        <v>950.07705688476562</v>
       </c>
     </row>
     <row r="75" spans="2:12">
@@ -4211,11 +4395,16 @@
         <v>2</v>
       </c>
       <c r="C75">
-        <v>60</v>
+        <f>$J$6+$P$4</f>
+        <v>40</v>
       </c>
       <c r="D75">
         <f>SUM(J65:J68)</f>
-        <v>433.28125</v>
+        <v>760.0616455078125</v>
+      </c>
+      <c r="E75">
+        <f>D75/C75</f>
+        <v>19.001541137695313</v>
       </c>
       <c r="G75">
         <v>2</v>
@@ -4224,11 +4413,12 @@
         <v>1</v>
       </c>
       <c r="I75">
+        <f>$N$3</f>
         <v>30</v>
       </c>
       <c r="J75">
         <f>I75*D74/C74</f>
-        <v>239.1015625</v>
+        <v>380.97999572753906</v>
       </c>
     </row>
     <row r="76" spans="2:12">
@@ -4245,6 +4435,7 @@
         <v>4</v>
       </c>
       <c r="I76">
+        <f>$L$8</f>
         <v>1</v>
       </c>
       <c r="J76">
@@ -4257,11 +4448,17 @@
         <v>4</v>
       </c>
       <c r="C77">
+        <f>$D$8</f>
         <v>4</v>
       </c>
       <c r="D77">
+        <f>$E$8</f>
         <v>14</v>
       </c>
+      <c r="E77">
+        <f>D77/C77</f>
+        <v>3.5</v>
+      </c>
       <c r="G77">
         <v>2</v>
       </c>
@@ -4269,6 +4466,7 @@
         <v>5</v>
       </c>
       <c r="I77">
+        <f>$L$9</f>
         <v>1</v>
       </c>
       <c r="J77">
@@ -4281,10 +4479,16 @@
         <v>5</v>
       </c>
       <c r="C78">
+        <f>$D$9</f>
         <v>5</v>
       </c>
       <c r="D78">
-        <v>20</v>
+        <f>$E$9</f>
+        <v>20</v>
+      </c>
+      <c r="E78">
+        <f>D78/C78</f>
+        <v>4</v>
       </c>
       <c r="G78">
         <v>2</v>
@@ -4293,21 +4497,22 @@
         <v>2</v>
       </c>
       <c r="I78">
+        <f>$L$4</f>
         <v>30</v>
       </c>
       <c r="J78">
         <f>I78*D75/C75</f>
-        <v>216.640625</v>
+        <v>570.04623413085937</v>
       </c>
       <c r="L78">
         <f>D69-D79</f>
-        <v>-59.921875</v>
+        <v>-357.9345703125</v>
       </c>
     </row>
     <row r="79" spans="2:12">
       <c r="D79" s="1">
         <f>SUM(D74:D78)</f>
-        <v>945.484375</v>
+        <v>1810.00830078125</v>
       </c>
     </row>
     <row r="82" spans="2:12">
@@ -4352,11 +4557,16 @@
         <v>1</v>
       </c>
       <c r="C84">
-        <v>60</v>
+        <f>$D$3+$G$3+$P$5</f>
+        <v>80</v>
       </c>
       <c r="D84">
-        <f>280+J74</f>
-        <v>496.640625</v>
+        <f>$E$3+$H$3+J74</f>
+        <v>1230.0770568847656</v>
+      </c>
+      <c r="E84">
+        <f>D84/C84</f>
+        <v>15.37596321105957</v>
       </c>
       <c r="G84">
         <v>1</v>
@@ -4365,11 +4575,12 @@
         <v>2</v>
       </c>
       <c r="I84">
-        <v>30</v>
+        <f>$N$6</f>
+        <v>50</v>
       </c>
       <c r="J84">
         <f>I84*D85/C85</f>
-        <v>231.62109375</v>
+        <v>1198.157787322998</v>
       </c>
     </row>
     <row r="85" spans="2:12">
@@ -4377,11 +4588,16 @@
         <v>2</v>
       </c>
       <c r="C85">
-        <v>60</v>
+        <f>$J$6+$P$4</f>
+        <v>40</v>
       </c>
       <c r="D85">
         <f>SUM(J75:J78)</f>
-        <v>463.2421875</v>
+        <v>958.52622985839844</v>
+      </c>
+      <c r="E85">
+        <f>D85/C85</f>
+        <v>23.963155746459961</v>
       </c>
       <c r="G85">
         <v>2</v>
@@ -4390,11 +4606,12 @@
         <v>1</v>
       </c>
       <c r="I85">
+        <f>$N$3</f>
         <v>30</v>
       </c>
       <c r="J85">
         <f>I85*D84/C84</f>
-        <v>248.3203125</v>
+        <v>461.27889633178711</v>
       </c>
     </row>
     <row r="86" spans="2:12">
@@ -4411,6 +4628,7 @@
         <v>4</v>
       </c>
       <c r="I86">
+        <f>$L$8</f>
         <v>1</v>
       </c>
       <c r="J86">
@@ -4423,11 +4641,17 @@
         <v>4</v>
       </c>
       <c r="C87">
+        <f>$D$8</f>
         <v>4</v>
       </c>
       <c r="D87">
+        <f>$E$8</f>
         <v>14</v>
       </c>
+      <c r="E87">
+        <f>D87/C87</f>
+        <v>3.5</v>
+      </c>
       <c r="G87">
         <v>2</v>
       </c>
@@ -4435,6 +4659,7 @@
         <v>5</v>
       </c>
       <c r="I87">
+        <f>$L$9</f>
         <v>1</v>
       </c>
       <c r="J87">
@@ -4447,10 +4672,16 @@
         <v>5</v>
       </c>
       <c r="C88">
+        <f>$D$9</f>
         <v>5</v>
       </c>
       <c r="D88">
-        <v>20</v>
+        <f>$E$9</f>
+        <v>20</v>
+      </c>
+      <c r="E88">
+        <f>D88/C88</f>
+        <v>4</v>
       </c>
       <c r="G88">
         <v>2</v>
@@ -4459,21 +4690,22 @@
         <v>2</v>
       </c>
       <c r="I88">
+        <f>$L$4</f>
         <v>30</v>
       </c>
       <c r="J88">
         <f>I88*D85/C85</f>
-        <v>231.62109375</v>
+        <v>718.89467239379883</v>
       </c>
       <c r="L88">
         <f>D79-D89</f>
-        <v>-48.3984375</v>
+        <v>-412.59498596191406</v>
       </c>
     </row>
     <row r="89" spans="2:12">
       <c r="D89" s="1">
         <f>SUM(D84:D88)</f>
-        <v>993.8828125</v>
+        <v>2222.6032867431641</v>
       </c>
     </row>
     <row r="90" spans="2:12">
@@ -4529,11 +4761,16 @@
         <v>1</v>
       </c>
       <c r="C94">
-        <v>60</v>
+        <f>$D$3+$G$3+$P$5</f>
+        <v>80</v>
       </c>
       <c r="D94">
-        <f>280+J84</f>
-        <v>511.62109375</v>
+        <f>$E$3+$H$3+J84</f>
+        <v>1478.157787322998</v>
+      </c>
+      <c r="E94">
+        <f>D94/C94</f>
+        <v>18.476972341537476</v>
       </c>
       <c r="G94">
         <v>1</v>
@@ -4542,11 +4779,12 @@
         <v>2</v>
       </c>
       <c r="I94">
-        <v>30</v>
+        <f>$N$6</f>
+        <v>50</v>
       </c>
       <c r="J94">
         <f>I94*D95/C95</f>
-        <v>243.720703125</v>
+        <v>1484.5919609069824</v>
       </c>
     </row>
     <row r="95" spans="2:12">
@@ -4554,11 +4792,16 @@
         <v>2</v>
       </c>
       <c r="C95">
-        <v>60</v>
+        <f>$J$6+$P$4</f>
+        <v>40</v>
       </c>
       <c r="D95">
         <f>SUM(J85:J88)</f>
-        <v>487.44140625</v>
+        <v>1187.6735687255859</v>
+      </c>
+      <c r="E95">
+        <f>D95/C95</f>
+        <v>29.691839218139648</v>
       </c>
       <c r="G95">
         <v>2</v>
@@ -4567,11 +4810,12 @@
         <v>1</v>
       </c>
       <c r="I95">
+        <f>$N$3</f>
         <v>30</v>
       </c>
       <c r="J95">
         <f>I95*D94/C94</f>
-        <v>255.810546875</v>
+        <v>554.30917024612427</v>
       </c>
     </row>
     <row r="96" spans="2:12">
@@ -4588,6 +4832,7 @@
         <v>4</v>
       </c>
       <c r="I96">
+        <f>$L$8</f>
         <v>1</v>
       </c>
       <c r="J96">
@@ -4600,11 +4845,17 @@
         <v>4</v>
       </c>
       <c r="C97">
+        <f>$D$8</f>
         <v>4</v>
       </c>
       <c r="D97">
+        <f>$E$8</f>
         <v>14</v>
       </c>
+      <c r="E97">
+        <f>D97/C97</f>
+        <v>3.5</v>
+      </c>
       <c r="G97">
         <v>2</v>
       </c>
@@ -4612,6 +4863,7 @@
         <v>5</v>
       </c>
       <c r="I97">
+        <f>$L$9</f>
         <v>1</v>
       </c>
       <c r="J97">
@@ -4624,10 +4876,16 @@
         <v>5</v>
       </c>
       <c r="C98">
+        <f>$D$9</f>
         <v>5</v>
       </c>
       <c r="D98">
-        <v>20</v>
+        <f>$E$9</f>
+        <v>20</v>
+      </c>
+      <c r="E98">
+        <f>D98/C98</f>
+        <v>4</v>
       </c>
       <c r="G98">
         <v>2</v>
@@ -4636,21 +4894,22 @@
         <v>2</v>
       </c>
       <c r="I98">
+        <f>$L$4</f>
         <v>30</v>
       </c>
       <c r="J98">
         <f>I98*D95/C95</f>
-        <v>243.720703125</v>
+        <v>890.75517654418945</v>
       </c>
       <c r="L98">
         <f>D89-D99</f>
-        <v>-39.1796875</v>
+        <v>-477.22806930541992</v>
       </c>
     </row>
     <row r="99" spans="2:12">
       <c r="D99" s="1">
         <f>SUM(D94:D98)</f>
-        <v>1033.0625</v>
+        <v>2699.831356048584</v>
       </c>
     </row>
     <row r="100" spans="2:12">
@@ -4714,11 +4973,16 @@
         <v>1</v>
       </c>
       <c r="C104">
-        <v>60</v>
+        <f>$D$3+$G$3+$P$5</f>
+        <v>80</v>
       </c>
       <c r="D104">
-        <f>280+J94</f>
-        <v>523.720703125</v>
+        <f>$E$3+$H$3+J94</f>
+        <v>1764.5919609069824</v>
+      </c>
+      <c r="E104">
+        <f>D104/C104</f>
+        <v>22.05739951133728</v>
       </c>
       <c r="G104">
         <v>1</v>
@@ -4727,11 +4991,12 @@
         <v>2</v>
       </c>
       <c r="I104">
-        <v>30</v>
+        <f>$N$6</f>
+        <v>50</v>
       </c>
       <c r="J104">
         <f>I104*D105/C105</f>
-        <v>253.515625</v>
+        <v>1815.7054334878922</v>
       </c>
     </row>
     <row r="105" spans="2:12">
@@ -4739,11 +5004,16 @@
         <v>2</v>
       </c>
       <c r="C105">
-        <v>60</v>
+        <f>$J$6+$P$4</f>
+        <v>40</v>
       </c>
       <c r="D105">
         <f>SUM(J95:J98)</f>
-        <v>507.03125</v>
+        <v>1452.5643467903137</v>
+      </c>
+      <c r="E105">
+        <f>D105/C105</f>
+        <v>36.314108669757843</v>
       </c>
       <c r="G105">
         <v>2</v>
@@ -4752,11 +5022,12 @@
         <v>1</v>
       </c>
       <c r="I105">
+        <f>$N$3</f>
         <v>30</v>
       </c>
       <c r="J105">
         <f>I105*D104/C104</f>
-        <v>261.8603515625</v>
+        <v>661.72198534011841</v>
       </c>
     </row>
     <row r="106" spans="2:12">
@@ -4773,6 +5044,7 @@
         <v>4</v>
       </c>
       <c r="I106">
+        <f>$L$8</f>
         <v>1</v>
       </c>
       <c r="J106">
@@ -4785,11 +5057,17 @@
         <v>4</v>
       </c>
       <c r="C107">
+        <f>$D$8</f>
         <v>4</v>
       </c>
       <c r="D107">
+        <f>$E$8</f>
         <v>14</v>
       </c>
+      <c r="E107">
+        <f>D107/C107</f>
+        <v>3.5</v>
+      </c>
       <c r="G107">
         <v>2</v>
       </c>
@@ -4797,6 +5075,7 @@
         <v>5</v>
       </c>
       <c r="I107">
+        <f>$L$9</f>
         <v>1</v>
       </c>
       <c r="J107">
@@ -4809,10 +5088,16 @@
         <v>5</v>
       </c>
       <c r="C108">
+        <f>$D$9</f>
         <v>5</v>
       </c>
       <c r="D108">
-        <v>20</v>
+        <f>$E$9</f>
+        <v>20</v>
+      </c>
+      <c r="E108">
+        <f>D108/C108</f>
+        <v>4</v>
       </c>
       <c r="G108">
         <v>2</v>
@@ -4821,21 +5106,22 @@
         <v>2</v>
       </c>
       <c r="I108">
+        <f>$L$4</f>
         <v>30</v>
       </c>
       <c r="J108">
         <f>I108*D105/C105</f>
-        <v>253.515625</v>
+        <v>1089.4232600927353</v>
       </c>
       <c r="L108">
         <f>D99-D109</f>
-        <v>-31.689453125</v>
+        <v>-551.32495164871216</v>
       </c>
     </row>
     <row r="109" spans="2:12">
       <c r="D109" s="1">
         <f>SUM(D104:D108)</f>
-        <v>1064.751953125</v>
+        <v>3251.1563076972961</v>
       </c>
     </row>
     <row r="111" spans="2:12">
@@ -4888,11 +5174,16 @@
         <v>1</v>
       </c>
       <c r="C114">
-        <v>60</v>
+        <f>$D$3+$G$3+$P$5</f>
+        <v>80</v>
       </c>
       <c r="D114">
-        <f>280+J104</f>
-        <v>533.515625</v>
+        <f>$E$3+$H$3+J104</f>
+        <v>2095.7054334878922</v>
+      </c>
+      <c r="E114">
+        <f>D114/C114</f>
+        <v>26.196317918598652</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -4901,11 +5192,12 @@
         <v>2</v>
       </c>
       <c r="I114">
-        <v>30</v>
+        <f>$N$6</f>
+        <v>50</v>
       </c>
       <c r="J114">
         <f>I114*D115/C115</f>
-        <v>261.43798828125</v>
+        <v>2198.3065567910671</v>
       </c>
     </row>
     <row r="115" spans="2:12">
@@ -4913,11 +5205,16 @@
         <v>2</v>
       </c>
       <c r="C115">
-        <v>60</v>
+        <f>$J$6+$P$4</f>
+        <v>40</v>
       </c>
       <c r="D115">
         <f>SUM(J105:J108)</f>
-        <v>522.8759765625</v>
+        <v>1758.6452454328537</v>
+      </c>
+      <c r="E115">
+        <f>D115/C115</f>
+        <v>43.966131135821342</v>
       </c>
       <c r="G115">
         <v>2</v>
@@ -4926,11 +5223,12 @@
         <v>1</v>
       </c>
       <c r="I115">
+        <f>$N$3</f>
         <v>30</v>
       </c>
       <c r="J115">
         <f>I115*D114/C114</f>
-        <v>266.7578125</v>
+        <v>785.88953755795956</v>
       </c>
     </row>
     <row r="116" spans="2:12">
@@ -4947,6 +5245,7 @@
         <v>4</v>
       </c>
       <c r="I116">
+        <f>$L$8</f>
         <v>1</v>
       </c>
       <c r="J116">
@@ -4959,11 +5258,17 @@
         <v>4</v>
       </c>
       <c r="C117">
+        <f>$D$8</f>
         <v>4</v>
       </c>
       <c r="D117">
+        <f>$E$8</f>
         <v>14</v>
       </c>
+      <c r="E117">
+        <f>D117/C117</f>
+        <v>3.5</v>
+      </c>
       <c r="G117">
         <v>2</v>
       </c>
@@ -4971,6 +5276,7 @@
         <v>5</v>
       </c>
       <c r="I117">
+        <f>$L$9</f>
         <v>1</v>
       </c>
       <c r="J117">
@@ -4983,10 +5289,16 @@
         <v>5</v>
       </c>
       <c r="C118">
+        <f>$D$9</f>
         <v>5</v>
       </c>
       <c r="D118">
-        <v>20</v>
+        <f>$E$9</f>
+        <v>20</v>
+      </c>
+      <c r="E118">
+        <f>D118/C118</f>
+        <v>4</v>
       </c>
       <c r="G118">
         <v>2</v>
@@ -4995,21 +5307,22 @@
         <v>2</v>
       </c>
       <c r="I118">
+        <f>$L$4</f>
         <v>30</v>
       </c>
       <c r="J118">
         <f>I118*D115/C115</f>
-        <v>261.43798828125</v>
+        <v>1318.9839340746403</v>
       </c>
       <c r="L118">
         <f>D109-D119</f>
-        <v>-25.6396484375</v>
+        <v>-637.19437122344971</v>
       </c>
     </row>
     <row r="119" spans="2:12">
       <c r="D119" s="1">
         <f>SUM(D114:D118)</f>
-        <v>1090.3916015625</v>
+        <v>3888.3506789207458</v>
       </c>
     </row>
     <row r="122" spans="2:12">
@@ -5054,11 +5367,16 @@
         <v>1</v>
       </c>
       <c r="C124">
-        <v>60</v>
+        <f>$D$3+$G$3+$P$5</f>
+        <v>80</v>
       </c>
       <c r="D124">
-        <f>280+J114</f>
-        <v>541.43798828125</v>
+        <f>$E$3+$H$3+J114</f>
+        <v>2478.3065567910671</v>
+      </c>
+      <c r="E124">
+        <f>D124/C124</f>
+        <v>30.978831959888339</v>
       </c>
       <c r="G124">
         <v>1</v>
@@ -5067,11 +5385,12 @@
         <v>2</v>
       </c>
       <c r="I124">
-        <v>30</v>
+        <f>$N$6</f>
+        <v>50</v>
       </c>
       <c r="J124">
         <f>I124*D125/C125</f>
-        <v>267.847900390625</v>
+        <v>2640.4668395407498</v>
       </c>
     </row>
     <row r="125" spans="2:12">
@@ -5079,11 +5398,16 @@
         <v>2</v>
       </c>
       <c r="C125">
-        <v>60</v>
+        <f>$J$6+$P$4</f>
+        <v>40</v>
       </c>
       <c r="D125">
         <f>SUM(J115:J118)</f>
-        <v>535.69580078125</v>
+        <v>2112.3734716325998</v>
+      </c>
+      <c r="E125">
+        <f>D125/C125</f>
+        <v>52.809336790814996</v>
       </c>
       <c r="G125">
         <v>2</v>
@@ -5092,11 +5416,12 @@
         <v>1</v>
       </c>
       <c r="I125">
+        <f>$N$3</f>
         <v>30</v>
       </c>
       <c r="J125">
         <f>I125*D124/C124</f>
-        <v>270.718994140625</v>
+        <v>929.36495879665017</v>
       </c>
     </row>
     <row r="126" spans="2:12">
@@ -5113,6 +5438,7 @@
         <v>4</v>
       </c>
       <c r="I126">
+        <f>$L$8</f>
         <v>1</v>
       </c>
       <c r="J126">
@@ -5125,11 +5451,17 @@
         <v>4</v>
       </c>
       <c r="C127">
+        <f>$D$8</f>
         <v>4</v>
       </c>
       <c r="D127">
+        <f>$E$8</f>
         <v>14</v>
       </c>
+      <c r="E127">
+        <f>D127/C127</f>
+        <v>3.5</v>
+      </c>
       <c r="G127">
         <v>2</v>
       </c>
@@ -5137,6 +5469,7 @@
         <v>5</v>
       </c>
       <c r="I127">
+        <f>$L$9</f>
         <v>1</v>
       </c>
       <c r="J127">
@@ -5149,10 +5482,16 @@
         <v>5</v>
       </c>
       <c r="C128">
+        <f>$D$9</f>
         <v>5</v>
       </c>
       <c r="D128">
-        <v>20</v>
+        <f>$E$9</f>
+        <v>20</v>
+      </c>
+      <c r="E128">
+        <f>D128/C128</f>
+        <v>4</v>
       </c>
       <c r="G128">
         <v>2</v>
@@ -5161,21 +5500,22 @@
         <v>2</v>
       </c>
       <c r="I128">
+        <f>$L$4</f>
         <v>30</v>
       </c>
       <c r="J128">
         <f>I128*D125/C125</f>
-        <v>267.847900390625</v>
+        <v>1584.2801037244499</v>
       </c>
       <c r="L128">
         <f>D119-D129</f>
-        <v>-20.7421875</v>
+        <v>-736.3293495029211</v>
       </c>
     </row>
     <row r="129" spans="2:12">
       <c r="D129" s="1">
         <f>SUM(D124:D128)</f>
-        <v>1111.1337890625</v>
+        <v>4624.680028423667</v>
       </c>
     </row>
     <row r="132" spans="2:12">
@@ -5220,11 +5560,16 @@
         <v>1</v>
       </c>
       <c r="C134">
-        <v>60</v>
+        <f>$D$3+$G$3+$P$5</f>
+        <v>80</v>
       </c>
       <c r="D134">
-        <f>280+J124</f>
-        <v>547.847900390625</v>
+        <f>$E$3+$H$3+J124</f>
+        <v>2920.4668395407498</v>
+      </c>
+      <c r="E134">
+        <f>D134/C134</f>
+        <v>36.505835494259372</v>
       </c>
       <c r="G134">
         <v>1</v>
@@ -5233,11 +5578,12 @@
         <v>2</v>
       </c>
       <c r="I134">
-        <v>30</v>
+        <f>$N$6</f>
+        <v>50</v>
       </c>
       <c r="J134">
         <f>I134*D135/C135</f>
-        <v>273.033447265625</v>
+        <v>3151.4313281513751</v>
       </c>
     </row>
     <row r="135" spans="2:12">
@@ -5245,11 +5591,16 @@
         <v>2</v>
       </c>
       <c r="C135">
-        <v>60</v>
+        <f>$J$6+$P$4</f>
+        <v>40</v>
       </c>
       <c r="D135">
         <f>SUM(J125:J128)</f>
-        <v>546.06689453125</v>
+        <v>2521.1450625211</v>
+      </c>
+      <c r="E135">
+        <f>D135/C135</f>
+        <v>63.028626563027501</v>
       </c>
       <c r="G135">
         <v>2</v>
@@ -5258,11 +5609,12 @@
         <v>1</v>
       </c>
       <c r="I135">
+        <f>$N$3</f>
         <v>30</v>
       </c>
       <c r="J135">
         <f>I135*D134/C134</f>
-        <v>273.9239501953125</v>
+        <v>1095.1750648277812</v>
       </c>
     </row>
     <row r="136" spans="2:12">
@@ -5279,6 +5631,7 @@
         <v>4</v>
       </c>
       <c r="I136">
+        <f>$L$8</f>
         <v>1</v>
       </c>
       <c r="J136">
@@ -5291,11 +5644,17 @@
         <v>4</v>
       </c>
       <c r="C137">
+        <f>$D$8</f>
         <v>4</v>
       </c>
       <c r="D137">
+        <f>$E$8</f>
         <v>14</v>
       </c>
+      <c r="E137">
+        <f>D137/C137</f>
+        <v>3.5</v>
+      </c>
       <c r="G137">
         <v>2</v>
       </c>
@@ -5303,6 +5662,7 @@
         <v>5</v>
       </c>
       <c r="I137">
+        <f>$L$9</f>
         <v>1</v>
       </c>
       <c r="J137">
@@ -5315,10 +5675,16 @@
         <v>5</v>
       </c>
       <c r="C138">
+        <f>$D$9</f>
         <v>5</v>
       </c>
       <c r="D138">
-        <v>20</v>
+        <f>$E$9</f>
+        <v>20</v>
+      </c>
+      <c r="E138">
+        <f>D138/C138</f>
+        <v>4</v>
       </c>
       <c r="G138">
         <v>2</v>
@@ -5327,21 +5693,22 @@
         <v>2</v>
       </c>
       <c r="I138">
+        <f>$L$4</f>
         <v>30</v>
       </c>
       <c r="J138">
         <f>I138*D135/C135</f>
-        <v>273.033447265625</v>
+        <v>1890.858796890825</v>
       </c>
       <c r="L138">
         <f>D129-D139</f>
-        <v>-16.781005859375</v>
+        <v>-850.93187363818288</v>
       </c>
     </row>
     <row r="139" spans="2:12">
       <c r="D139" s="1">
         <f>SUM(D134:D138)</f>
-        <v>1127.914794921875</v>
+        <v>5475.6119020618498</v>
       </c>
     </row>
     <row r="142" spans="2:12">
@@ -5386,11 +5753,16 @@
         <v>1</v>
       </c>
       <c r="C144">
-        <v>60</v>
+        <f>$D$3+$G$3+$P$5</f>
+        <v>80</v>
       </c>
       <c r="D144">
-        <f>280+J134</f>
-        <v>553.033447265625</v>
+        <f>$E$3+$H$3+J134</f>
+        <v>3431.4313281513751</v>
+      </c>
+      <c r="E144">
+        <f>D144/C144</f>
+        <v>42.892891601892188</v>
       </c>
       <c r="G144">
         <v>1</v>
@@ -5399,11 +5771,12 @@
         <v>2</v>
       </c>
       <c r="I144">
-        <v>30</v>
+        <f>$N$6</f>
+        <v>50</v>
       </c>
       <c r="J144">
         <f>I144*D145/C145</f>
-        <v>277.22869873046875</v>
+        <v>3741.9173271482578</v>
       </c>
     </row>
     <row r="145" spans="2:12">
@@ -5411,11 +5784,16 @@
         <v>2</v>
       </c>
       <c r="C145">
-        <v>60</v>
+        <f>$J$6+$P$4</f>
+        <v>40</v>
       </c>
       <c r="D145">
         <f>SUM(J135:J138)</f>
-        <v>554.4573974609375</v>
+        <v>2993.5338617186062</v>
+      </c>
+      <c r="E145">
+        <f>D145/C145</f>
+        <v>74.838346542965155</v>
       </c>
       <c r="G145">
         <v>2</v>
@@ -5424,11 +5802,12 @@
         <v>1</v>
       </c>
       <c r="I145">
+        <f>$N$3</f>
         <v>30</v>
       </c>
       <c r="J145">
         <f>I145*D144/C144</f>
-        <v>276.5167236328125</v>
+        <v>1286.7867480567656</v>
       </c>
     </row>
     <row r="146" spans="2:12">
@@ -5445,6 +5824,7 @@
         <v>4</v>
       </c>
       <c r="I146">
+        <f>$L$8</f>
         <v>1</v>
       </c>
       <c r="J146">
@@ -5457,11 +5837,17 @@
         <v>4</v>
       </c>
       <c r="C147">
+        <f>$D$8</f>
         <v>4</v>
       </c>
       <c r="D147">
+        <f>$E$8</f>
         <v>14</v>
       </c>
+      <c r="E147">
+        <f>D147/C147</f>
+        <v>3.5</v>
+      </c>
       <c r="G147">
         <v>2</v>
       </c>
@@ -5469,6 +5855,7 @@
         <v>5</v>
       </c>
       <c r="I147">
+        <f>$L$9</f>
         <v>1</v>
       </c>
       <c r="J147">
@@ -5481,10 +5868,16 @@
         <v>5</v>
       </c>
       <c r="C148">
+        <f>$D$9</f>
         <v>5</v>
       </c>
       <c r="D148">
-        <v>20</v>
+        <f>$E$9</f>
+        <v>20</v>
+      </c>
+      <c r="E148">
+        <f>D148/C148</f>
+        <v>4</v>
       </c>
       <c r="G148">
         <v>2</v>
@@ -5493,21 +5886,22 @@
         <v>2</v>
       </c>
       <c r="I148">
+        <f>$L$4</f>
         <v>30</v>
       </c>
       <c r="J148">
         <f>I148*D145/C145</f>
-        <v>277.22869873046875</v>
+        <v>2245.1503962889547</v>
       </c>
       <c r="L148">
         <f>D139-D149</f>
-        <v>-13.5760498046875</v>
+        <v>-983.35328780813143</v>
       </c>
     </row>
     <row r="149" spans="2:12">
       <c r="D149" s="1">
         <f>SUM(D144:D148)</f>
-        <v>1141.4908447265625</v>
+        <v>6458.9651898699813</v>
       </c>
     </row>
     <row r="152" spans="2:12">
@@ -5552,11 +5946,16 @@
         <v>1</v>
       </c>
       <c r="C154">
-        <v>60</v>
+        <f>$D$3+$G$3+$P$5</f>
+        <v>80</v>
       </c>
       <c r="D154">
-        <f>280+J144</f>
-        <v>557.22869873046875</v>
+        <f>$E$3+$H$3+J144</f>
+        <v>4021.9173271482578</v>
+      </c>
+      <c r="E154">
+        <f>D154/C154</f>
+        <v>50.273966589353222</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -5565,11 +5964,12 @@
         <v>2</v>
       </c>
       <c r="I154">
-        <v>30</v>
+        <f>$N$6</f>
+        <v>50</v>
       </c>
       <c r="J154">
         <f>I154*D155/C155</f>
-        <v>280.62271118164062</v>
+        <v>4424.2964304321504</v>
       </c>
     </row>
     <row r="155" spans="2:12">
@@ -5577,11 +5977,16 @@
         <v>2</v>
       </c>
       <c r="C155">
-        <v>60</v>
+        <f>$J$6+$P$4</f>
+        <v>40</v>
       </c>
       <c r="D155">
         <f>SUM(J145:J148)</f>
-        <v>561.24542236328125</v>
+        <v>3539.4371443457203</v>
+      </c>
+      <c r="E155">
+        <f>D155/C155</f>
+        <v>88.485928608643007</v>
       </c>
       <c r="G155">
         <v>2</v>
@@ -5590,11 +5995,12 @@
         <v>1</v>
       </c>
       <c r="I155">
+        <f>$N$3</f>
         <v>30</v>
       </c>
       <c r="J155">
         <f>I155*D154/C154</f>
-        <v>278.61434936523437</v>
+        <v>1508.2189976805967</v>
       </c>
     </row>
     <row r="156" spans="2:12">
@@ -5611,6 +6017,7 @@
         <v>4</v>
       </c>
       <c r="I156">
+        <f>$L$8</f>
         <v>1</v>
       </c>
       <c r="J156">
@@ -5623,11 +6030,17 @@
         <v>4</v>
       </c>
       <c r="C157">
+        <f>$D$8</f>
         <v>4</v>
       </c>
       <c r="D157">
+        <f>$E$8</f>
         <v>14</v>
       </c>
+      <c r="E157">
+        <f>D157/C157</f>
+        <v>3.5</v>
+      </c>
       <c r="G157">
         <v>2</v>
       </c>
@@ -5635,6 +6048,7 @@
         <v>5</v>
       </c>
       <c r="I157">
+        <f>$L$9</f>
         <v>1</v>
       </c>
       <c r="J157">
@@ -5647,10 +6061,16 @@
         <v>5</v>
       </c>
       <c r="C158">
+        <f>$D$9</f>
         <v>5</v>
       </c>
       <c r="D158">
-        <v>20</v>
+        <f>$E$9</f>
+        <v>20</v>
+      </c>
+      <c r="E158">
+        <f>D158/C158</f>
+        <v>4</v>
       </c>
       <c r="G158">
         <v>2</v>
@@ -5659,21 +6079,22 @@
         <v>2</v>
       </c>
       <c r="I158">
+        <f>$L$4</f>
         <v>30</v>
       </c>
       <c r="J158">
         <f>I158*D155/C155</f>
-        <v>280.62271118164062</v>
+        <v>2654.5778582592902</v>
       </c>
       <c r="L158">
         <f>D149-D159</f>
-        <v>-10.9832763671875</v>
+        <v>-1136.3892816239968</v>
       </c>
     </row>
     <row r="159" spans="2:12">
       <c r="D159" s="1">
         <f>SUM(D154:D158)</f>
-        <v>1152.47412109375</v>
+        <v>7595.3544714939781</v>
       </c>
     </row>
     <row r="162" spans="2:12">
@@ -5718,11 +6139,16 @@
         <v>1</v>
       </c>
       <c r="C164">
-        <v>60</v>
+        <f>$D$3+$G$3+$P$5</f>
+        <v>80</v>
       </c>
       <c r="D164">
-        <f>280+J154</f>
-        <v>560.62271118164062</v>
+        <f>$E$3+$H$3+J154</f>
+        <v>4704.2964304321504</v>
+      </c>
+      <c r="E164">
+        <f>D164/C164</f>
+        <v>58.80370538040188</v>
       </c>
       <c r="G164">
         <v>1</v>
@@ -5731,11 +6157,12 @@
         <v>2</v>
       </c>
       <c r="I164">
-        <v>30</v>
+        <f>$N$6</f>
+        <v>50</v>
       </c>
       <c r="J164">
         <f>I164*D165/C165</f>
-        <v>283.3685302734375</v>
+        <v>5212.8710699248586</v>
       </c>
     </row>
     <row r="165" spans="2:12">
@@ -5743,11 +6170,16 @@
         <v>2</v>
       </c>
       <c r="C165">
-        <v>60</v>
+        <f>$J$6+$P$4</f>
+        <v>40</v>
       </c>
       <c r="D165">
         <f>SUM(J155:J158)</f>
-        <v>566.737060546875</v>
+        <v>4170.2968559398869</v>
+      </c>
+      <c r="E165">
+        <f>D165/C165</f>
+        <v>104.25742139849717</v>
       </c>
       <c r="G165">
         <v>2</v>
@@ -5756,11 +6188,12 @@
         <v>1</v>
       </c>
       <c r="I165">
+        <f>$N$3</f>
         <v>30</v>
       </c>
       <c r="J165">
         <f>I165*D164/C164</f>
-        <v>280.31135559082031</v>
+        <v>1764.1111614120564</v>
       </c>
     </row>
     <row r="166" spans="2:12">
@@ -5777,6 +6210,7 @@
         <v>4</v>
       </c>
       <c r="I166">
+        <f>$L$8</f>
         <v>1</v>
       </c>
       <c r="J166">
@@ -5789,11 +6223,17 @@
         <v>4</v>
       </c>
       <c r="C167">
+        <f>$D$8</f>
         <v>4</v>
       </c>
       <c r="D167">
+        <f>$E$8</f>
         <v>14</v>
       </c>
+      <c r="E167">
+        <f>D167/C167</f>
+        <v>3.5</v>
+      </c>
       <c r="G167">
         <v>2</v>
       </c>
@@ -5801,6 +6241,7 @@
         <v>5</v>
       </c>
       <c r="I167">
+        <f>$L$9</f>
         <v>1</v>
       </c>
       <c r="J167">
@@ -5813,10 +6254,16 @@
         <v>5</v>
       </c>
       <c r="C168">
+        <f>$D$9</f>
         <v>5</v>
       </c>
       <c r="D168">
-        <v>20</v>
+        <f>$E$9</f>
+        <v>20</v>
+      </c>
+      <c r="E168">
+        <f>D168/C168</f>
+        <v>4</v>
       </c>
       <c r="G168">
         <v>2</v>
@@ -5825,21 +6272,22 @@
         <v>2</v>
       </c>
       <c r="I168">
+        <f>$L$4</f>
         <v>30</v>
       </c>
       <c r="J168">
         <f>I168*D165/C165</f>
-        <v>283.3685302734375</v>
+        <v>3127.7226419549152</v>
       </c>
       <c r="L168">
         <f>D159-D169</f>
-        <v>-8.885650634765625</v>
+        <v>-1313.2388148780592</v>
       </c>
     </row>
     <row r="169" spans="2:12">
       <c r="D169" s="1">
         <f>SUM(D164:D168)</f>
-        <v>1161.3597717285156</v>
+        <v>8908.5932863720373</v>
       </c>
     </row>
     <row r="172" spans="2:12">
@@ -5884,11 +6332,16 @@
         <v>1</v>
       </c>
       <c r="C174">
-        <v>60</v>
+        <f>$D$3+$G$3+$P$5</f>
+        <v>80</v>
       </c>
       <c r="D174">
-        <f>280+J164</f>
-        <v>563.3685302734375</v>
+        <f>$E$3+$H$3+J164</f>
+        <v>5492.8710699248586</v>
+      </c>
+      <c r="E174">
+        <f>D174/C174</f>
+        <v>68.660888374060733</v>
       </c>
       <c r="G174">
         <v>1</v>
@@ -5897,11 +6350,12 @@
         <v>2</v>
       </c>
       <c r="I174">
-        <v>30</v>
+        <f>$N$6</f>
+        <v>50</v>
       </c>
       <c r="J174">
         <f>I174*D175/C175</f>
-        <v>285.58994293212891</v>
+        <v>6124.1672542087144</v>
       </c>
     </row>
     <row r="175" spans="2:12">
@@ -5909,11 +6363,16 @@
         <v>2</v>
       </c>
       <c r="C175">
-        <v>60</v>
+        <f>$J$6+$P$4</f>
+        <v>40</v>
       </c>
       <c r="D175">
         <f>SUM(J165:J168)</f>
-        <v>571.17988586425781</v>
+        <v>4899.3338033669716</v>
+      </c>
+      <c r="E175">
+        <f>D175/C175</f>
+        <v>122.48334508417429</v>
       </c>
       <c r="G175">
         <v>2</v>
@@ -5922,11 +6381,12 @@
         <v>1</v>
       </c>
       <c r="I175">
+        <f>$N$3</f>
         <v>30</v>
       </c>
       <c r="J175">
         <f>I175*D174/C174</f>
-        <v>281.68426513671875</v>
+        <v>2059.826651221822</v>
       </c>
     </row>
     <row r="176" spans="2:12">
@@ -5943,6 +6403,7 @@
         <v>4</v>
       </c>
       <c r="I176">
+        <f>$L$8</f>
         <v>1</v>
       </c>
       <c r="J176">
@@ -5955,11 +6416,17 @@
         <v>4</v>
       </c>
       <c r="C177">
+        <f>$D$8</f>
         <v>4</v>
       </c>
       <c r="D177">
+        <f>$E$8</f>
         <v>14</v>
       </c>
+      <c r="E177">
+        <f>D177/C177</f>
+        <v>3.5</v>
+      </c>
       <c r="G177">
         <v>2</v>
       </c>
@@ -5967,6 +6434,7 @@
         <v>5</v>
       </c>
       <c r="I177">
+        <f>$L$9</f>
         <v>1</v>
       </c>
       <c r="J177">
@@ -5979,10 +6447,16 @@
         <v>5</v>
       </c>
       <c r="C178">
+        <f>$D$9</f>
         <v>5</v>
       </c>
       <c r="D178">
-        <v>20</v>
+        <f>$E$9</f>
+        <v>20</v>
+      </c>
+      <c r="E178">
+        <f>D178/C178</f>
+        <v>4</v>
       </c>
       <c r="G178">
         <v>2</v>
@@ -5991,21 +6465,22 @@
         <v>2</v>
       </c>
       <c r="I178">
+        <f>$L$4</f>
         <v>30</v>
       </c>
       <c r="J178">
         <f>I178*D175/C175</f>
-        <v>285.58994293212891</v>
+        <v>3674.5003525252287</v>
       </c>
       <c r="L178">
         <f>D169-D179</f>
-        <v>-7.1886444091796875</v>
+        <v>-1517.6115869197929</v>
       </c>
     </row>
     <row r="179" spans="2:12">
       <c r="D179" s="1">
         <f>SUM(D174:D178)</f>
-        <v>1168.5484161376953</v>
+        <v>10426.20487329183</v>
       </c>
     </row>
     <row r="182" spans="2:12">
@@ -6050,11 +6525,16 @@
         <v>1</v>
       </c>
       <c r="C184">
-        <v>60</v>
+        <f>$D$3+$G$3+$P$5</f>
+        <v>80</v>
       </c>
       <c r="D184">
-        <f>280+J174</f>
-        <v>565.58994293212891</v>
+        <f>$E$3+$H$3+J174</f>
+        <v>6404.1672542087144</v>
+      </c>
+      <c r="E184">
+        <f>D184/C184</f>
+        <v>80.05209067760893</v>
       </c>
       <c r="G184">
         <v>1</v>
@@ -6063,11 +6543,12 @@
         <v>2</v>
       </c>
       <c r="I184">
-        <v>30</v>
+        <f>$N$6</f>
+        <v>50</v>
       </c>
       <c r="J184">
         <f>I184*D185/C185</f>
-        <v>287.38710403442383</v>
+        <v>7177.2837546838127</v>
       </c>
     </row>
     <row r="185" spans="2:12">
@@ -6075,11 +6556,16 @@
         <v>2</v>
       </c>
       <c r="C185">
-        <v>60</v>
+        <f>$J$6+$P$4</f>
+        <v>40</v>
       </c>
       <c r="D185">
         <f>SUM(J175:J178)</f>
-        <v>574.77420806884766</v>
+        <v>5741.8270037470502</v>
+      </c>
+      <c r="E185">
+        <f>D185/C185</f>
+        <v>143.54567509367627</v>
       </c>
       <c r="G185">
         <v>2</v>
@@ -6088,11 +6574,12 @@
         <v>1</v>
       </c>
       <c r="I185">
+        <f>$N$3</f>
         <v>30</v>
       </c>
       <c r="J185">
         <f>I185*D184/C184</f>
-        <v>282.79497146606445</v>
+        <v>2401.5627203282679</v>
       </c>
     </row>
     <row r="186" spans="2:12">
@@ -6109,6 +6596,7 @@
         <v>4</v>
       </c>
       <c r="I186">
+        <f>$L$8</f>
         <v>1</v>
       </c>
       <c r="J186">
@@ -6121,11 +6609,17 @@
         <v>4</v>
       </c>
       <c r="C187">
+        <f>$D$8</f>
         <v>4</v>
       </c>
       <c r="D187">
+        <f>$E$8</f>
         <v>14</v>
       </c>
+      <c r="E187">
+        <f>D187/C187</f>
+        <v>3.5</v>
+      </c>
       <c r="G187">
         <v>2</v>
       </c>
@@ -6133,6 +6627,7 @@
         <v>5</v>
       </c>
       <c r="I187">
+        <f>$L$9</f>
         <v>1</v>
       </c>
       <c r="J187">
@@ -6145,10 +6640,16 @@
         <v>5</v>
       </c>
       <c r="C188">
+        <f>$D$9</f>
         <v>5</v>
       </c>
       <c r="D188">
-        <v>20</v>
+        <f>$E$9</f>
+        <v>20</v>
+      </c>
+      <c r="E188">
+        <f>D188/C188</f>
+        <v>4</v>
       </c>
       <c r="G188">
         <v>2</v>
@@ -6157,21 +6658,22 @@
         <v>2</v>
       </c>
       <c r="I188">
+        <f>$L$4</f>
         <v>30</v>
       </c>
       <c r="J188">
         <f>I188*D185/C185</f>
-        <v>287.38710403442383</v>
+        <v>4306.3702528102876</v>
       </c>
       <c r="L188">
         <f>D179-D189</f>
-        <v>-5.81573486328125</v>
+        <v>-1753.7893846639345</v>
       </c>
     </row>
     <row r="189" spans="2:12">
       <c r="D189" s="1">
         <f>SUM(D184:D188)</f>
-        <v>1174.3641510009766</v>
+        <v>12179.994257955765</v>
       </c>
     </row>
     <row r="192" spans="2:12">
@@ -6216,11 +6718,16 @@
         <v>1</v>
       </c>
       <c r="C194">
-        <v>60</v>
+        <f>$D$3+$G$3+$P$5</f>
+        <v>80</v>
       </c>
       <c r="D194">
-        <f>280+J184</f>
-        <v>567.38710403442383</v>
+        <f>$E$3+$H$3+J184</f>
+        <v>7457.2837546838127</v>
+      </c>
+      <c r="E194">
+        <f>D194/C194</f>
+        <v>93.216046933547659</v>
       </c>
       <c r="G194">
         <v>1</v>
@@ -6229,11 +6736,12 @@
         <v>2</v>
       </c>
       <c r="I194">
-        <v>30</v>
+        <f>$N$6</f>
+        <v>50</v>
       </c>
       <c r="J194">
         <f>I194*D195/C195</f>
-        <v>288.84103775024414</v>
+        <v>8394.291216423193</v>
       </c>
     </row>
     <row r="195" spans="2:12">
@@ -6241,11 +6749,16 @@
         <v>2</v>
       </c>
       <c r="C195">
-        <v>60</v>
+        <f>$J$6+$P$4</f>
+        <v>40</v>
       </c>
       <c r="D195">
         <f>SUM(J185:J188)</f>
-        <v>577.68207550048828</v>
+        <v>6715.4329731385551</v>
+      </c>
+      <c r="E195">
+        <f>D195/C195</f>
+        <v>167.88582432846388</v>
       </c>
       <c r="G195">
         <v>2</v>
@@ -6254,11 +6767,12 @@
         <v>1</v>
       </c>
       <c r="I195">
+        <f>$N$3</f>
         <v>30</v>
       </c>
       <c r="J195">
         <f>I195*D194/C194</f>
-        <v>283.69355201721191</v>
+        <v>2796.4814080064298</v>
       </c>
     </row>
     <row r="196" spans="2:12">
@@ -6275,6 +6789,7 @@
         <v>4</v>
       </c>
       <c r="I196">
+        <f>$L$8</f>
         <v>1</v>
       </c>
       <c r="J196">
@@ -6287,11 +6802,17 @@
         <v>4</v>
       </c>
       <c r="C197">
+        <f>$D$8</f>
         <v>4</v>
       </c>
       <c r="D197">
+        <f>$E$8</f>
         <v>14</v>
       </c>
+      <c r="E197">
+        <f>D197/C197</f>
+        <v>3.5</v>
+      </c>
       <c r="G197">
         <v>2</v>
       </c>
@@ -6299,6 +6820,7 @@
         <v>5</v>
       </c>
       <c r="I197">
+        <f>$L$9</f>
         <v>1</v>
       </c>
       <c r="J197">
@@ -6311,10 +6833,16 @@
         <v>5</v>
       </c>
       <c r="C198">
+        <f>$D$9</f>
         <v>5</v>
       </c>
       <c r="D198">
-        <v>20</v>
+        <f>$E$9</f>
+        <v>20</v>
+      </c>
+      <c r="E198">
+        <f>D198/C198</f>
+        <v>4</v>
       </c>
       <c r="G198">
         <v>2</v>
@@ -6323,21 +6851,22 @@
         <v>2</v>
       </c>
       <c r="I198">
+        <f>$L$4</f>
         <v>30</v>
       </c>
       <c r="J198">
         <f>I198*D195/C195</f>
-        <v>288.84103775024414</v>
+        <v>5036.5747298539163</v>
       </c>
       <c r="L198">
         <f>D189-D199</f>
-        <v>-4.7050285339355469</v>
+        <v>-2026.7224698666032</v>
       </c>
     </row>
     <row r="199" spans="2:12">
       <c r="D199" s="1">
         <f>SUM(D194:D198)</f>
-        <v>1179.0691795349121</v>
+        <v>14206.716727822368</v>
       </c>
     </row>
     <row r="202" spans="2:12">
@@ -6382,11 +6911,16 @@
         <v>1</v>
       </c>
       <c r="C204">
-        <v>60</v>
+        <f>$D$3+$G$3+$P$5</f>
+        <v>80</v>
       </c>
       <c r="D204">
-        <f>280+J194</f>
-        <v>568.84103775024414</v>
+        <f>$E$3+$H$3+J194</f>
+        <v>8674.291216423193</v>
+      </c>
+      <c r="E204">
+        <f>D204/C204</f>
+        <v>108.42864020528991</v>
       </c>
       <c r="G204">
         <v>1</v>
@@ -6395,11 +6929,12 @@
         <v>2</v>
       </c>
       <c r="I204">
-        <v>30</v>
+        <f>$N$6</f>
+        <v>50</v>
       </c>
       <c r="J204">
         <f>I204*D205/C205</f>
-        <v>290.01729488372803</v>
+        <v>9800.6951723254333</v>
       </c>
     </row>
     <row r="205" spans="2:12">
@@ -6407,11 +6942,16 @@
         <v>2</v>
       </c>
       <c r="C205">
-        <v>60</v>
+        <f>$J$6+$P$4</f>
+        <v>40</v>
       </c>
       <c r="D205">
         <f>SUM(J195:J198)</f>
-        <v>580.03458976745605</v>
+        <v>7840.5561378603461</v>
+      </c>
+      <c r="E205">
+        <f>D205/C205</f>
+        <v>196.01390344650866</v>
       </c>
       <c r="G205">
         <v>2</v>
@@ -6420,11 +6960,12 @@
         <v>1</v>
       </c>
       <c r="I205">
+        <f>$N$3</f>
         <v>30</v>
       </c>
       <c r="J205">
         <f>I205*D204/C204</f>
-        <v>284.42051887512207</v>
+        <v>3252.8592061586974</v>
       </c>
     </row>
     <row r="206" spans="2:12">
@@ -6441,6 +6982,7 @@
         <v>4</v>
       </c>
       <c r="I206">
+        <f>$L$8</f>
         <v>1</v>
       </c>
       <c r="J206">
@@ -6453,11 +6995,17 @@
         <v>4</v>
       </c>
       <c r="C207">
+        <f>$D$8</f>
         <v>4</v>
       </c>
       <c r="D207">
+        <f>$E$8</f>
         <v>14</v>
       </c>
+      <c r="E207">
+        <f>D207/C207</f>
+        <v>3.5</v>
+      </c>
       <c r="G207">
         <v>2</v>
       </c>
@@ -6465,6 +7013,7 @@
         <v>5</v>
       </c>
       <c r="I207">
+        <f>$L$9</f>
         <v>1</v>
       </c>
       <c r="J207">
@@ -6477,10 +7026,16 @@
         <v>5</v>
       </c>
       <c r="C208">
+        <f>$D$9</f>
         <v>5</v>
       </c>
       <c r="D208">
-        <v>20</v>
+        <f>$E$9</f>
+        <v>20</v>
+      </c>
+      <c r="E208">
+        <f>D208/C208</f>
+        <v>4</v>
       </c>
       <c r="G208">
         <v>2</v>
@@ -6489,21 +7044,22 @@
         <v>2</v>
       </c>
       <c r="I208">
+        <f>$L$4</f>
         <v>30</v>
       </c>
       <c r="J208">
         <f>I208*D205/C205</f>
-        <v>290.01729488372803</v>
+        <v>5880.4171033952598</v>
       </c>
       <c r="L208">
         <f>D199-D209</f>
-        <v>-3.8064479827880859</v>
+        <v>-2342.1306264611703</v>
       </c>
     </row>
     <row r="209" spans="2:12">
       <c r="D209" s="1">
         <f>SUM(D204:D208)</f>
-        <v>1182.8756275177002</v>
+        <v>16548.847354283538</v>
       </c>
     </row>
     <row r="212" spans="2:12">
@@ -6548,11 +7104,16 @@
         <v>1</v>
       </c>
       <c r="C214">
-        <v>60</v>
+        <f>$D$3+$G$3+$P$5</f>
+        <v>80</v>
       </c>
       <c r="D214">
-        <f>280+J204</f>
-        <v>570.01729488372803</v>
+        <f>$E$3+$H$3+J204</f>
+        <v>10080.695172325433</v>
+      </c>
+      <c r="E214">
+        <f>D214/C214</f>
+        <v>126.00868965406792</v>
       </c>
       <c r="G214">
         <v>1</v>
@@ -6561,11 +7122,12 @@
         <v>2</v>
       </c>
       <c r="I214">
-        <v>30</v>
+        <f>$N$6</f>
+        <v>50</v>
       </c>
       <c r="J214">
         <f>I214*D215/C215</f>
-        <v>290.96890687942505</v>
+        <v>11425.970386942447</v>
       </c>
     </row>
     <row r="215" spans="2:12">
@@ -6573,11 +7135,16 @@
         <v>2</v>
       </c>
       <c r="C215">
-        <v>60</v>
+        <f>$J$6+$P$4</f>
+        <v>40</v>
       </c>
       <c r="D215">
         <f>SUM(J205:J208)</f>
-        <v>581.9378137588501</v>
+        <v>9140.7763095539576</v>
+      </c>
+      <c r="E215">
+        <f>D215/C215</f>
+        <v>228.51940773884894</v>
       </c>
       <c r="G215">
         <v>2</v>
@@ -6586,11 +7153,12 @@
         <v>1</v>
       </c>
       <c r="I215">
+        <f>$N$3</f>
         <v>30</v>
       </c>
       <c r="J215">
         <f>I215*D214/C214</f>
-        <v>285.00864744186401</v>
+        <v>3780.2606896220373</v>
       </c>
     </row>
     <row r="216" spans="2:12">
@@ -6607,6 +7175,7 @@
         <v>4</v>
       </c>
       <c r="I216">
+        <f>$L$8</f>
         <v>1</v>
       </c>
       <c r="J216">
@@ -6619,11 +7188,17 @@
         <v>4</v>
       </c>
       <c r="C217">
+        <f>$D$8</f>
         <v>4</v>
       </c>
       <c r="D217">
+        <f>$E$8</f>
         <v>14</v>
       </c>
+      <c r="E217">
+        <f>D217/C217</f>
+        <v>3.5</v>
+      </c>
       <c r="G217">
         <v>2</v>
       </c>
@@ -6631,6 +7206,7 @@
         <v>5</v>
       </c>
       <c r="I217">
+        <f>$L$9</f>
         <v>1</v>
       </c>
       <c r="J217">
@@ -6643,10 +7219,16 @@
         <v>5</v>
       </c>
       <c r="C218">
+        <f>$D$9</f>
         <v>5</v>
       </c>
       <c r="D218">
-        <v>20</v>
+        <f>$E$9</f>
+        <v>20</v>
+      </c>
+      <c r="E218">
+        <f>D218/C218</f>
+        <v>4</v>
       </c>
       <c r="G218">
         <v>2</v>
@@ -6655,27 +7237,28 @@
         <v>2</v>
       </c>
       <c r="I218">
+        <f>$L$4</f>
         <v>30</v>
       </c>
       <c r="J218">
         <f>I218*D215/C215</f>
-        <v>290.96890687942505</v>
+        <v>6855.5822321654678</v>
       </c>
       <c r="L218">
         <f>D209-D219</f>
-        <v>-3.0794811248779297</v>
+        <v>-2706.6241275958528</v>
       </c>
     </row>
     <row r="219" spans="2:12">
       <c r="D219" s="1">
         <f>SUM(D214:D218)</f>
-        <v>1185.9551086425781</v>
+        <v>19255.471481879391</v>
       </c>
     </row>
     <row r="221" spans="2:12">
       <c r="D221">
         <f>D224/C224</f>
-        <v>9.5161484479904175</v>
+        <v>146.32462983678059</v>
       </c>
     </row>
     <row r="222" spans="2:12">
@@ -6720,11 +7303,16 @@
         <v>1</v>
       </c>
       <c r="C224">
-        <v>60</v>
+        <f>$D$3+$G$3+$P$5</f>
+        <v>80</v>
       </c>
       <c r="D224">
-        <f>280+J214</f>
-        <v>570.96890687942505</v>
+        <f>$E$3+$H$3+J214</f>
+        <v>11705.970386942447</v>
+      </c>
+      <c r="E224">
+        <f>D224/C224</f>
+        <v>146.32462983678059</v>
       </c>
       <c r="G224">
         <v>1</v>
@@ -6733,11 +7321,12 @@
         <v>2</v>
       </c>
       <c r="I224">
-        <v>30</v>
+        <f>$N$6</f>
+        <v>50</v>
       </c>
       <c r="J224">
         <f>I224*D225/C225</f>
-        <v>291.73877716064453</v>
+        <v>13304.178652234381</v>
       </c>
     </row>
     <row r="225" spans="2:12">
@@ -6745,11 +7334,16 @@
         <v>2</v>
       </c>
       <c r="C225">
-        <v>60</v>
+        <f>$J$6+$P$4</f>
+        <v>40</v>
       </c>
       <c r="D225">
         <f>SUM(J215:J218)</f>
-        <v>583.47755432128906</v>
+        <v>10643.342921787505</v>
+      </c>
+      <c r="E225">
+        <f>D225/C225</f>
+        <v>266.08357304468763</v>
       </c>
       <c r="G225">
         <v>2</v>
@@ -6758,11 +7352,12 @@
         <v>1</v>
       </c>
       <c r="I225">
+        <f>$N$3</f>
         <v>30</v>
       </c>
       <c r="J225">
         <f>I225*D224/C224</f>
-        <v>285.48445343971252</v>
+        <v>4389.7388951034172</v>
       </c>
     </row>
     <row r="226" spans="2:12">
@@ -6779,6 +7374,7 @@
         <v>4</v>
       </c>
       <c r="I226">
+        <f>$L$8</f>
         <v>1</v>
       </c>
       <c r="J226">
@@ -6791,11 +7387,17 @@
         <v>4</v>
       </c>
       <c r="C227">
+        <f>$D$8</f>
         <v>4</v>
       </c>
       <c r="D227">
+        <f>$E$8</f>
         <v>14</v>
       </c>
+      <c r="E227">
+        <f>D227/C227</f>
+        <v>3.5</v>
+      </c>
       <c r="G227">
         <v>2</v>
       </c>
@@ -6803,6 +7405,7 @@
         <v>5</v>
       </c>
       <c r="I227">
+        <f>$L$9</f>
         <v>1</v>
       </c>
       <c r="J227">
@@ -6815,10 +7418,16 @@
         <v>5</v>
       </c>
       <c r="C228">
+        <f>$D$9</f>
         <v>5</v>
       </c>
       <c r="D228">
-        <v>20</v>
+        <f>$E$9</f>
+        <v>20</v>
+      </c>
+      <c r="E228">
+        <f>D228/C228</f>
+        <v>4</v>
       </c>
       <c r="G228">
         <v>2</v>
@@ -6827,21 +7436,22 @@
         <v>2</v>
       </c>
       <c r="I228">
+        <f>$L$4</f>
         <v>30</v>
       </c>
       <c r="J228">
         <f>I228*D225/C225</f>
-        <v>291.73877716064453</v>
+        <v>7982.50719134063</v>
       </c>
       <c r="L228">
         <f>D219-D229</f>
-        <v>-2.4913525581359863</v>
+        <v>-3127.8418268505593</v>
       </c>
     </row>
     <row r="229" spans="2:12">
       <c r="D229" s="1">
         <f>SUM(D224:D228)</f>
-        <v>1188.4464612007141</v>
+        <v>22383.31330872995</v>
       </c>
     </row>
     <row r="232" spans="2:12">
@@ -6886,11 +7496,16 @@
         <v>1</v>
       </c>
       <c r="C234">
-        <v>60</v>
+        <f>$D$3+$G$3+$P$5</f>
+        <v>80</v>
       </c>
       <c r="D234">
-        <f>280+J224</f>
-        <v>571.73877716064453</v>
+        <f>$E$3+$H$3+J224</f>
+        <v>13584.178652234381</v>
+      </c>
+      <c r="E234">
+        <f>D234/C234</f>
+        <v>169.80223315292977</v>
       </c>
       <c r="G234">
         <v>1</v>
@@ -6899,11 +7514,12 @@
         <v>2</v>
       </c>
       <c r="I234">
-        <v>30</v>
+        <f>$N$6</f>
+        <v>50</v>
       </c>
       <c r="J234">
         <f>I234*D235/C235</f>
-        <v>292.36161530017853</v>
+        <v>15474.682608055058</v>
       </c>
     </row>
     <row r="235" spans="2:12">
@@ -6911,11 +7527,16 @@
         <v>2</v>
       </c>
       <c r="C235">
-        <v>60</v>
+        <f>$J$6+$P$4</f>
+        <v>40</v>
       </c>
       <c r="D235">
         <f>SUM(J225:J228)</f>
-        <v>584.72323060035706</v>
+        <v>12379.746086444047</v>
+      </c>
+      <c r="E235">
+        <f>D235/C235</f>
+        <v>309.49365216110118</v>
       </c>
       <c r="G235">
         <v>2</v>
@@ -6924,11 +7545,12 @@
         <v>1</v>
       </c>
       <c r="I235">
+        <f>$N$3</f>
         <v>30</v>
       </c>
       <c r="J235">
         <f>I235*D234/C234</f>
-        <v>285.86938858032227</v>
+        <v>5094.0669945878926</v>
       </c>
     </row>
     <row r="236" spans="2:12">
@@ -6945,6 +7567,7 @@
         <v>4</v>
       </c>
       <c r="I236">
+        <f>$L$8</f>
         <v>1</v>
       </c>
       <c r="J236">
@@ -6957,11 +7580,17 @@
         <v>4</v>
       </c>
       <c r="C237">
+        <f>$D$8</f>
         <v>4</v>
       </c>
       <c r="D237">
+        <f>$E$8</f>
         <v>14</v>
       </c>
+      <c r="E237">
+        <f>D237/C237</f>
+        <v>3.5</v>
+      </c>
       <c r="G237">
         <v>2</v>
       </c>
@@ -6969,6 +7598,7 @@
         <v>5</v>
       </c>
       <c r="I237">
+        <f>$L$9</f>
         <v>1</v>
       </c>
       <c r="J237">
@@ -6981,10 +7611,16 @@
         <v>5</v>
       </c>
       <c r="C238">
+        <f>$D$9</f>
         <v>5</v>
       </c>
       <c r="D238">
-        <v>20</v>
+        <f>$E$9</f>
+        <v>20</v>
+      </c>
+      <c r="E238">
+        <f>D238/C238</f>
+        <v>4</v>
       </c>
       <c r="G238">
         <v>2</v>
@@ -6993,21 +7629,22 @@
         <v>2</v>
       </c>
       <c r="I238">
+        <f>$L$4</f>
         <v>30</v>
       </c>
       <c r="J238">
         <f>I238*D235/C235</f>
-        <v>292.36161530017853</v>
+        <v>9284.8095648330363</v>
       </c>
       <c r="L238">
         <f>D229-D239</f>
-        <v>-2.0155465602874756</v>
+        <v>-3614.6114299484761</v>
       </c>
     </row>
     <row r="239" spans="2:12">
       <c r="D239" s="1">
         <f>SUM(D234:D238)</f>
-        <v>1190.4620077610016</v>
+        <v>25997.924738678426</v>
       </c>
     </row>
     <row r="242" spans="2:12">
@@ -7052,11 +7689,16 @@
         <v>1</v>
       </c>
       <c r="C244">
-        <v>60</v>
+        <f>$D$3+$G$3+$P$5</f>
+        <v>80</v>
       </c>
       <c r="D244">
-        <f>280+J234</f>
-        <v>572.36161530017853</v>
+        <f>$E$3+$H$3+J234</f>
+        <v>15754.682608055058</v>
+      </c>
+      <c r="E244">
+        <f>D244/C244</f>
+        <v>196.93353260068824</v>
       </c>
       <c r="G244">
         <v>1</v>
@@ -7065,11 +7707,12 @@
         <v>2</v>
       </c>
       <c r="I244">
-        <v>30</v>
+        <f>$N$6</f>
+        <v>50</v>
       </c>
       <c r="J244">
         <f>I244*D245/C245</f>
-        <v>292.8655019402504</v>
+        <v>17982.97069927616</v>
       </c>
     </row>
     <row r="245" spans="2:12">
@@ -7077,11 +7720,16 @@
         <v>2</v>
       </c>
       <c r="C245">
-        <v>60</v>
+        <f>$J$6+$P$4</f>
+        <v>40</v>
       </c>
       <c r="D245">
         <f>SUM(J235:J238)</f>
-        <v>585.73100388050079</v>
+        <v>14386.376559420929</v>
+      </c>
+      <c r="E245">
+        <f>D245/C245</f>
+        <v>359.6594139855232</v>
       </c>
       <c r="G245">
         <v>2</v>
@@ -7090,11 +7738,12 @@
         <v>1</v>
       </c>
       <c r="I245">
+        <f>$N$3</f>
         <v>30</v>
       </c>
       <c r="J245">
         <f>I245*D244/C244</f>
-        <v>286.18080765008926</v>
+        <v>5908.0059780206466</v>
       </c>
     </row>
     <row r="246" spans="2:12">
@@ -7111,6 +7760,7 @@
         <v>4</v>
       </c>
       <c r="I246">
+        <f>$L$8</f>
         <v>1</v>
       </c>
       <c r="J246">
@@ -7123,11 +7773,17 @@
         <v>4</v>
       </c>
       <c r="C247">
+        <f>$D$8</f>
         <v>4</v>
       </c>
       <c r="D247">
+        <f>$E$8</f>
         <v>14</v>
       </c>
+      <c r="E247">
+        <f>D247/C247</f>
+        <v>3.5</v>
+      </c>
       <c r="G247">
         <v>2</v>
       </c>
@@ -7135,6 +7791,7 @@
         <v>5</v>
       </c>
       <c r="I247">
+        <f>$L$9</f>
         <v>1</v>
       </c>
       <c r="J247">
@@ -7147,10 +7804,16 @@
         <v>5</v>
       </c>
       <c r="C248">
+        <f>$D$9</f>
         <v>5</v>
       </c>
       <c r="D248">
-        <v>20</v>
+        <f>$E$9</f>
+        <v>20</v>
+      </c>
+      <c r="E248">
+        <f>D248/C248</f>
+        <v>4</v>
       </c>
       <c r="G248">
         <v>2</v>
@@ -7159,21 +7822,22 @@
         <v>2</v>
       </c>
       <c r="I248">
+        <f>$L$4</f>
         <v>30</v>
       </c>
       <c r="J248">
         <f>I248*D245/C245</f>
-        <v>292.8655019402504</v>
+        <v>10789.782419565698</v>
       </c>
       <c r="L248">
         <f>D239-D249</f>
-        <v>-1.6306114196777344</v>
+        <v>-4177.1344287975589</v>
       </c>
     </row>
     <row r="249" spans="2:12">
       <c r="D249" s="1">
         <f>SUM(D244:D248)</f>
-        <v>1192.0926191806793</v>
+        <v>30175.059167475985</v>
       </c>
     </row>
     <row r="252" spans="2:12">
@@ -7218,11 +7882,16 @@
         <v>1</v>
       </c>
       <c r="C254">
-        <v>60</v>
+        <f>$D$3+$G$3+$P$5</f>
+        <v>80</v>
       </c>
       <c r="D254">
-        <f>280+J244</f>
-        <v>572.8655019402504</v>
+        <f>$E$3+$H$3+J244</f>
+        <v>18262.97069927616</v>
+      </c>
+      <c r="E254">
+        <f>D254/C254</f>
+        <v>228.28713374095202</v>
       </c>
       <c r="G254">
         <v>1</v>
@@ -7231,11 +7900,12 @@
         <v>2</v>
       </c>
       <c r="I254">
-        <v>30</v>
+        <f>$N$6</f>
+        <v>50</v>
       </c>
       <c r="J254">
         <f>I254*D255/C255</f>
-        <v>293.27315479516983</v>
+        <v>20881.610496982928</v>
       </c>
     </row>
     <row r="255" spans="2:12">
@@ -7243,11 +7913,16 @@
         <v>2</v>
       </c>
       <c r="C255">
-        <v>60</v>
+        <f>$J$6+$P$4</f>
+        <v>40</v>
       </c>
       <c r="D255">
         <f>SUM(J245:J248)</f>
-        <v>586.54630959033966</v>
+        <v>16705.288397586344</v>
+      </c>
+      <c r="E255">
+        <f>D255/C255</f>
+        <v>417.63220993965859</v>
       </c>
       <c r="G255">
         <v>2</v>
@@ -7256,11 +7931,12 @@
         <v>1</v>
       </c>
       <c r="I255">
+        <f>$N$3</f>
         <v>30</v>
       </c>
       <c r="J255">
         <f>I255*D254/C254</f>
-        <v>286.4327509701252</v>
+        <v>6848.6140122285606</v>
       </c>
     </row>
     <row r="256" spans="2:12">
@@ -7277,6 +7953,7 @@
         <v>4</v>
       </c>
       <c r="I256">
+        <f>$L$8</f>
         <v>1</v>
       </c>
       <c r="J256">
@@ -7289,11 +7966,17 @@
         <v>4</v>
       </c>
       <c r="C257">
+        <f>$D$8</f>
         <v>4</v>
       </c>
       <c r="D257">
+        <f>$E$8</f>
         <v>14</v>
       </c>
+      <c r="E257">
+        <f>D257/C257</f>
+        <v>3.5</v>
+      </c>
       <c r="G257">
         <v>2</v>
       </c>
@@ -7301,6 +7984,7 @@
         <v>5</v>
       </c>
       <c r="I257">
+        <f>$L$9</f>
         <v>1</v>
       </c>
       <c r="J257">
@@ -7313,10 +7997,16 @@
         <v>5</v>
       </c>
       <c r="C258">
+        <f>$D$9</f>
         <v>5</v>
       </c>
       <c r="D258">
-        <v>20</v>
+        <f>$E$9</f>
+        <v>20</v>
+      </c>
+      <c r="E258">
+        <f>D258/C258</f>
+        <v>4</v>
       </c>
       <c r="G258">
         <v>2</v>
@@ -7325,21 +8015,22 @@
         <v>2</v>
       </c>
       <c r="I258">
+        <f>$L$4</f>
         <v>30</v>
       </c>
       <c r="J258">
         <f>I258*D255/C255</f>
-        <v>293.27315479516983</v>
+        <v>12528.966298189758</v>
       </c>
       <c r="L258">
         <f>D249-D259</f>
-        <v>-1.3191923499107361</v>
+        <v>-4827.1999293865156</v>
       </c>
     </row>
     <row r="259" spans="2:12">
       <c r="D259" s="1">
         <f>SUM(D254:D258)</f>
-        <v>1193.4118115305901</v>
+        <v>35002.259096862501</v>
       </c>
     </row>
     <row r="262" spans="2:12">
@@ -7384,11 +8075,16 @@
         <v>1</v>
       </c>
       <c r="C264">
-        <v>60</v>
+        <f>$D$3+$G$3+$P$5</f>
+        <v>80</v>
       </c>
       <c r="D264">
-        <f>280+J254</f>
-        <v>573.27315479516983</v>
+        <f>$E$3+$H$3+J254</f>
+        <v>21161.610496982928</v>
+      </c>
+      <c r="E264">
+        <f>D264/C264</f>
+        <v>264.52013121228663</v>
       </c>
       <c r="G264">
         <v>1</v>
@@ -7397,11 +8093,12 @@
         <v>2</v>
       </c>
       <c r="I264">
-        <v>30</v>
+        <f>$N$6</f>
+        <v>50</v>
       </c>
       <c r="J264">
         <f>I264*D265/C265</f>
-        <v>293.60295288264751</v>
+        <v>24231.350388022896</v>
       </c>
     </row>
     <row r="265" spans="2:12">
@@ -7409,11 +8106,16 @@
         <v>2</v>
       </c>
       <c r="C265">
-        <v>60</v>
+        <f>$J$6+$P$4</f>
+        <v>40</v>
       </c>
       <c r="D265">
         <f>SUM(J255:J258)</f>
-        <v>587.20590576529503</v>
+        <v>19385.080310418318</v>
+      </c>
+      <c r="E265">
+        <f>D265/C265</f>
+        <v>484.62700776045796</v>
       </c>
       <c r="G265">
         <v>2</v>
@@ -7422,11 +8124,12 @@
         <v>1</v>
       </c>
       <c r="I265">
+        <f>$N$3</f>
         <v>30</v>
       </c>
       <c r="J265">
         <f>I265*D264/C264</f>
-        <v>286.63657739758492</v>
+        <v>7935.6039363685977</v>
       </c>
     </row>
     <row r="266" spans="2:12">
@@ -7443,6 +8146,7 @@
         <v>4</v>
       </c>
       <c r="I266">
+        <f>$L$8</f>
         <v>1</v>
       </c>
       <c r="J266">
@@ -7455,11 +8159,17 @@
         <v>4</v>
       </c>
       <c r="C267">
+        <f>$D$8</f>
         <v>4</v>
       </c>
       <c r="D267">
+        <f>$E$8</f>
         <v>14</v>
       </c>
+      <c r="E267">
+        <f>D267/C267</f>
+        <v>3.5</v>
+      </c>
       <c r="G267">
         <v>2</v>
       </c>
@@ -7467,6 +8177,7 @@
         <v>5</v>
       </c>
       <c r="I267">
+        <f>$L$9</f>
         <v>1</v>
       </c>
       <c r="J267">
@@ -7479,10 +8190,16 @@
         <v>5</v>
       </c>
       <c r="C268">
+        <f>$D$9</f>
         <v>5</v>
       </c>
       <c r="D268">
-        <v>20</v>
+        <f>$E$9</f>
+        <v>20</v>
+      </c>
+      <c r="E268">
+        <f>D268/C268</f>
+        <v>4</v>
       </c>
       <c r="G268">
         <v>2</v>
@@ -7491,21 +8208,22 @@
         <v>2</v>
       </c>
       <c r="I268">
+        <f>$L$4</f>
         <v>30</v>
       </c>
       <c r="J268">
         <f>I268*D265/C265</f>
-        <v>293.60295288264751</v>
+        <v>14538.810232813737</v>
       </c>
       <c r="L268">
         <f>D259-D269</f>
-        <v>-1.0672490298748016</v>
+        <v>-5578.4317105387454</v>
       </c>
     </row>
     <row r="269" spans="2:12">
       <c r="D269" s="1">
         <f>SUM(D264:D268)</f>
-        <v>1194.4790605604649</v>
+        <v>40580.690807401246</v>
       </c>
     </row>
     <row r="272" spans="2:12">
@@ -7550,11 +8268,16 @@
         <v>1</v>
       </c>
       <c r="C274">
-        <v>60</v>
+        <f>$D$3+$G$3+$P$5</f>
+        <v>80</v>
       </c>
       <c r="D274">
-        <f>280+J264</f>
-        <v>573.60295288264751</v>
+        <f>$E$3+$H$3+J264</f>
+        <v>24511.350388022896</v>
+      </c>
+      <c r="E274">
+        <f>D274/C274</f>
+        <v>306.39187985028622</v>
       </c>
       <c r="G274">
         <v>1</v>
@@ -7563,11 +8286,12 @@
         <v>2</v>
       </c>
       <c r="I274">
-        <v>30</v>
+        <f>$N$6</f>
+        <v>50</v>
       </c>
       <c r="J274">
         <f>I274*D275/C275</f>
-        <v>293.86976514011621</v>
+        <v>28102.392711477918</v>
       </c>
     </row>
     <row r="275" spans="2:12">
@@ -7575,11 +8299,16 @@
         <v>2</v>
       </c>
       <c r="C275">
-        <v>60</v>
+        <f>$J$6+$P$4</f>
+        <v>40</v>
       </c>
       <c r="D275">
         <f>SUM(J265:J268)</f>
-        <v>587.73953028023243</v>
+        <v>22481.914169182335</v>
+      </c>
+      <c r="E275">
+        <f>D275/C275</f>
+        <v>562.04785422955842</v>
       </c>
       <c r="G275">
         <v>2</v>
@@ -7588,11 +8317,12 @@
         <v>1</v>
       </c>
       <c r="I275">
+        <f>$N$3</f>
         <v>30</v>
       </c>
       <c r="J275">
         <f>I275*D274/C274</f>
-        <v>286.80147644132376</v>
+        <v>9191.7563955085861</v>
       </c>
     </row>
     <row r="276" spans="2:12">
@@ -7609,6 +8339,7 @@
         <v>4</v>
       </c>
       <c r="I276">
+        <f>$L$8</f>
         <v>1</v>
       </c>
       <c r="J276">
@@ -7621,11 +8352,17 @@
         <v>4</v>
       </c>
       <c r="C277">
+        <f>$D$8</f>
         <v>4</v>
       </c>
       <c r="D277">
+        <f>$E$8</f>
         <v>14</v>
       </c>
+      <c r="E277">
+        <f>D277/C277</f>
+        <v>3.5</v>
+      </c>
       <c r="G277">
         <v>2</v>
       </c>
@@ -7633,6 +8370,7 @@
         <v>5</v>
       </c>
       <c r="I277">
+        <f>$L$9</f>
         <v>1</v>
       </c>
       <c r="J277">
@@ -7645,10 +8383,16 @@
         <v>5</v>
       </c>
       <c r="C278">
+        <f>$D$9</f>
         <v>5</v>
       </c>
       <c r="D278">
-        <v>20</v>
+        <f>$E$9</f>
+        <v>20</v>
+      </c>
+      <c r="E278">
+        <f>D278/C278</f>
+        <v>4</v>
       </c>
       <c r="G278">
         <v>2</v>
@@ -7657,21 +8401,22 @@
         <v>2</v>
       </c>
       <c r="I278">
+        <f>$L$4</f>
         <v>30</v>
       </c>
       <c r="J278">
         <f>I278*D275/C275</f>
-        <v>293.86976514011621</v>
+        <v>16861.435626886749</v>
       </c>
       <c r="L278">
         <f>D269-D279</f>
-        <v>-0.86342260241508484</v>
+        <v>-6446.5737498039816</v>
       </c>
     </row>
     <row r="279" spans="2:12">
       <c r="D279" s="1">
         <f>SUM(D274:D278)</f>
-        <v>1195.3424831628799</v>
+        <v>47027.264557205228</v>
       </c>
     </row>
     <row r="282" spans="2:12">
@@ -7716,11 +8461,16 @@
         <v>1</v>
       </c>
       <c r="C284">
-        <v>60</v>
+        <f>$D$3+$G$3+$P$5</f>
+        <v>80</v>
       </c>
       <c r="D284">
-        <f>280+J274</f>
-        <v>573.86976514011621</v>
+        <f>$E$3+$H$3+J274</f>
+        <v>28382.392711477918</v>
+      </c>
+      <c r="E284">
+        <f>D284/C284</f>
+        <v>354.77990889347399</v>
       </c>
       <c r="G284">
         <v>1</v>
@@ -7729,11 +8479,12 @@
         <v>2</v>
       </c>
       <c r="I284">
-        <v>30</v>
+        <f>$N$6</f>
+        <v>50</v>
       </c>
       <c r="J284">
         <f>I284*D285/C285</f>
-        <v>294.08562079071999</v>
+        <v>32575.865027994168</v>
       </c>
     </row>
     <row r="285" spans="2:12">
@@ -7741,11 +8492,16 @@
         <v>2</v>
       </c>
       <c r="C285">
-        <v>60</v>
+        <f>$J$6+$P$4</f>
+        <v>40</v>
       </c>
       <c r="D285">
         <f>SUM(J275:J278)</f>
-        <v>588.17124158143997</v>
+        <v>26060.692022395335</v>
+      </c>
+      <c r="E285">
+        <f>D285/C285</f>
+        <v>651.51730055988332</v>
       </c>
       <c r="G285">
         <v>2</v>
@@ -7754,11 +8510,12 @@
         <v>1</v>
       </c>
       <c r="I285">
+        <f>$N$3</f>
         <v>30</v>
       </c>
       <c r="J285">
         <f>I285*D284/C284</f>
-        <v>286.93488257005811</v>
+        <v>10643.397266804219</v>
       </c>
     </row>
     <row r="286" spans="2:12">
@@ -7775,6 +8532,7 @@
         <v>4</v>
       </c>
       <c r="I286">
+        <f>$L$8</f>
         <v>1</v>
       </c>
       <c r="J286">
@@ -7787,11 +8545,17 @@
         <v>4</v>
       </c>
       <c r="C287">
+        <f>$D$8</f>
         <v>4</v>
       </c>
       <c r="D287">
+        <f>$E$8</f>
         <v>14</v>
       </c>
+      <c r="E287">
+        <f>D287/C287</f>
+        <v>3.5</v>
+      </c>
       <c r="G287">
         <v>2</v>
       </c>
@@ -7799,6 +8563,7 @@
         <v>5</v>
       </c>
       <c r="I287">
+        <f>$L$9</f>
         <v>1</v>
       </c>
       <c r="J287">
@@ -7811,10 +8576,16 @@
         <v>5</v>
       </c>
       <c r="C288">
+        <f>$D$9</f>
         <v>5</v>
       </c>
       <c r="D288">
-        <v>20</v>
+        <f>$E$9</f>
+        <v>20</v>
+      </c>
+      <c r="E288">
+        <f>D288/C288</f>
+        <v>4</v>
       </c>
       <c r="G288">
         <v>2</v>
@@ -7823,21 +8594,22 @@
         <v>2</v>
       </c>
       <c r="I288">
+        <f>$L$4</f>
         <v>30</v>
       </c>
       <c r="J288">
         <f>I288*D285/C285</f>
-        <v>294.08562079071999</v>
+        <v>19545.519016796501</v>
       </c>
       <c r="L288">
         <f>D279-D289</f>
-        <v>-0.69852355867624283</v>
+        <v>-7449.8201766680286</v>
       </c>
     </row>
     <row r="289" spans="2:12">
       <c r="D289" s="1">
         <f>SUM(D284:D288)</f>
-        <v>1196.0410067215562</v>
+        <v>54477.084733873256</v>
       </c>
     </row>
     <row r="292" spans="2:12">
@@ -7882,11 +8654,16 @@
         <v>1</v>
       </c>
       <c r="C294">
-        <v>60</v>
+        <f>$D$3+$G$3+$P$5</f>
+        <v>80</v>
       </c>
       <c r="D294">
-        <f>280+J284</f>
-        <v>574.08562079071999</v>
+        <f>$E$3+$H$3+J284</f>
+        <v>32855.865027994165</v>
+      </c>
+      <c r="E294">
+        <f>D294/C294</f>
+        <v>410.69831284992705</v>
       </c>
       <c r="G294">
         <v>1</v>
@@ -7895,11 +8672,12 @@
         <v>2</v>
       </c>
       <c r="I294">
-        <v>30</v>
+        <f>$N$6</f>
+        <v>50</v>
       </c>
       <c r="J294">
         <f>I294*D295/C295</f>
-        <v>294.26025168038905</v>
+        <v>37745.520354500899</v>
       </c>
     </row>
     <row r="295" spans="2:12">
@@ -7907,11 +8685,16 @@
         <v>2</v>
       </c>
       <c r="C295">
-        <v>60</v>
+        <f>$J$6+$P$4</f>
+        <v>40</v>
       </c>
       <c r="D295">
         <f>SUM(J285:J288)</f>
-        <v>588.52050336077809</v>
+        <v>30196.41628360072</v>
+      </c>
+      <c r="E295">
+        <f>D295/C295</f>
+        <v>754.910407090018</v>
       </c>
       <c r="G295">
         <v>2</v>
@@ -7920,11 +8703,12 @@
         <v>1</v>
       </c>
       <c r="I295">
+        <f>$N$3</f>
         <v>30</v>
       </c>
       <c r="J295">
         <f>I295*D294/C294</f>
-        <v>287.04281039535999</v>
+        <v>12320.949385497812</v>
       </c>
     </row>
     <row r="296" spans="2:12">
@@ -7941,6 +8725,7 @@
         <v>4</v>
       </c>
       <c r="I296">
+        <f>$L$8</f>
         <v>1</v>
       </c>
       <c r="J296">
@@ -7953,11 +8738,17 @@
         <v>4</v>
       </c>
       <c r="C297">
+        <f>$D$8</f>
         <v>4</v>
       </c>
       <c r="D297">
+        <f>$E$8</f>
         <v>14</v>
       </c>
+      <c r="E297">
+        <f>D297/C297</f>
+        <v>3.5</v>
+      </c>
       <c r="G297">
         <v>2</v>
       </c>
@@ -7965,6 +8756,7 @@
         <v>5</v>
       </c>
       <c r="I297">
+        <f>$L$9</f>
         <v>1</v>
       </c>
       <c r="J297">
@@ -7977,10 +8769,16 @@
         <v>5</v>
       </c>
       <c r="C298">
+        <f>$D$9</f>
         <v>5</v>
       </c>
       <c r="D298">
-        <v>20</v>
+        <f>$E$9</f>
+        <v>20</v>
+      </c>
+      <c r="E298">
+        <f>D298/C298</f>
+        <v>4</v>
       </c>
       <c r="G298">
         <v>2</v>
@@ -7989,21 +8787,22 @@
         <v>2</v>
       </c>
       <c r="I298">
+        <f>$L$4</f>
         <v>30</v>
       </c>
       <c r="J298">
         <f>I298*D295/C295</f>
-        <v>294.26025168038905</v>
+        <v>22647.312212700541</v>
       </c>
       <c r="L298">
         <f>D289-D299</f>
-        <v>-0.56511742994189262</v>
+        <v>-8609.1965777216246</v>
       </c>
     </row>
     <row r="299" spans="2:12">
       <c r="D299" s="1">
         <f>SUM(D294:D298)</f>
-        <v>1196.6061241514981</v>
+        <v>63086.281311594881</v>
       </c>
     </row>
     <row r="302" spans="2:12">
@@ -8048,11 +8847,16 @@
         <v>1</v>
       </c>
       <c r="C304">
-        <v>60</v>
+        <f>$D$3+$G$3+$P$5</f>
+        <v>80</v>
       </c>
       <c r="D304">
-        <f>280+J294</f>
-        <v>574.26025168038905</v>
+        <f>$E$3+$H$3+J294</f>
+        <v>38025.520354500899</v>
+      </c>
+      <c r="E304">
+        <f>D304/C304</f>
+        <v>475.31900443126125</v>
       </c>
       <c r="G304">
         <v>1</v>
@@ -8061,11 +8865,12 @@
         <v>2</v>
       </c>
       <c r="I304">
-        <v>30</v>
+        <f>$N$6</f>
+        <v>50</v>
       </c>
       <c r="J304">
         <f>I304*D305/C305</f>
-        <v>294.40153103787452</v>
+        <v>43719.701997747943</v>
       </c>
     </row>
     <row r="305" spans="2:12">
@@ -8073,11 +8878,16 @@
         <v>2</v>
       </c>
       <c r="C305">
-        <v>60</v>
+        <f>$J$6+$P$4</f>
+        <v>40</v>
       </c>
       <c r="D305">
         <f>SUM(J295:J298)</f>
-        <v>588.80306207574904</v>
+        <v>34975.761598198354</v>
+      </c>
+      <c r="E305">
+        <f>D305/C305</f>
+        <v>874.39403995495888</v>
       </c>
       <c r="G305">
         <v>2</v>
@@ -8086,11 +8896,12 @@
         <v>1</v>
       </c>
       <c r="I305">
+        <f>$N$3</f>
         <v>30</v>
       </c>
       <c r="J305">
         <f>I305*D304/C304</f>
-        <v>287.13012584019452</v>
+        <v>14259.570132937839</v>
       </c>
     </row>
     <row r="306" spans="2:12">
@@ -8107,6 +8918,7 @@
         <v>4</v>
       </c>
       <c r="I306">
+        <f>$L$8</f>
         <v>1</v>
       </c>
       <c r="J306">
@@ -8119,11 +8931,17 @@
         <v>4</v>
       </c>
       <c r="C307">
+        <f>$D$8</f>
         <v>4</v>
       </c>
       <c r="D307">
+        <f>$E$8</f>
         <v>14</v>
       </c>
+      <c r="E307">
+        <f>D307/C307</f>
+        <v>3.5</v>
+      </c>
       <c r="G307">
         <v>2</v>
       </c>
@@ -8131,6 +8949,7 @@
         <v>5</v>
       </c>
       <c r="I307">
+        <f>$L$9</f>
         <v>1</v>
       </c>
       <c r="J307">
@@ -8143,10 +8962,16 @@
         <v>5</v>
       </c>
       <c r="C308">
+        <f>$D$9</f>
         <v>5</v>
       </c>
       <c r="D308">
-        <v>20</v>
+        <f>$E$9</f>
+        <v>20</v>
+      </c>
+      <c r="E308">
+        <f>D308/C308</f>
+        <v>4</v>
       </c>
       <c r="G308">
         <v>2</v>
@@ -8155,21 +8980,22 @@
         <v>2</v>
       </c>
       <c r="I308">
+        <f>$L$4</f>
         <v>30</v>
       </c>
       <c r="J308">
         <f>I308*D305/C305</f>
-        <v>294.40153103787452</v>
+        <v>26231.821198648766</v>
       </c>
       <c r="L308">
         <f>D299-D309</f>
-        <v>-0.45718960464000702</v>
+        <v>-9949.0006411043723</v>
       </c>
     </row>
     <row r="309" spans="2:12">
       <c r="D309" s="1">
         <f>SUM(D304:D308)</f>
-        <v>1197.0633137561381</v>
+        <v>73035.281952699253</v>
       </c>
     </row>
     <row r="312" spans="2:12">
@@ -8214,11 +9040,16 @@
         <v>1</v>
       </c>
       <c r="C314">
-        <v>60</v>
+        <f>$D$3+$G$3+$P$5</f>
+        <v>80</v>
       </c>
       <c r="D314">
-        <f>280+J304</f>
-        <v>574.40153103787452</v>
+        <f>$E$3+$H$3+J304</f>
+        <v>43999.701997747943</v>
+      </c>
+      <c r="E314">
+        <f>D314/C314</f>
+        <v>549.99627497184929</v>
       </c>
       <c r="G314">
         <v>1</v>
@@ -8227,11 +9058,12 @@
         <v>2</v>
       </c>
       <c r="I314">
-        <v>30</v>
+        <f>$N$6</f>
+        <v>50</v>
       </c>
       <c r="J314">
         <f>I314*D315/C315</f>
-        <v>294.51582843903452</v>
+        <v>50623.614164483261</v>
       </c>
     </row>
     <row r="315" spans="2:12">
@@ -8239,11 +9071,16 @@
         <v>2</v>
       </c>
       <c r="C315">
-        <v>60</v>
+        <f>$J$6+$P$4</f>
+        <v>40</v>
       </c>
       <c r="D315">
         <f>SUM(J305:J308)</f>
-        <v>589.03165687806904</v>
+        <v>40498.891331586608</v>
+      </c>
+      <c r="E315">
+        <f>D315/C315</f>
+        <v>1012.4722832896653</v>
       </c>
       <c r="G315">
         <v>2</v>
@@ -8252,11 +9089,12 @@
         <v>1</v>
       </c>
       <c r="I315">
+        <f>$N$3</f>
         <v>30</v>
       </c>
       <c r="J315">
         <f>I315*D314/C314</f>
-        <v>287.20076551893726</v>
+        <v>16499.888249155476</v>
       </c>
     </row>
     <row r="316" spans="2:12">
@@ -8273,6 +9111,7 @@
         <v>4</v>
       </c>
       <c r="I316">
+        <f>$L$8</f>
         <v>1</v>
       </c>
       <c r="J316">
@@ -8285,11 +9124,17 @@
         <v>4</v>
       </c>
       <c r="C317">
+        <f>$D$8</f>
         <v>4</v>
       </c>
       <c r="D317">
+        <f>$E$8</f>
         <v>14</v>
       </c>
+      <c r="E317">
+        <f>D317/C317</f>
+        <v>3.5</v>
+      </c>
       <c r="G317">
         <v>2</v>
       </c>
@@ -8297,6 +9142,7 @@
         <v>5</v>
       </c>
       <c r="I317">
+        <f>$L$9</f>
         <v>1</v>
       </c>
       <c r="J317">
@@ -8309,10 +9155,16 @@
         <v>5</v>
       </c>
       <c r="C318">
+        <f>$D$9</f>
         <v>5</v>
       </c>
       <c r="D318">
-        <v>20</v>
+        <f>$E$9</f>
+        <v>20</v>
+      </c>
+      <c r="E318">
+        <f>D318/C318</f>
+        <v>4</v>
       </c>
       <c r="G318">
         <v>2</v>
@@ -8321,21 +9173,22 @@
         <v>2</v>
       </c>
       <c r="I318">
+        <f>$L$4</f>
         <v>30</v>
       </c>
       <c r="J318">
         <f>I318*D315/C315</f>
-        <v>294.51582843903452</v>
+        <v>30374.168498689956</v>
       </c>
       <c r="L318">
         <f>D309-D319</f>
-        <v>-0.36987415980547667</v>
+        <v>-11497.311376635291</v>
       </c>
     </row>
     <row r="319" spans="2:12">
       <c r="D319" s="1">
         <f>SUM(D314:D318)</f>
-        <v>1197.4331879159436</v>
+        <v>84532.593329334544</v>
       </c>
     </row>
   </sheetData>
